--- a/Road_to_Glory/connection_page.xlsx
+++ b/Road_to_Glory/connection_page.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\office\SymlexVPNTestCases\Road_to_Glory\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\office\SymlexVPNTestCases\Road_to_Glory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16112B2E-F327-4AB5-BBAC-E86CC0CB55EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63AF4F8F-BD40-456B-9225-20D817EBC5E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="connection page" sheetId="1" r:id="rId1"/>
@@ -1698,22 +1698,22 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A26" sqref="A26"/>
+      <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="24.28515625" customWidth="1"/>
-    <col min="3" max="3" width="45.7109375" customWidth="1"/>
-    <col min="4" max="4" width="50.7109375" customWidth="1"/>
-    <col min="5" max="5" width="45.7109375" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" customWidth="1"/>
-    <col min="7" max="7" width="40.7109375" customWidth="1"/>
-    <col min="8" max="16" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" customWidth="1"/>
+    <col min="3" max="3" width="45.6640625" customWidth="1"/>
+    <col min="4" max="4" width="50.6640625" customWidth="1"/>
+    <col min="5" max="5" width="45.6640625" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" customWidth="1"/>
+    <col min="7" max="7" width="40.6640625" customWidth="1"/>
+    <col min="8" max="16" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>26</v>
       </c>
@@ -1743,7 +1743,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="21"/>
       <c r="B2" s="22"/>
       <c r="C2" s="22"/>
@@ -1771,7 +1771,7 @@
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
     </row>
-    <row r="3" spans="1:26" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>0</v>
       </c>
@@ -1813,7 +1813,7 @@
       <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
     </row>
-    <row r="4" spans="1:26" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" ht="97.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>8</v>
       </c>
@@ -1855,7 +1855,7 @@
       <c r="Y4" s="3"/>
       <c r="Z4" s="3"/>
     </row>
-    <row r="5" spans="1:26" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" ht="120" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>10</v>
       </c>
@@ -1895,7 +1895,7 @@
       <c r="Y5" s="3"/>
       <c r="Z5" s="3"/>
     </row>
-    <row r="6" spans="1:26" ht="125.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" ht="125.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>11</v>
       </c>
@@ -1935,7 +1935,7 @@
       <c r="Y6" s="3"/>
       <c r="Z6" s="3"/>
     </row>
-    <row r="7" spans="1:26" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" ht="102.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>12</v>
       </c>
@@ -1975,7 +1975,7 @@
       <c r="Y7" s="3"/>
       <c r="Z7" s="3"/>
     </row>
-    <row r="8" spans="1:26" ht="98.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" ht="98.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>14</v>
       </c>
@@ -2015,7 +2015,7 @@
       <c r="Y8" s="3"/>
       <c r="Z8" s="3"/>
     </row>
-    <row r="9" spans="1:26" ht="143.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" ht="143.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>15</v>
       </c>
@@ -2055,7 +2055,7 @@
       <c r="Y9" s="4"/>
       <c r="Z9" s="4"/>
     </row>
-    <row r="10" spans="1:26" ht="113.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" ht="113.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>16</v>
       </c>
@@ -2095,7 +2095,7 @@
       <c r="Y10" s="4"/>
       <c r="Z10" s="4"/>
     </row>
-    <row r="11" spans="1:26" ht="162" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" ht="162" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>17</v>
       </c>
@@ -2135,7 +2135,7 @@
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
     </row>
-    <row r="12" spans="1:26" ht="93.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" ht="93.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>18</v>
       </c>
@@ -2175,7 +2175,7 @@
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
     </row>
-    <row r="13" spans="1:26" ht="113.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" ht="113.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>19</v>
       </c>
@@ -2215,7 +2215,7 @@
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
     </row>
-    <row r="14" spans="1:26" ht="126" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" ht="126" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
         <v>20</v>
       </c>
@@ -2255,7 +2255,7 @@
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
     </row>
-    <row r="15" spans="1:26" ht="156" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" ht="156" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>21</v>
       </c>
@@ -2295,7 +2295,7 @@
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
     </row>
-    <row r="16" spans="1:26" ht="130.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" ht="130.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
         <v>22</v>
       </c>
@@ -2335,7 +2335,7 @@
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
     </row>
-    <row r="17" spans="1:26" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:26" ht="134.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
         <v>23</v>
       </c>
@@ -2375,7 +2375,7 @@
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
     </row>
-    <row r="18" spans="1:26" ht="128.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:26" ht="128.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
         <v>110</v>
       </c>
@@ -2415,7 +2415,7 @@
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
     </row>
-    <row r="19" spans="1:26" ht="99.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:26" ht="99.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="13" t="s">
         <v>33</v>
       </c>
@@ -2455,7 +2455,7 @@
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
     </row>
-    <row r="20" spans="1:26" ht="143.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" ht="143.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="13" t="s">
         <v>34</v>
       </c>
@@ -2495,7 +2495,7 @@
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
     </row>
-    <row r="21" spans="1:26" ht="116.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" ht="116.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="13" t="s">
         <v>35</v>
       </c>
@@ -2535,7 +2535,7 @@
       <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
     </row>
-    <row r="22" spans="1:26" ht="111.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:26" ht="111.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="13" t="s">
         <v>36</v>
       </c>
@@ -2575,7 +2575,7 @@
       <c r="Y22" s="1"/>
       <c r="Z22" s="1"/>
     </row>
-    <row r="23" spans="1:26" ht="110.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26" ht="110.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="13" t="s">
         <v>37</v>
       </c>
@@ -2615,7 +2615,7 @@
       <c r="Y23" s="1"/>
       <c r="Z23" s="1"/>
     </row>
-    <row r="24" spans="1:26" ht="138" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="13" t="s">
         <v>38</v>
       </c>
@@ -2655,7 +2655,7 @@
       <c r="Y24" s="1"/>
       <c r="Z24" s="1"/>
     </row>
-    <row r="25" spans="1:26" ht="127.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26" ht="127.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="13" t="s">
         <v>39</v>
       </c>
@@ -2695,7 +2695,7 @@
       <c r="Y25" s="1"/>
       <c r="Z25" s="1"/>
     </row>
-    <row r="26" spans="1:26" ht="112.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:26" ht="112.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="13" t="s">
         <v>40</v>
       </c>
@@ -2735,7 +2735,7 @@
       <c r="Y26" s="1"/>
       <c r="Z26" s="1"/>
     </row>
-    <row r="27" spans="1:26" ht="114" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:26" ht="114" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -2763,7 +2763,7 @@
       <c r="Y27" s="1"/>
       <c r="Z27" s="1"/>
     </row>
-    <row r="28" spans="1:26" ht="117" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:26" ht="117" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -2791,7 +2791,7 @@
       <c r="Y28" s="1"/>
       <c r="Z28" s="1"/>
     </row>
-    <row r="29" spans="1:26" ht="128.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:26" ht="128.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -2819,7 +2819,7 @@
       <c r="Y29" s="1"/>
       <c r="Z29" s="1"/>
     </row>
-    <row r="30" spans="1:26" ht="130.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:26" ht="130.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -2847,7 +2847,7 @@
       <c r="Y30" s="1"/>
       <c r="Z30" s="1"/>
     </row>
-    <row r="31" spans="1:26" ht="132.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:26" ht="132.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -2875,7 +2875,7 @@
       <c r="Y31" s="1"/>
       <c r="Z31" s="1"/>
     </row>
-    <row r="32" spans="1:26" ht="126" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:26" ht="126" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -2903,7 +2903,7 @@
       <c r="Y32" s="1"/>
       <c r="Z32" s="1"/>
     </row>
-    <row r="33" spans="1:26" ht="126.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:26" ht="126.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -2931,7 +2931,7 @@
       <c r="Y33" s="1"/>
       <c r="Z33" s="1"/>
     </row>
-    <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -2959,7 +2959,7 @@
       <c r="Y34" s="1"/>
       <c r="Z34" s="1"/>
     </row>
-    <row r="35" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -2987,7 +2987,7 @@
       <c r="Y35" s="1"/>
       <c r="Z35" s="1"/>
     </row>
-    <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -3015,7 +3015,7 @@
       <c r="Y36" s="1"/>
       <c r="Z36" s="1"/>
     </row>
-    <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -3043,7 +3043,7 @@
       <c r="Y37" s="1"/>
       <c r="Z37" s="1"/>
     </row>
-    <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
@@ -3071,7 +3071,7 @@
       <c r="Y38" s="1"/>
       <c r="Z38" s="1"/>
     </row>
-    <row r="39" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
@@ -3099,7 +3099,7 @@
       <c r="Y39" s="1"/>
       <c r="Z39" s="1"/>
     </row>
-    <row r="40" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
@@ -3127,7 +3127,7 @@
       <c r="Y40" s="1"/>
       <c r="Z40" s="1"/>
     </row>
-    <row r="41" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -3155,7 +3155,7 @@
       <c r="Y41" s="1"/>
       <c r="Z41" s="1"/>
     </row>
-    <row r="42" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -3183,7 +3183,7 @@
       <c r="Y42" s="1"/>
       <c r="Z42" s="1"/>
     </row>
-    <row r="43" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="5"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
@@ -3211,7 +3211,7 @@
       <c r="Y43" s="1"/>
       <c r="Z43" s="1"/>
     </row>
-    <row r="44" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="5"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
@@ -3239,7 +3239,7 @@
       <c r="Y44" s="1"/>
       <c r="Z44" s="1"/>
     </row>
-    <row r="45" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
@@ -3267,7 +3267,7 @@
       <c r="Y45" s="1"/>
       <c r="Z45" s="1"/>
     </row>
-    <row r="46" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
@@ -3295,7 +3295,7 @@
       <c r="Y46" s="1"/>
       <c r="Z46" s="1"/>
     </row>
-    <row r="47" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
@@ -3323,7 +3323,7 @@
       <c r="Y47" s="1"/>
       <c r="Z47" s="1"/>
     </row>
-    <row r="48" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="5"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
@@ -3351,7 +3351,7 @@
       <c r="Y48" s="1"/>
       <c r="Z48" s="1"/>
     </row>
-    <row r="49" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="5"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
@@ -3379,7 +3379,7 @@
       <c r="Y49" s="1"/>
       <c r="Z49" s="1"/>
     </row>
-    <row r="50" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="5"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -3407,7 +3407,7 @@
       <c r="Y50" s="1"/>
       <c r="Z50" s="1"/>
     </row>
-    <row r="51" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="5"/>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
@@ -3435,7 +3435,7 @@
       <c r="Y51" s="1"/>
       <c r="Z51" s="1"/>
     </row>
-    <row r="52" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="5"/>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
@@ -3463,7 +3463,7 @@
       <c r="Y52" s="1"/>
       <c r="Z52" s="1"/>
     </row>
-    <row r="53" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="5"/>
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
@@ -3491,7 +3491,7 @@
       <c r="Y53" s="1"/>
       <c r="Z53" s="1"/>
     </row>
-    <row r="54" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="5"/>
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
@@ -3519,7 +3519,7 @@
       <c r="Y54" s="1"/>
       <c r="Z54" s="1"/>
     </row>
-    <row r="55" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="5"/>
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
@@ -3547,7 +3547,7 @@
       <c r="Y55" s="1"/>
       <c r="Z55" s="1"/>
     </row>
-    <row r="56" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="5"/>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
@@ -3575,7 +3575,7 @@
       <c r="Y56" s="1"/>
       <c r="Z56" s="1"/>
     </row>
-    <row r="57" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="5"/>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
@@ -3603,7 +3603,7 @@
       <c r="Y57" s="1"/>
       <c r="Z57" s="1"/>
     </row>
-    <row r="58" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="5"/>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
@@ -3631,7 +3631,7 @@
       <c r="Y58" s="1"/>
       <c r="Z58" s="1"/>
     </row>
-    <row r="59" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="5"/>
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
@@ -3659,7 +3659,7 @@
       <c r="Y59" s="1"/>
       <c r="Z59" s="1"/>
     </row>
-    <row r="60" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="5"/>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
@@ -3687,7 +3687,7 @@
       <c r="Y60" s="1"/>
       <c r="Z60" s="1"/>
     </row>
-    <row r="61" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="5"/>
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
@@ -3715,7 +3715,7 @@
       <c r="Y61" s="1"/>
       <c r="Z61" s="1"/>
     </row>
-    <row r="62" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="5"/>
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
@@ -3743,7 +3743,7 @@
       <c r="Y62" s="1"/>
       <c r="Z62" s="1"/>
     </row>
-    <row r="63" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="5"/>
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
@@ -3771,7 +3771,7 @@
       <c r="Y63" s="1"/>
       <c r="Z63" s="1"/>
     </row>
-    <row r="64" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="5"/>
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
@@ -3799,7 +3799,7 @@
       <c r="Y64" s="1"/>
       <c r="Z64" s="1"/>
     </row>
-    <row r="65" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="5"/>
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
@@ -3827,7 +3827,7 @@
       <c r="Y65" s="1"/>
       <c r="Z65" s="1"/>
     </row>
-    <row r="66" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="5"/>
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
@@ -3855,7 +3855,7 @@
       <c r="Y66" s="1"/>
       <c r="Z66" s="1"/>
     </row>
-    <row r="67" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="5"/>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
@@ -3883,7 +3883,7 @@
       <c r="Y67" s="1"/>
       <c r="Z67" s="1"/>
     </row>
-    <row r="68" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="5"/>
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
@@ -3911,7 +3911,7 @@
       <c r="Y68" s="1"/>
       <c r="Z68" s="1"/>
     </row>
-    <row r="69" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="5"/>
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
@@ -3939,7 +3939,7 @@
       <c r="Y69" s="1"/>
       <c r="Z69" s="1"/>
     </row>
-    <row r="70" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="5"/>
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
@@ -3967,7 +3967,7 @@
       <c r="Y70" s="1"/>
       <c r="Z70" s="1"/>
     </row>
-    <row r="71" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="5"/>
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
@@ -3995,7 +3995,7 @@
       <c r="Y71" s="1"/>
       <c r="Z71" s="1"/>
     </row>
-    <row r="72" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="5"/>
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
@@ -4023,7 +4023,7 @@
       <c r="Y72" s="1"/>
       <c r="Z72" s="1"/>
     </row>
-    <row r="73" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="5"/>
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
@@ -4051,7 +4051,7 @@
       <c r="Y73" s="1"/>
       <c r="Z73" s="1"/>
     </row>
-    <row r="74" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="5"/>
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
@@ -4079,7 +4079,7 @@
       <c r="Y74" s="1"/>
       <c r="Z74" s="1"/>
     </row>
-    <row r="75" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="5"/>
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
@@ -4107,7 +4107,7 @@
       <c r="Y75" s="1"/>
       <c r="Z75" s="1"/>
     </row>
-    <row r="76" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="5"/>
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
@@ -4135,7 +4135,7 @@
       <c r="Y76" s="1"/>
       <c r="Z76" s="1"/>
     </row>
-    <row r="77" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="5"/>
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
@@ -4163,7 +4163,7 @@
       <c r="Y77" s="1"/>
       <c r="Z77" s="1"/>
     </row>
-    <row r="78" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="5"/>
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
@@ -4191,7 +4191,7 @@
       <c r="Y78" s="1"/>
       <c r="Z78" s="1"/>
     </row>
-    <row r="79" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="5"/>
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
@@ -4219,7 +4219,7 @@
       <c r="Y79" s="1"/>
       <c r="Z79" s="1"/>
     </row>
-    <row r="80" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="5"/>
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
@@ -4247,7 +4247,7 @@
       <c r="Y80" s="1"/>
       <c r="Z80" s="1"/>
     </row>
-    <row r="81" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="5"/>
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
@@ -4275,7 +4275,7 @@
       <c r="Y81" s="1"/>
       <c r="Z81" s="1"/>
     </row>
-    <row r="82" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="5"/>
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
@@ -4303,7 +4303,7 @@
       <c r="Y82" s="1"/>
       <c r="Z82" s="1"/>
     </row>
-    <row r="83" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="5"/>
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
@@ -4331,7 +4331,7 @@
       <c r="Y83" s="1"/>
       <c r="Z83" s="1"/>
     </row>
-    <row r="84" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="5"/>
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
@@ -4359,7 +4359,7 @@
       <c r="Y84" s="1"/>
       <c r="Z84" s="1"/>
     </row>
-    <row r="85" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="5"/>
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
@@ -4387,7 +4387,7 @@
       <c r="Y85" s="1"/>
       <c r="Z85" s="1"/>
     </row>
-    <row r="86" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="5"/>
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
@@ -4415,7 +4415,7 @@
       <c r="Y86" s="1"/>
       <c r="Z86" s="1"/>
     </row>
-    <row r="87" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="5"/>
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
@@ -4443,7 +4443,7 @@
       <c r="Y87" s="1"/>
       <c r="Z87" s="1"/>
     </row>
-    <row r="88" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="5"/>
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
@@ -4471,7 +4471,7 @@
       <c r="Y88" s="1"/>
       <c r="Z88" s="1"/>
     </row>
-    <row r="89" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="5"/>
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
@@ -4499,7 +4499,7 @@
       <c r="Y89" s="1"/>
       <c r="Z89" s="1"/>
     </row>
-    <row r="90" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="5"/>
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
@@ -4527,7 +4527,7 @@
       <c r="Y90" s="1"/>
       <c r="Z90" s="1"/>
     </row>
-    <row r="91" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="5"/>
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
@@ -4555,7 +4555,7 @@
       <c r="Y91" s="1"/>
       <c r="Z91" s="1"/>
     </row>
-    <row r="92" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="5"/>
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
@@ -4583,7 +4583,7 @@
       <c r="Y92" s="1"/>
       <c r="Z92" s="1"/>
     </row>
-    <row r="93" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="5"/>
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
@@ -4611,7 +4611,7 @@
       <c r="Y93" s="1"/>
       <c r="Z93" s="1"/>
     </row>
-    <row r="94" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="5"/>
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
@@ -4639,7 +4639,7 @@
       <c r="Y94" s="1"/>
       <c r="Z94" s="1"/>
     </row>
-    <row r="95" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="5"/>
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
@@ -4667,7 +4667,7 @@
       <c r="Y95" s="1"/>
       <c r="Z95" s="1"/>
     </row>
-    <row r="96" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="5"/>
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
@@ -4695,7 +4695,7 @@
       <c r="Y96" s="1"/>
       <c r="Z96" s="1"/>
     </row>
-    <row r="97" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="5"/>
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
@@ -4723,7 +4723,7 @@
       <c r="Y97" s="1"/>
       <c r="Z97" s="1"/>
     </row>
-    <row r="98" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="5"/>
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
@@ -4751,7 +4751,7 @@
       <c r="Y98" s="1"/>
       <c r="Z98" s="1"/>
     </row>
-    <row r="99" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="5"/>
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
@@ -4779,7 +4779,7 @@
       <c r="Y99" s="1"/>
       <c r="Z99" s="1"/>
     </row>
-    <row r="100" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="5"/>
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
@@ -4807,7 +4807,7 @@
       <c r="Y100" s="1"/>
       <c r="Z100" s="1"/>
     </row>
-    <row r="101" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="5"/>
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
@@ -4835,7 +4835,7 @@
       <c r="Y101" s="1"/>
       <c r="Z101" s="1"/>
     </row>
-    <row r="102" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="5"/>
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
@@ -4863,7 +4863,7 @@
       <c r="Y102" s="1"/>
       <c r="Z102" s="1"/>
     </row>
-    <row r="103" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="5"/>
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
@@ -4891,7 +4891,7 @@
       <c r="Y103" s="1"/>
       <c r="Z103" s="1"/>
     </row>
-    <row r="104" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="5"/>
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
@@ -4919,7 +4919,7 @@
       <c r="Y104" s="1"/>
       <c r="Z104" s="1"/>
     </row>
-    <row r="105" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="5"/>
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
@@ -4947,7 +4947,7 @@
       <c r="Y105" s="1"/>
       <c r="Z105" s="1"/>
     </row>
-    <row r="106" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="5"/>
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
@@ -4975,7 +4975,7 @@
       <c r="Y106" s="1"/>
       <c r="Z106" s="1"/>
     </row>
-    <row r="107" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="5"/>
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
@@ -5003,7 +5003,7 @@
       <c r="Y107" s="1"/>
       <c r="Z107" s="1"/>
     </row>
-    <row r="108" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="5"/>
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
@@ -5031,7 +5031,7 @@
       <c r="Y108" s="1"/>
       <c r="Z108" s="1"/>
     </row>
-    <row r="109" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="5"/>
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
@@ -5059,7 +5059,7 @@
       <c r="Y109" s="1"/>
       <c r="Z109" s="1"/>
     </row>
-    <row r="110" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="5"/>
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
@@ -5087,7 +5087,7 @@
       <c r="Y110" s="1"/>
       <c r="Z110" s="1"/>
     </row>
-    <row r="111" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="5"/>
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
@@ -5115,7 +5115,7 @@
       <c r="Y111" s="1"/>
       <c r="Z111" s="1"/>
     </row>
-    <row r="112" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="5"/>
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
@@ -5143,7 +5143,7 @@
       <c r="Y112" s="1"/>
       <c r="Z112" s="1"/>
     </row>
-    <row r="113" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="5"/>
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
@@ -5171,7 +5171,7 @@
       <c r="Y113" s="1"/>
       <c r="Z113" s="1"/>
     </row>
-    <row r="114" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="5"/>
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
@@ -5199,7 +5199,7 @@
       <c r="Y114" s="1"/>
       <c r="Z114" s="1"/>
     </row>
-    <row r="115" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="5"/>
       <c r="B115" s="5"/>
       <c r="C115" s="5"/>
@@ -5227,7 +5227,7 @@
       <c r="Y115" s="1"/>
       <c r="Z115" s="1"/>
     </row>
-    <row r="116" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="5"/>
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
@@ -5255,7 +5255,7 @@
       <c r="Y116" s="1"/>
       <c r="Z116" s="1"/>
     </row>
-    <row r="117" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="5"/>
       <c r="B117" s="5"/>
       <c r="C117" s="5"/>
@@ -5283,7 +5283,7 @@
       <c r="Y117" s="1"/>
       <c r="Z117" s="1"/>
     </row>
-    <row r="118" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="5"/>
       <c r="B118" s="5"/>
       <c r="C118" s="5"/>
@@ -5311,7 +5311,7 @@
       <c r="Y118" s="1"/>
       <c r="Z118" s="1"/>
     </row>
-    <row r="119" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="5"/>
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
@@ -5339,7 +5339,7 @@
       <c r="Y119" s="1"/>
       <c r="Z119" s="1"/>
     </row>
-    <row r="120" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="5"/>
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
@@ -5367,7 +5367,7 @@
       <c r="Y120" s="1"/>
       <c r="Z120" s="1"/>
     </row>
-    <row r="121" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="5"/>
       <c r="B121" s="5"/>
       <c r="C121" s="5"/>
@@ -5395,7 +5395,7 @@
       <c r="Y121" s="1"/>
       <c r="Z121" s="1"/>
     </row>
-    <row r="122" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="5"/>
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
@@ -5423,7 +5423,7 @@
       <c r="Y122" s="1"/>
       <c r="Z122" s="1"/>
     </row>
-    <row r="123" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="5"/>
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
@@ -5451,7 +5451,7 @@
       <c r="Y123" s="1"/>
       <c r="Z123" s="1"/>
     </row>
-    <row r="124" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="5"/>
       <c r="B124" s="5"/>
       <c r="C124" s="5"/>
@@ -5479,7 +5479,7 @@
       <c r="Y124" s="1"/>
       <c r="Z124" s="1"/>
     </row>
-    <row r="125" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="5"/>
       <c r="B125" s="5"/>
       <c r="C125" s="5"/>
@@ -5507,7 +5507,7 @@
       <c r="Y125" s="1"/>
       <c r="Z125" s="1"/>
     </row>
-    <row r="126" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="5"/>
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
@@ -5535,7 +5535,7 @@
       <c r="Y126" s="1"/>
       <c r="Z126" s="1"/>
     </row>
-    <row r="127" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="5"/>
       <c r="B127" s="5"/>
       <c r="C127" s="5"/>
@@ -5563,7 +5563,7 @@
       <c r="Y127" s="1"/>
       <c r="Z127" s="1"/>
     </row>
-    <row r="128" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="5"/>
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
@@ -5591,7 +5591,7 @@
       <c r="Y128" s="1"/>
       <c r="Z128" s="1"/>
     </row>
-    <row r="129" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="5"/>
       <c r="B129" s="5"/>
       <c r="C129" s="5"/>
@@ -5619,7 +5619,7 @@
       <c r="Y129" s="1"/>
       <c r="Z129" s="1"/>
     </row>
-    <row r="130" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="5"/>
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
@@ -5647,7 +5647,7 @@
       <c r="Y130" s="1"/>
       <c r="Z130" s="1"/>
     </row>
-    <row r="131" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="5"/>
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
@@ -5675,7 +5675,7 @@
       <c r="Y131" s="1"/>
       <c r="Z131" s="1"/>
     </row>
-    <row r="132" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="5"/>
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
@@ -5703,7 +5703,7 @@
       <c r="Y132" s="1"/>
       <c r="Z132" s="1"/>
     </row>
-    <row r="133" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="5"/>
       <c r="B133" s="5"/>
       <c r="C133" s="5"/>
@@ -5731,7 +5731,7 @@
       <c r="Y133" s="1"/>
       <c r="Z133" s="1"/>
     </row>
-    <row r="134" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="5"/>
       <c r="B134" s="5"/>
       <c r="C134" s="5"/>
@@ -5759,7 +5759,7 @@
       <c r="Y134" s="1"/>
       <c r="Z134" s="1"/>
     </row>
-    <row r="135" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="5"/>
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
@@ -5787,7 +5787,7 @@
       <c r="Y135" s="1"/>
       <c r="Z135" s="1"/>
     </row>
-    <row r="136" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="5"/>
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
@@ -5815,7 +5815,7 @@
       <c r="Y136" s="1"/>
       <c r="Z136" s="1"/>
     </row>
-    <row r="137" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="5"/>
       <c r="B137" s="5"/>
       <c r="C137" s="5"/>
@@ -5843,7 +5843,7 @@
       <c r="Y137" s="1"/>
       <c r="Z137" s="1"/>
     </row>
-    <row r="138" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="5"/>
       <c r="B138" s="5"/>
       <c r="C138" s="5"/>
@@ -5871,7 +5871,7 @@
       <c r="Y138" s="1"/>
       <c r="Z138" s="1"/>
     </row>
-    <row r="139" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="5"/>
       <c r="B139" s="5"/>
       <c r="C139" s="5"/>
@@ -5899,7 +5899,7 @@
       <c r="Y139" s="1"/>
       <c r="Z139" s="1"/>
     </row>
-    <row r="140" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="5"/>
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
@@ -5927,7 +5927,7 @@
       <c r="Y140" s="1"/>
       <c r="Z140" s="1"/>
     </row>
-    <row r="141" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="5"/>
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
@@ -5955,7 +5955,7 @@
       <c r="Y141" s="1"/>
       <c r="Z141" s="1"/>
     </row>
-    <row r="142" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="5"/>
       <c r="B142" s="5"/>
       <c r="C142" s="5"/>
@@ -5983,7 +5983,7 @@
       <c r="Y142" s="1"/>
       <c r="Z142" s="1"/>
     </row>
-    <row r="143" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="5"/>
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
@@ -6011,7 +6011,7 @@
       <c r="Y143" s="1"/>
       <c r="Z143" s="1"/>
     </row>
-    <row r="144" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="5"/>
       <c r="B144" s="5"/>
       <c r="C144" s="5"/>
@@ -6039,7 +6039,7 @@
       <c r="Y144" s="1"/>
       <c r="Z144" s="1"/>
     </row>
-    <row r="145" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="5"/>
       <c r="B145" s="5"/>
       <c r="C145" s="5"/>
@@ -6067,7 +6067,7 @@
       <c r="Y145" s="1"/>
       <c r="Z145" s="1"/>
     </row>
-    <row r="146" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="5"/>
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
@@ -6095,7 +6095,7 @@
       <c r="Y146" s="1"/>
       <c r="Z146" s="1"/>
     </row>
-    <row r="147" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="5"/>
       <c r="B147" s="5"/>
       <c r="C147" s="5"/>
@@ -6123,7 +6123,7 @@
       <c r="Y147" s="1"/>
       <c r="Z147" s="1"/>
     </row>
-    <row r="148" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="5"/>
       <c r="B148" s="5"/>
       <c r="C148" s="5"/>
@@ -6151,7 +6151,7 @@
       <c r="Y148" s="1"/>
       <c r="Z148" s="1"/>
     </row>
-    <row r="149" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="5"/>
       <c r="B149" s="5"/>
       <c r="C149" s="5"/>
@@ -6179,7 +6179,7 @@
       <c r="Y149" s="1"/>
       <c r="Z149" s="1"/>
     </row>
-    <row r="150" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="5"/>
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
@@ -6207,7 +6207,7 @@
       <c r="Y150" s="1"/>
       <c r="Z150" s="1"/>
     </row>
-    <row r="151" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="5"/>
       <c r="B151" s="5"/>
       <c r="C151" s="5"/>
@@ -6235,7 +6235,7 @@
       <c r="Y151" s="1"/>
       <c r="Z151" s="1"/>
     </row>
-    <row r="152" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="5"/>
       <c r="B152" s="5"/>
       <c r="C152" s="5"/>
@@ -6263,7 +6263,7 @@
       <c r="Y152" s="1"/>
       <c r="Z152" s="1"/>
     </row>
-    <row r="153" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="5"/>
       <c r="B153" s="5"/>
       <c r="C153" s="5"/>
@@ -6291,7 +6291,7 @@
       <c r="Y153" s="1"/>
       <c r="Z153" s="1"/>
     </row>
-    <row r="154" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="5"/>
       <c r="B154" s="5"/>
       <c r="C154" s="5"/>
@@ -6319,7 +6319,7 @@
       <c r="Y154" s="1"/>
       <c r="Z154" s="1"/>
     </row>
-    <row r="155" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="5"/>
       <c r="B155" s="5"/>
       <c r="C155" s="5"/>
@@ -6347,7 +6347,7 @@
       <c r="Y155" s="1"/>
       <c r="Z155" s="1"/>
     </row>
-    <row r="156" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="5"/>
       <c r="B156" s="5"/>
       <c r="C156" s="5"/>
@@ -6375,7 +6375,7 @@
       <c r="Y156" s="1"/>
       <c r="Z156" s="1"/>
     </row>
-    <row r="157" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="5"/>
       <c r="B157" s="5"/>
       <c r="C157" s="5"/>
@@ -6403,7 +6403,7 @@
       <c r="Y157" s="1"/>
       <c r="Z157" s="1"/>
     </row>
-    <row r="158" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="5"/>
       <c r="B158" s="5"/>
       <c r="C158" s="5"/>
@@ -6431,7 +6431,7 @@
       <c r="Y158" s="1"/>
       <c r="Z158" s="1"/>
     </row>
-    <row r="159" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="5"/>
       <c r="B159" s="5"/>
       <c r="C159" s="5"/>
@@ -6459,7 +6459,7 @@
       <c r="Y159" s="1"/>
       <c r="Z159" s="1"/>
     </row>
-    <row r="160" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="5"/>
       <c r="B160" s="5"/>
       <c r="C160" s="5"/>
@@ -6487,7 +6487,7 @@
       <c r="Y160" s="1"/>
       <c r="Z160" s="1"/>
     </row>
-    <row r="161" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="5"/>
       <c r="B161" s="5"/>
       <c r="C161" s="5"/>
@@ -6515,7 +6515,7 @@
       <c r="Y161" s="1"/>
       <c r="Z161" s="1"/>
     </row>
-    <row r="162" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="5"/>
       <c r="B162" s="5"/>
       <c r="C162" s="5"/>
@@ -6543,7 +6543,7 @@
       <c r="Y162" s="1"/>
       <c r="Z162" s="1"/>
     </row>
-    <row r="163" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="5"/>
       <c r="B163" s="5"/>
       <c r="C163" s="5"/>
@@ -6571,7 +6571,7 @@
       <c r="Y163" s="1"/>
       <c r="Z163" s="1"/>
     </row>
-    <row r="164" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="5"/>
       <c r="B164" s="5"/>
       <c r="C164" s="5"/>
@@ -6599,7 +6599,7 @@
       <c r="Y164" s="1"/>
       <c r="Z164" s="1"/>
     </row>
-    <row r="165" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="5"/>
       <c r="B165" s="5"/>
       <c r="C165" s="5"/>
@@ -6627,7 +6627,7 @@
       <c r="Y165" s="1"/>
       <c r="Z165" s="1"/>
     </row>
-    <row r="166" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="5"/>
       <c r="B166" s="5"/>
       <c r="C166" s="5"/>
@@ -6655,7 +6655,7 @@
       <c r="Y166" s="1"/>
       <c r="Z166" s="1"/>
     </row>
-    <row r="167" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="5"/>
       <c r="B167" s="5"/>
       <c r="C167" s="5"/>
@@ -6683,7 +6683,7 @@
       <c r="Y167" s="1"/>
       <c r="Z167" s="1"/>
     </row>
-    <row r="168" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="5"/>
       <c r="B168" s="5"/>
       <c r="C168" s="5"/>
@@ -6711,7 +6711,7 @@
       <c r="Y168" s="1"/>
       <c r="Z168" s="1"/>
     </row>
-    <row r="169" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="5"/>
       <c r="B169" s="5"/>
       <c r="C169" s="5"/>
@@ -6739,7 +6739,7 @@
       <c r="Y169" s="1"/>
       <c r="Z169" s="1"/>
     </row>
-    <row r="170" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="5"/>
       <c r="B170" s="5"/>
       <c r="C170" s="5"/>
@@ -6767,7 +6767,7 @@
       <c r="Y170" s="1"/>
       <c r="Z170" s="1"/>
     </row>
-    <row r="171" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="5"/>
       <c r="B171" s="5"/>
       <c r="C171" s="5"/>
@@ -6795,7 +6795,7 @@
       <c r="Y171" s="1"/>
       <c r="Z171" s="1"/>
     </row>
-    <row r="172" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="5"/>
       <c r="B172" s="5"/>
       <c r="C172" s="5"/>
@@ -6823,7 +6823,7 @@
       <c r="Y172" s="1"/>
       <c r="Z172" s="1"/>
     </row>
-    <row r="173" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="5"/>
       <c r="B173" s="5"/>
       <c r="C173" s="5"/>
@@ -6851,7 +6851,7 @@
       <c r="Y173" s="1"/>
       <c r="Z173" s="1"/>
     </row>
-    <row r="174" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="5"/>
       <c r="B174" s="5"/>
       <c r="C174" s="5"/>
@@ -6879,7 +6879,7 @@
       <c r="Y174" s="1"/>
       <c r="Z174" s="1"/>
     </row>
-    <row r="175" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="5"/>
       <c r="B175" s="5"/>
       <c r="C175" s="5"/>
@@ -6907,7 +6907,7 @@
       <c r="Y175" s="1"/>
       <c r="Z175" s="1"/>
     </row>
-    <row r="176" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="5"/>
       <c r="B176" s="5"/>
       <c r="C176" s="5"/>
@@ -6935,7 +6935,7 @@
       <c r="Y176" s="1"/>
       <c r="Z176" s="1"/>
     </row>
-    <row r="177" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="5"/>
       <c r="B177" s="5"/>
       <c r="C177" s="5"/>
@@ -6963,7 +6963,7 @@
       <c r="Y177" s="1"/>
       <c r="Z177" s="1"/>
     </row>
-    <row r="178" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="5"/>
       <c r="B178" s="5"/>
       <c r="C178" s="5"/>
@@ -6991,7 +6991,7 @@
       <c r="Y178" s="1"/>
       <c r="Z178" s="1"/>
     </row>
-    <row r="179" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="5"/>
       <c r="B179" s="5"/>
       <c r="C179" s="5"/>
@@ -7019,7 +7019,7 @@
       <c r="Y179" s="1"/>
       <c r="Z179" s="1"/>
     </row>
-    <row r="180" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="5"/>
       <c r="B180" s="5"/>
       <c r="C180" s="5"/>
@@ -7047,7 +7047,7 @@
       <c r="Y180" s="1"/>
       <c r="Z180" s="1"/>
     </row>
-    <row r="181" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="5"/>
       <c r="B181" s="5"/>
       <c r="C181" s="5"/>
@@ -7075,7 +7075,7 @@
       <c r="Y181" s="1"/>
       <c r="Z181" s="1"/>
     </row>
-    <row r="182" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="5"/>
       <c r="B182" s="5"/>
       <c r="C182" s="5"/>
@@ -7103,7 +7103,7 @@
       <c r="Y182" s="1"/>
       <c r="Z182" s="1"/>
     </row>
-    <row r="183" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="5"/>
       <c r="B183" s="5"/>
       <c r="C183" s="5"/>
@@ -7131,7 +7131,7 @@
       <c r="Y183" s="1"/>
       <c r="Z183" s="1"/>
     </row>
-    <row r="184" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="5"/>
       <c r="B184" s="5"/>
       <c r="C184" s="5"/>
@@ -7159,7 +7159,7 @@
       <c r="Y184" s="1"/>
       <c r="Z184" s="1"/>
     </row>
-    <row r="185" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="5"/>
       <c r="B185" s="5"/>
       <c r="C185" s="5"/>
@@ -7187,7 +7187,7 @@
       <c r="Y185" s="1"/>
       <c r="Z185" s="1"/>
     </row>
-    <row r="186" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="5"/>
       <c r="B186" s="5"/>
       <c r="C186" s="5"/>
@@ -7215,7 +7215,7 @@
       <c r="Y186" s="1"/>
       <c r="Z186" s="1"/>
     </row>
-    <row r="187" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="5"/>
       <c r="B187" s="5"/>
       <c r="C187" s="5"/>
@@ -7243,7 +7243,7 @@
       <c r="Y187" s="1"/>
       <c r="Z187" s="1"/>
     </row>
-    <row r="188" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="5"/>
       <c r="B188" s="5"/>
       <c r="C188" s="5"/>
@@ -7271,7 +7271,7 @@
       <c r="Y188" s="1"/>
       <c r="Z188" s="1"/>
     </row>
-    <row r="189" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="5"/>
       <c r="B189" s="5"/>
       <c r="C189" s="5"/>
@@ -7299,7 +7299,7 @@
       <c r="Y189" s="1"/>
       <c r="Z189" s="1"/>
     </row>
-    <row r="190" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="5"/>
       <c r="B190" s="5"/>
       <c r="C190" s="5"/>
@@ -7327,7 +7327,7 @@
       <c r="Y190" s="1"/>
       <c r="Z190" s="1"/>
     </row>
-    <row r="191" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="5"/>
       <c r="B191" s="5"/>
       <c r="C191" s="5"/>
@@ -7355,7 +7355,7 @@
       <c r="Y191" s="1"/>
       <c r="Z191" s="1"/>
     </row>
-    <row r="192" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="5"/>
       <c r="B192" s="5"/>
       <c r="C192" s="5"/>
@@ -7383,7 +7383,7 @@
       <c r="Y192" s="1"/>
       <c r="Z192" s="1"/>
     </row>
-    <row r="193" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="5"/>
       <c r="B193" s="5"/>
       <c r="C193" s="5"/>
@@ -7411,7 +7411,7 @@
       <c r="Y193" s="1"/>
       <c r="Z193" s="1"/>
     </row>
-    <row r="194" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="5"/>
       <c r="B194" s="5"/>
       <c r="C194" s="5"/>
@@ -7439,7 +7439,7 @@
       <c r="Y194" s="1"/>
       <c r="Z194" s="1"/>
     </row>
-    <row r="195" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="5"/>
       <c r="B195" s="5"/>
       <c r="C195" s="5"/>
@@ -7467,7 +7467,7 @@
       <c r="Y195" s="1"/>
       <c r="Z195" s="1"/>
     </row>
-    <row r="196" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="5"/>
       <c r="B196" s="5"/>
       <c r="C196" s="5"/>
@@ -7495,7 +7495,7 @@
       <c r="Y196" s="1"/>
       <c r="Z196" s="1"/>
     </row>
-    <row r="197" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="5"/>
       <c r="B197" s="5"/>
       <c r="C197" s="5"/>
@@ -7523,7 +7523,7 @@
       <c r="Y197" s="1"/>
       <c r="Z197" s="1"/>
     </row>
-    <row r="198" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="5"/>
       <c r="B198" s="5"/>
       <c r="C198" s="5"/>
@@ -7551,7 +7551,7 @@
       <c r="Y198" s="1"/>
       <c r="Z198" s="1"/>
     </row>
-    <row r="199" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="5"/>
       <c r="B199" s="5"/>
       <c r="C199" s="5"/>
@@ -7579,7 +7579,7 @@
       <c r="Y199" s="1"/>
       <c r="Z199" s="1"/>
     </row>
-    <row r="200" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="5"/>
       <c r="B200" s="5"/>
       <c r="C200" s="5"/>
@@ -7607,7 +7607,7 @@
       <c r="Y200" s="1"/>
       <c r="Z200" s="1"/>
     </row>
-    <row r="201" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="5"/>
       <c r="B201" s="5"/>
       <c r="C201" s="5"/>
@@ -7635,7 +7635,7 @@
       <c r="Y201" s="1"/>
       <c r="Z201" s="1"/>
     </row>
-    <row r="202" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="5"/>
       <c r="B202" s="5"/>
       <c r="C202" s="5"/>
@@ -7663,7 +7663,7 @@
       <c r="Y202" s="1"/>
       <c r="Z202" s="1"/>
     </row>
-    <row r="203" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="5"/>
       <c r="B203" s="5"/>
       <c r="C203" s="5"/>
@@ -7691,7 +7691,7 @@
       <c r="Y203" s="1"/>
       <c r="Z203" s="1"/>
     </row>
-    <row r="204" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="5"/>
       <c r="B204" s="5"/>
       <c r="C204" s="5"/>
@@ -7719,7 +7719,7 @@
       <c r="Y204" s="1"/>
       <c r="Z204" s="1"/>
     </row>
-    <row r="205" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="5"/>
       <c r="B205" s="5"/>
       <c r="C205" s="5"/>
@@ -7747,7 +7747,7 @@
       <c r="Y205" s="1"/>
       <c r="Z205" s="1"/>
     </row>
-    <row r="206" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="5"/>
       <c r="B206" s="5"/>
       <c r="C206" s="5"/>
@@ -7775,7 +7775,7 @@
       <c r="Y206" s="1"/>
       <c r="Z206" s="1"/>
     </row>
-    <row r="207" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="5"/>
       <c r="B207" s="5"/>
       <c r="C207" s="5"/>
@@ -7803,7 +7803,7 @@
       <c r="Y207" s="1"/>
       <c r="Z207" s="1"/>
     </row>
-    <row r="208" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="5"/>
       <c r="B208" s="5"/>
       <c r="C208" s="5"/>
@@ -7831,7 +7831,7 @@
       <c r="Y208" s="1"/>
       <c r="Z208" s="1"/>
     </row>
-    <row r="209" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="5"/>
       <c r="B209" s="5"/>
       <c r="C209" s="5"/>
@@ -7859,7 +7859,7 @@
       <c r="Y209" s="1"/>
       <c r="Z209" s="1"/>
     </row>
-    <row r="210" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="5"/>
       <c r="B210" s="5"/>
       <c r="C210" s="5"/>
@@ -7887,7 +7887,7 @@
       <c r="Y210" s="1"/>
       <c r="Z210" s="1"/>
     </row>
-    <row r="211" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="5"/>
       <c r="B211" s="5"/>
       <c r="C211" s="5"/>
@@ -7915,7 +7915,7 @@
       <c r="Y211" s="1"/>
       <c r="Z211" s="1"/>
     </row>
-    <row r="212" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="5"/>
       <c r="B212" s="5"/>
       <c r="C212" s="5"/>
@@ -7943,7 +7943,7 @@
       <c r="Y212" s="1"/>
       <c r="Z212" s="1"/>
     </row>
-    <row r="213" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" s="5"/>
       <c r="B213" s="5"/>
       <c r="C213" s="5"/>
@@ -7971,7 +7971,7 @@
       <c r="Y213" s="1"/>
       <c r="Z213" s="1"/>
     </row>
-    <row r="214" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="5"/>
       <c r="B214" s="5"/>
       <c r="C214" s="5"/>
@@ -7999,7 +7999,7 @@
       <c r="Y214" s="1"/>
       <c r="Z214" s="1"/>
     </row>
-    <row r="215" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="5"/>
       <c r="B215" s="5"/>
       <c r="C215" s="5"/>
@@ -8027,7 +8027,7 @@
       <c r="Y215" s="1"/>
       <c r="Z215" s="1"/>
     </row>
-    <row r="216" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="5"/>
       <c r="B216" s="5"/>
       <c r="C216" s="5"/>
@@ -8055,7 +8055,7 @@
       <c r="Y216" s="1"/>
       <c r="Z216" s="1"/>
     </row>
-    <row r="217" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="5"/>
       <c r="B217" s="5"/>
       <c r="C217" s="5"/>
@@ -8083,7 +8083,7 @@
       <c r="Y217" s="1"/>
       <c r="Z217" s="1"/>
     </row>
-    <row r="218" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="5"/>
       <c r="B218" s="5"/>
       <c r="C218" s="5"/>
@@ -8111,7 +8111,7 @@
       <c r="Y218" s="1"/>
       <c r="Z218" s="1"/>
     </row>
-    <row r="219" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="5"/>
       <c r="B219" s="5"/>
       <c r="C219" s="5"/>
@@ -8139,7 +8139,7 @@
       <c r="Y219" s="1"/>
       <c r="Z219" s="1"/>
     </row>
-    <row r="220" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" s="5"/>
       <c r="B220" s="5"/>
       <c r="C220" s="5"/>
@@ -8167,7 +8167,7 @@
       <c r="Y220" s="1"/>
       <c r="Z220" s="1"/>
     </row>
-    <row r="221" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="5"/>
       <c r="B221" s="5"/>
       <c r="C221" s="5"/>
@@ -8195,7 +8195,7 @@
       <c r="Y221" s="1"/>
       <c r="Z221" s="1"/>
     </row>
-    <row r="222" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="5"/>
       <c r="B222" s="5"/>
       <c r="C222" s="5"/>
@@ -8223,7 +8223,7 @@
       <c r="Y222" s="1"/>
       <c r="Z222" s="1"/>
     </row>
-    <row r="223" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="5"/>
       <c r="B223" s="5"/>
       <c r="C223" s="5"/>
@@ -8251,7 +8251,7 @@
       <c r="Y223" s="1"/>
       <c r="Z223" s="1"/>
     </row>
-    <row r="224" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" s="5"/>
       <c r="B224" s="5"/>
       <c r="C224" s="5"/>
@@ -8279,7 +8279,7 @@
       <c r="Y224" s="1"/>
       <c r="Z224" s="1"/>
     </row>
-    <row r="225" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" s="5"/>
       <c r="B225" s="5"/>
       <c r="C225" s="5"/>
@@ -8307,7 +8307,7 @@
       <c r="Y225" s="1"/>
       <c r="Z225" s="1"/>
     </row>
-    <row r="226" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" s="5"/>
       <c r="B226" s="5"/>
       <c r="C226" s="5"/>
@@ -8335,7 +8335,7 @@
       <c r="Y226" s="1"/>
       <c r="Z226" s="1"/>
     </row>
-    <row r="227" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="5"/>
       <c r="B227" s="5"/>
       <c r="C227" s="5"/>
@@ -8363,7 +8363,7 @@
       <c r="Y227" s="1"/>
       <c r="Z227" s="1"/>
     </row>
-    <row r="228" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" s="5"/>
       <c r="B228" s="5"/>
       <c r="C228" s="5"/>
@@ -8391,7 +8391,7 @@
       <c r="Y228" s="1"/>
       <c r="Z228" s="1"/>
     </row>
-    <row r="229" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" s="5"/>
       <c r="B229" s="5"/>
       <c r="C229" s="5"/>
@@ -8419,7 +8419,7 @@
       <c r="Y229" s="1"/>
       <c r="Z229" s="1"/>
     </row>
-    <row r="230" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="5"/>
       <c r="B230" s="5"/>
       <c r="C230" s="5"/>
@@ -8447,7 +8447,7 @@
       <c r="Y230" s="1"/>
       <c r="Z230" s="1"/>
     </row>
-    <row r="231" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" s="5"/>
       <c r="B231" s="5"/>
       <c r="C231" s="5"/>
@@ -8475,7 +8475,7 @@
       <c r="Y231" s="1"/>
       <c r="Z231" s="1"/>
     </row>
-    <row r="232" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" s="5"/>
       <c r="B232" s="5"/>
       <c r="C232" s="5"/>
@@ -8503,7 +8503,7 @@
       <c r="Y232" s="1"/>
       <c r="Z232" s="1"/>
     </row>
-    <row r="233" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" s="5"/>
       <c r="B233" s="5"/>
       <c r="C233" s="5"/>
@@ -8531,7 +8531,7 @@
       <c r="Y233" s="1"/>
       <c r="Z233" s="1"/>
     </row>
-    <row r="234" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="5"/>
       <c r="B234" s="5"/>
       <c r="C234" s="5"/>
@@ -8559,7 +8559,7 @@
       <c r="Y234" s="1"/>
       <c r="Z234" s="1"/>
     </row>
-    <row r="235" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="5"/>
       <c r="B235" s="5"/>
       <c r="C235" s="5"/>
@@ -8587,7 +8587,7 @@
       <c r="Y235" s="1"/>
       <c r="Z235" s="1"/>
     </row>
-    <row r="236" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="5"/>
       <c r="B236" s="5"/>
       <c r="C236" s="5"/>
@@ -8615,7 +8615,7 @@
       <c r="Y236" s="1"/>
       <c r="Z236" s="1"/>
     </row>
-    <row r="237" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" s="5"/>
       <c r="B237" s="5"/>
       <c r="C237" s="5"/>
@@ -8643,7 +8643,7 @@
       <c r="Y237" s="1"/>
       <c r="Z237" s="1"/>
     </row>
-    <row r="238" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" s="5"/>
       <c r="B238" s="5"/>
       <c r="C238" s="5"/>
@@ -8671,7 +8671,7 @@
       <c r="Y238" s="1"/>
       <c r="Z238" s="1"/>
     </row>
-    <row r="239" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" s="5"/>
       <c r="B239" s="5"/>
       <c r="C239" s="5"/>
@@ -8699,7 +8699,7 @@
       <c r="Y239" s="1"/>
       <c r="Z239" s="1"/>
     </row>
-    <row r="240" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="5"/>
       <c r="B240" s="5"/>
       <c r="C240" s="5"/>
@@ -8727,7 +8727,7 @@
       <c r="Y240" s="1"/>
       <c r="Z240" s="1"/>
     </row>
-    <row r="241" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A241" s="5"/>
       <c r="B241" s="5"/>
       <c r="C241" s="5"/>
@@ -8755,7 +8755,7 @@
       <c r="Y241" s="1"/>
       <c r="Z241" s="1"/>
     </row>
-    <row r="242" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" s="5"/>
       <c r="B242" s="5"/>
       <c r="C242" s="5"/>
@@ -8783,7 +8783,7 @@
       <c r="Y242" s="1"/>
       <c r="Z242" s="1"/>
     </row>
-    <row r="243" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" s="5"/>
       <c r="B243" s="5"/>
       <c r="C243" s="5"/>
@@ -8811,7 +8811,7 @@
       <c r="Y243" s="1"/>
       <c r="Z243" s="1"/>
     </row>
-    <row r="244" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="5"/>
       <c r="B244" s="5"/>
       <c r="C244" s="5"/>
@@ -8839,7 +8839,7 @@
       <c r="Y244" s="1"/>
       <c r="Z244" s="1"/>
     </row>
-    <row r="245" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="5"/>
       <c r="B245" s="5"/>
       <c r="C245" s="5"/>
@@ -8867,7 +8867,7 @@
       <c r="Y245" s="1"/>
       <c r="Z245" s="1"/>
     </row>
-    <row r="246" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A246" s="5"/>
       <c r="B246" s="5"/>
       <c r="C246" s="5"/>
@@ -8895,7 +8895,7 @@
       <c r="Y246" s="1"/>
       <c r="Z246" s="1"/>
     </row>
-    <row r="247" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A247" s="5"/>
       <c r="B247" s="5"/>
       <c r="C247" s="5"/>
@@ -8923,7 +8923,7 @@
       <c r="Y247" s="1"/>
       <c r="Z247" s="1"/>
     </row>
-    <row r="248" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A248" s="5"/>
       <c r="B248" s="5"/>
       <c r="C248" s="5"/>
@@ -8951,7 +8951,7 @@
       <c r="Y248" s="1"/>
       <c r="Z248" s="1"/>
     </row>
-    <row r="249" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" s="5"/>
       <c r="B249" s="5"/>
       <c r="C249" s="5"/>
@@ -8979,7 +8979,7 @@
       <c r="Y249" s="1"/>
       <c r="Z249" s="1"/>
     </row>
-    <row r="250" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A250" s="5"/>
       <c r="B250" s="5"/>
       <c r="C250" s="5"/>
@@ -9007,7 +9007,7 @@
       <c r="Y250" s="1"/>
       <c r="Z250" s="1"/>
     </row>
-    <row r="251" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" s="5"/>
       <c r="B251" s="5"/>
       <c r="C251" s="5"/>
@@ -9035,7 +9035,7 @@
       <c r="Y251" s="1"/>
       <c r="Z251" s="1"/>
     </row>
-    <row r="252" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" s="5"/>
       <c r="B252" s="5"/>
       <c r="C252" s="5"/>
@@ -9063,7 +9063,7 @@
       <c r="Y252" s="1"/>
       <c r="Z252" s="1"/>
     </row>
-    <row r="253" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" s="5"/>
       <c r="B253" s="5"/>
       <c r="C253" s="5"/>
@@ -9091,7 +9091,7 @@
       <c r="Y253" s="1"/>
       <c r="Z253" s="1"/>
     </row>
-    <row r="254" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A254" s="5"/>
       <c r="B254" s="5"/>
       <c r="C254" s="5"/>
@@ -9119,7 +9119,7 @@
       <c r="Y254" s="1"/>
       <c r="Z254" s="1"/>
     </row>
-    <row r="255" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A255" s="5"/>
       <c r="B255" s="5"/>
       <c r="C255" s="5"/>
@@ -9147,7 +9147,7 @@
       <c r="Y255" s="1"/>
       <c r="Z255" s="1"/>
     </row>
-    <row r="256" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A256" s="5"/>
       <c r="B256" s="5"/>
       <c r="C256" s="5"/>
@@ -9175,7 +9175,7 @@
       <c r="Y256" s="1"/>
       <c r="Z256" s="1"/>
     </row>
-    <row r="257" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A257" s="5"/>
       <c r="B257" s="5"/>
       <c r="C257" s="5"/>
@@ -9203,7 +9203,7 @@
       <c r="Y257" s="1"/>
       <c r="Z257" s="1"/>
     </row>
-    <row r="258" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A258" s="5"/>
       <c r="B258" s="5"/>
       <c r="C258" s="5"/>
@@ -9231,7 +9231,7 @@
       <c r="Y258" s="1"/>
       <c r="Z258" s="1"/>
     </row>
-    <row r="259" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A259" s="5"/>
       <c r="B259" s="5"/>
       <c r="C259" s="5"/>
@@ -9259,7 +9259,7 @@
       <c r="Y259" s="1"/>
       <c r="Z259" s="1"/>
     </row>
-    <row r="260" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A260" s="5"/>
       <c r="B260" s="5"/>
       <c r="C260" s="5"/>
@@ -9287,7 +9287,7 @@
       <c r="Y260" s="1"/>
       <c r="Z260" s="1"/>
     </row>
-    <row r="261" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A261" s="5"/>
       <c r="B261" s="5"/>
       <c r="C261" s="5"/>
@@ -9315,7 +9315,7 @@
       <c r="Y261" s="1"/>
       <c r="Z261" s="1"/>
     </row>
-    <row r="262" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" s="5"/>
       <c r="B262" s="5"/>
       <c r="C262" s="5"/>
@@ -9343,7 +9343,7 @@
       <c r="Y262" s="1"/>
       <c r="Z262" s="1"/>
     </row>
-    <row r="263" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263" s="5"/>
       <c r="B263" s="5"/>
       <c r="C263" s="5"/>
@@ -9371,7 +9371,7 @@
       <c r="Y263" s="1"/>
       <c r="Z263" s="1"/>
     </row>
-    <row r="264" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A264" s="5"/>
       <c r="B264" s="5"/>
       <c r="C264" s="5"/>
@@ -9399,7 +9399,7 @@
       <c r="Y264" s="1"/>
       <c r="Z264" s="1"/>
     </row>
-    <row r="265" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A265" s="5"/>
       <c r="B265" s="5"/>
       <c r="C265" s="5"/>
@@ -9427,7 +9427,7 @@
       <c r="Y265" s="1"/>
       <c r="Z265" s="1"/>
     </row>
-    <row r="266" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A266" s="5"/>
       <c r="B266" s="5"/>
       <c r="C266" s="5"/>
@@ -9455,7 +9455,7 @@
       <c r="Y266" s="1"/>
       <c r="Z266" s="1"/>
     </row>
-    <row r="267" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A267" s="5"/>
       <c r="B267" s="5"/>
       <c r="C267" s="5"/>
@@ -9483,7 +9483,7 @@
       <c r="Y267" s="1"/>
       <c r="Z267" s="1"/>
     </row>
-    <row r="268" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A268" s="5"/>
       <c r="B268" s="5"/>
       <c r="C268" s="5"/>
@@ -9511,7 +9511,7 @@
       <c r="Y268" s="1"/>
       <c r="Z268" s="1"/>
     </row>
-    <row r="269" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A269" s="5"/>
       <c r="B269" s="5"/>
       <c r="C269" s="5"/>
@@ -9539,7 +9539,7 @@
       <c r="Y269" s="1"/>
       <c r="Z269" s="1"/>
     </row>
-    <row r="270" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A270" s="5"/>
       <c r="B270" s="5"/>
       <c r="C270" s="5"/>
@@ -9567,7 +9567,7 @@
       <c r="Y270" s="1"/>
       <c r="Z270" s="1"/>
     </row>
-    <row r="271" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A271" s="5"/>
       <c r="B271" s="5"/>
       <c r="C271" s="5"/>
@@ -9595,7 +9595,7 @@
       <c r="Y271" s="1"/>
       <c r="Z271" s="1"/>
     </row>
-    <row r="272" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A272" s="5"/>
       <c r="B272" s="5"/>
       <c r="C272" s="5"/>
@@ -9623,7 +9623,7 @@
       <c r="Y272" s="1"/>
       <c r="Z272" s="1"/>
     </row>
-    <row r="273" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A273" s="5"/>
       <c r="B273" s="5"/>
       <c r="C273" s="5"/>
@@ -9651,7 +9651,7 @@
       <c r="Y273" s="1"/>
       <c r="Z273" s="1"/>
     </row>
-    <row r="274" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A274" s="5"/>
       <c r="B274" s="5"/>
       <c r="C274" s="5"/>
@@ -9679,7 +9679,7 @@
       <c r="Y274" s="1"/>
       <c r="Z274" s="1"/>
     </row>
-    <row r="275" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A275" s="5"/>
       <c r="B275" s="5"/>
       <c r="C275" s="5"/>
@@ -9707,7 +9707,7 @@
       <c r="Y275" s="1"/>
       <c r="Z275" s="1"/>
     </row>
-    <row r="276" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A276" s="5"/>
       <c r="B276" s="5"/>
       <c r="C276" s="5"/>
@@ -9735,7 +9735,7 @@
       <c r="Y276" s="1"/>
       <c r="Z276" s="1"/>
     </row>
-    <row r="277" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A277" s="5"/>
       <c r="B277" s="5"/>
       <c r="C277" s="5"/>
@@ -9763,7 +9763,7 @@
       <c r="Y277" s="1"/>
       <c r="Z277" s="1"/>
     </row>
-    <row r="278" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A278" s="5"/>
       <c r="B278" s="5"/>
       <c r="C278" s="5"/>
@@ -9791,7 +9791,7 @@
       <c r="Y278" s="1"/>
       <c r="Z278" s="1"/>
     </row>
-    <row r="279" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A279" s="5"/>
       <c r="B279" s="5"/>
       <c r="C279" s="5"/>
@@ -9819,7 +9819,7 @@
       <c r="Y279" s="1"/>
       <c r="Z279" s="1"/>
     </row>
-    <row r="280" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A280" s="5"/>
       <c r="B280" s="5"/>
       <c r="C280" s="5"/>
@@ -9847,7 +9847,7 @@
       <c r="Y280" s="1"/>
       <c r="Z280" s="1"/>
     </row>
-    <row r="281" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A281" s="5"/>
       <c r="B281" s="5"/>
       <c r="C281" s="5"/>
@@ -9875,7 +9875,7 @@
       <c r="Y281" s="1"/>
       <c r="Z281" s="1"/>
     </row>
-    <row r="282" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A282" s="5"/>
       <c r="B282" s="5"/>
       <c r="C282" s="5"/>
@@ -9903,7 +9903,7 @@
       <c r="Y282" s="1"/>
       <c r="Z282" s="1"/>
     </row>
-    <row r="283" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A283" s="5"/>
       <c r="B283" s="5"/>
       <c r="C283" s="5"/>
@@ -9931,7 +9931,7 @@
       <c r="Y283" s="1"/>
       <c r="Z283" s="1"/>
     </row>
-    <row r="284" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A284" s="5"/>
       <c r="B284" s="5"/>
       <c r="C284" s="5"/>
@@ -9959,7 +9959,7 @@
       <c r="Y284" s="1"/>
       <c r="Z284" s="1"/>
     </row>
-    <row r="285" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A285" s="5"/>
       <c r="B285" s="5"/>
       <c r="C285" s="5"/>
@@ -9987,7 +9987,7 @@
       <c r="Y285" s="1"/>
       <c r="Z285" s="1"/>
     </row>
-    <row r="286" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A286" s="5"/>
       <c r="B286" s="5"/>
       <c r="C286" s="5"/>
@@ -10015,7 +10015,7 @@
       <c r="Y286" s="1"/>
       <c r="Z286" s="1"/>
     </row>
-    <row r="287" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A287" s="5"/>
       <c r="B287" s="5"/>
       <c r="C287" s="5"/>
@@ -10043,7 +10043,7 @@
       <c r="Y287" s="1"/>
       <c r="Z287" s="1"/>
     </row>
-    <row r="288" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A288" s="5"/>
       <c r="B288" s="5"/>
       <c r="C288" s="5"/>
@@ -10071,7 +10071,7 @@
       <c r="Y288" s="1"/>
       <c r="Z288" s="1"/>
     </row>
-    <row r="289" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A289" s="5"/>
       <c r="B289" s="5"/>
       <c r="C289" s="5"/>
@@ -10099,7 +10099,7 @@
       <c r="Y289" s="1"/>
       <c r="Z289" s="1"/>
     </row>
-    <row r="290" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A290" s="5"/>
       <c r="B290" s="5"/>
       <c r="C290" s="5"/>
@@ -10127,7 +10127,7 @@
       <c r="Y290" s="1"/>
       <c r="Z290" s="1"/>
     </row>
-    <row r="291" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A291" s="5"/>
       <c r="B291" s="5"/>
       <c r="C291" s="5"/>
@@ -10155,7 +10155,7 @@
       <c r="Y291" s="1"/>
       <c r="Z291" s="1"/>
     </row>
-    <row r="292" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A292" s="5"/>
       <c r="B292" s="5"/>
       <c r="C292" s="5"/>
@@ -10183,7 +10183,7 @@
       <c r="Y292" s="1"/>
       <c r="Z292" s="1"/>
     </row>
-    <row r="293" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A293" s="5"/>
       <c r="B293" s="5"/>
       <c r="C293" s="5"/>
@@ -10211,7 +10211,7 @@
       <c r="Y293" s="1"/>
       <c r="Z293" s="1"/>
     </row>
-    <row r="294" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A294" s="5"/>
       <c r="B294" s="5"/>
       <c r="C294" s="5"/>
@@ -10239,7 +10239,7 @@
       <c r="Y294" s="1"/>
       <c r="Z294" s="1"/>
     </row>
-    <row r="295" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A295" s="5"/>
       <c r="B295" s="5"/>
       <c r="C295" s="5"/>
@@ -10267,7 +10267,7 @@
       <c r="Y295" s="1"/>
       <c r="Z295" s="1"/>
     </row>
-    <row r="296" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A296" s="5"/>
       <c r="B296" s="5"/>
       <c r="C296" s="5"/>
@@ -10295,7 +10295,7 @@
       <c r="Y296" s="1"/>
       <c r="Z296" s="1"/>
     </row>
-    <row r="297" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A297" s="5"/>
       <c r="B297" s="5"/>
       <c r="C297" s="5"/>
@@ -10323,7 +10323,7 @@
       <c r="Y297" s="1"/>
       <c r="Z297" s="1"/>
     </row>
-    <row r="298" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A298" s="5"/>
       <c r="B298" s="5"/>
       <c r="C298" s="5"/>
@@ -10351,7 +10351,7 @@
       <c r="Y298" s="1"/>
       <c r="Z298" s="1"/>
     </row>
-    <row r="299" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A299" s="5"/>
       <c r="B299" s="5"/>
       <c r="C299" s="5"/>
@@ -10379,7 +10379,7 @@
       <c r="Y299" s="1"/>
       <c r="Z299" s="1"/>
     </row>
-    <row r="300" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A300" s="5"/>
       <c r="B300" s="5"/>
       <c r="C300" s="5"/>
@@ -10407,7 +10407,7 @@
       <c r="Y300" s="1"/>
       <c r="Z300" s="1"/>
     </row>
-    <row r="301" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A301" s="5"/>
       <c r="B301" s="5"/>
       <c r="C301" s="5"/>
@@ -10435,7 +10435,7 @@
       <c r="Y301" s="1"/>
       <c r="Z301" s="1"/>
     </row>
-    <row r="302" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A302" s="5"/>
       <c r="B302" s="5"/>
       <c r="C302" s="5"/>
@@ -10463,7 +10463,7 @@
       <c r="Y302" s="1"/>
       <c r="Z302" s="1"/>
     </row>
-    <row r="303" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A303" s="5"/>
       <c r="B303" s="5"/>
       <c r="C303" s="5"/>
@@ -10491,7 +10491,7 @@
       <c r="Y303" s="1"/>
       <c r="Z303" s="1"/>
     </row>
-    <row r="304" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A304" s="5"/>
       <c r="B304" s="5"/>
       <c r="C304" s="5"/>
@@ -10519,7 +10519,7 @@
       <c r="Y304" s="1"/>
       <c r="Z304" s="1"/>
     </row>
-    <row r="305" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A305" s="5"/>
       <c r="B305" s="5"/>
       <c r="C305" s="5"/>
@@ -10547,7 +10547,7 @@
       <c r="Y305" s="1"/>
       <c r="Z305" s="1"/>
     </row>
-    <row r="306" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A306" s="5"/>
       <c r="B306" s="5"/>
       <c r="C306" s="5"/>
@@ -10575,7 +10575,7 @@
       <c r="Y306" s="1"/>
       <c r="Z306" s="1"/>
     </row>
-    <row r="307" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A307" s="5"/>
       <c r="B307" s="5"/>
       <c r="C307" s="5"/>
@@ -10603,7 +10603,7 @@
       <c r="Y307" s="1"/>
       <c r="Z307" s="1"/>
     </row>
-    <row r="308" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A308" s="5"/>
       <c r="B308" s="5"/>
       <c r="C308" s="5"/>
@@ -10631,7 +10631,7 @@
       <c r="Y308" s="1"/>
       <c r="Z308" s="1"/>
     </row>
-    <row r="309" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A309" s="5"/>
       <c r="B309" s="5"/>
       <c r="C309" s="5"/>
@@ -10659,7 +10659,7 @@
       <c r="Y309" s="1"/>
       <c r="Z309" s="1"/>
     </row>
-    <row r="310" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A310" s="5"/>
       <c r="B310" s="5"/>
       <c r="C310" s="5"/>
@@ -10687,7 +10687,7 @@
       <c r="Y310" s="1"/>
       <c r="Z310" s="1"/>
     </row>
-    <row r="311" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A311" s="5"/>
       <c r="B311" s="5"/>
       <c r="C311" s="5"/>
@@ -10715,7 +10715,7 @@
       <c r="Y311" s="1"/>
       <c r="Z311" s="1"/>
     </row>
-    <row r="312" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A312" s="5"/>
       <c r="B312" s="5"/>
       <c r="C312" s="5"/>
@@ -10743,7 +10743,7 @@
       <c r="Y312" s="1"/>
       <c r="Z312" s="1"/>
     </row>
-    <row r="313" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A313" s="5"/>
       <c r="B313" s="5"/>
       <c r="C313" s="5"/>
@@ -10771,7 +10771,7 @@
       <c r="Y313" s="1"/>
       <c r="Z313" s="1"/>
     </row>
-    <row r="314" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A314" s="5"/>
       <c r="B314" s="5"/>
       <c r="C314" s="5"/>
@@ -10799,7 +10799,7 @@
       <c r="Y314" s="1"/>
       <c r="Z314" s="1"/>
     </row>
-    <row r="315" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A315" s="5"/>
       <c r="B315" s="5"/>
       <c r="C315" s="5"/>
@@ -10827,7 +10827,7 @@
       <c r="Y315" s="1"/>
       <c r="Z315" s="1"/>
     </row>
-    <row r="316" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A316" s="5"/>
       <c r="B316" s="5"/>
       <c r="C316" s="5"/>
@@ -10855,7 +10855,7 @@
       <c r="Y316" s="1"/>
       <c r="Z316" s="1"/>
     </row>
-    <row r="317" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A317" s="5"/>
       <c r="B317" s="5"/>
       <c r="C317" s="5"/>
@@ -10883,7 +10883,7 @@
       <c r="Y317" s="1"/>
       <c r="Z317" s="1"/>
     </row>
-    <row r="318" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A318" s="5"/>
       <c r="B318" s="5"/>
       <c r="C318" s="5"/>
@@ -10911,7 +10911,7 @@
       <c r="Y318" s="1"/>
       <c r="Z318" s="1"/>
     </row>
-    <row r="319" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A319" s="5"/>
       <c r="B319" s="5"/>
       <c r="C319" s="5"/>
@@ -10939,7 +10939,7 @@
       <c r="Y319" s="1"/>
       <c r="Z319" s="1"/>
     </row>
-    <row r="320" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A320" s="5"/>
       <c r="B320" s="5"/>
       <c r="C320" s="5"/>
@@ -10967,7 +10967,7 @@
       <c r="Y320" s="1"/>
       <c r="Z320" s="1"/>
     </row>
-    <row r="321" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A321" s="5"/>
       <c r="B321" s="5"/>
       <c r="C321" s="5"/>
@@ -10995,7 +10995,7 @@
       <c r="Y321" s="1"/>
       <c r="Z321" s="1"/>
     </row>
-    <row r="322" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A322" s="5"/>
       <c r="B322" s="5"/>
       <c r="C322" s="5"/>
@@ -11023,7 +11023,7 @@
       <c r="Y322" s="1"/>
       <c r="Z322" s="1"/>
     </row>
-    <row r="323" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A323" s="5"/>
       <c r="B323" s="5"/>
       <c r="C323" s="5"/>
@@ -11051,7 +11051,7 @@
       <c r="Y323" s="1"/>
       <c r="Z323" s="1"/>
     </row>
-    <row r="324" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A324" s="5"/>
       <c r="B324" s="5"/>
       <c r="C324" s="5"/>
@@ -11079,7 +11079,7 @@
       <c r="Y324" s="1"/>
       <c r="Z324" s="1"/>
     </row>
-    <row r="325" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A325" s="5"/>
       <c r="B325" s="5"/>
       <c r="C325" s="5"/>
@@ -11107,7 +11107,7 @@
       <c r="Y325" s="1"/>
       <c r="Z325" s="1"/>
     </row>
-    <row r="326" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A326" s="5"/>
       <c r="B326" s="5"/>
       <c r="C326" s="5"/>
@@ -11135,7 +11135,7 @@
       <c r="Y326" s="1"/>
       <c r="Z326" s="1"/>
     </row>
-    <row r="327" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A327" s="5"/>
       <c r="B327" s="5"/>
       <c r="C327" s="5"/>
@@ -11163,7 +11163,7 @@
       <c r="Y327" s="1"/>
       <c r="Z327" s="1"/>
     </row>
-    <row r="328" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A328" s="5"/>
       <c r="B328" s="5"/>
       <c r="C328" s="5"/>
@@ -11191,7 +11191,7 @@
       <c r="Y328" s="1"/>
       <c r="Z328" s="1"/>
     </row>
-    <row r="329" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A329" s="5"/>
       <c r="B329" s="5"/>
       <c r="C329" s="5"/>
@@ -11219,7 +11219,7 @@
       <c r="Y329" s="1"/>
       <c r="Z329" s="1"/>
     </row>
-    <row r="330" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A330" s="5"/>
       <c r="B330" s="5"/>
       <c r="C330" s="5"/>
@@ -11247,7 +11247,7 @@
       <c r="Y330" s="1"/>
       <c r="Z330" s="1"/>
     </row>
-    <row r="331" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A331" s="5"/>
       <c r="B331" s="5"/>
       <c r="C331" s="5"/>
@@ -11275,7 +11275,7 @@
       <c r="Y331" s="1"/>
       <c r="Z331" s="1"/>
     </row>
-    <row r="332" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A332" s="5"/>
       <c r="B332" s="5"/>
       <c r="C332" s="5"/>
@@ -11303,7 +11303,7 @@
       <c r="Y332" s="1"/>
       <c r="Z332" s="1"/>
     </row>
-    <row r="333" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A333" s="5"/>
       <c r="B333" s="5"/>
       <c r="C333" s="5"/>
@@ -11331,7 +11331,7 @@
       <c r="Y333" s="1"/>
       <c r="Z333" s="1"/>
     </row>
-    <row r="334" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A334" s="5"/>
       <c r="B334" s="5"/>
       <c r="C334" s="5"/>
@@ -11359,7 +11359,7 @@
       <c r="Y334" s="1"/>
       <c r="Z334" s="1"/>
     </row>
-    <row r="335" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A335" s="5"/>
       <c r="B335" s="5"/>
       <c r="C335" s="5"/>
@@ -11387,7 +11387,7 @@
       <c r="Y335" s="1"/>
       <c r="Z335" s="1"/>
     </row>
-    <row r="336" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A336" s="5"/>
       <c r="B336" s="5"/>
       <c r="C336" s="5"/>
@@ -11415,7 +11415,7 @@
       <c r="Y336" s="1"/>
       <c r="Z336" s="1"/>
     </row>
-    <row r="337" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A337" s="5"/>
       <c r="B337" s="5"/>
       <c r="C337" s="5"/>
@@ -11443,7 +11443,7 @@
       <c r="Y337" s="1"/>
       <c r="Z337" s="1"/>
     </row>
-    <row r="338" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A338" s="5"/>
       <c r="B338" s="5"/>
       <c r="C338" s="5"/>
@@ -11471,7 +11471,7 @@
       <c r="Y338" s="1"/>
       <c r="Z338" s="1"/>
     </row>
-    <row r="339" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A339" s="5"/>
       <c r="B339" s="5"/>
       <c r="C339" s="5"/>
@@ -11499,7 +11499,7 @@
       <c r="Y339" s="1"/>
       <c r="Z339" s="1"/>
     </row>
-    <row r="340" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A340" s="5"/>
       <c r="B340" s="5"/>
       <c r="C340" s="5"/>
@@ -11527,7 +11527,7 @@
       <c r="Y340" s="1"/>
       <c r="Z340" s="1"/>
     </row>
-    <row r="341" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A341" s="5"/>
       <c r="B341" s="5"/>
       <c r="C341" s="5"/>
@@ -11555,7 +11555,7 @@
       <c r="Y341" s="1"/>
       <c r="Z341" s="1"/>
     </row>
-    <row r="342" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A342" s="5"/>
       <c r="B342" s="5"/>
       <c r="C342" s="5"/>
@@ -11583,7 +11583,7 @@
       <c r="Y342" s="1"/>
       <c r="Z342" s="1"/>
     </row>
-    <row r="343" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A343" s="5"/>
       <c r="B343" s="5"/>
       <c r="C343" s="5"/>
@@ -11611,7 +11611,7 @@
       <c r="Y343" s="1"/>
       <c r="Z343" s="1"/>
     </row>
-    <row r="344" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A344" s="5"/>
       <c r="B344" s="5"/>
       <c r="C344" s="5"/>
@@ -11639,7 +11639,7 @@
       <c r="Y344" s="1"/>
       <c r="Z344" s="1"/>
     </row>
-    <row r="345" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A345" s="5"/>
       <c r="B345" s="5"/>
       <c r="C345" s="5"/>
@@ -11667,7 +11667,7 @@
       <c r="Y345" s="1"/>
       <c r="Z345" s="1"/>
     </row>
-    <row r="346" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A346" s="5"/>
       <c r="B346" s="5"/>
       <c r="C346" s="5"/>
@@ -11695,7 +11695,7 @@
       <c r="Y346" s="1"/>
       <c r="Z346" s="1"/>
     </row>
-    <row r="347" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A347" s="5"/>
       <c r="B347" s="5"/>
       <c r="C347" s="5"/>
@@ -11723,7 +11723,7 @@
       <c r="Y347" s="1"/>
       <c r="Z347" s="1"/>
     </row>
-    <row r="348" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A348" s="5"/>
       <c r="B348" s="5"/>
       <c r="C348" s="5"/>
@@ -11751,7 +11751,7 @@
       <c r="Y348" s="1"/>
       <c r="Z348" s="1"/>
     </row>
-    <row r="349" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A349" s="5"/>
       <c r="B349" s="5"/>
       <c r="C349" s="5"/>
@@ -11779,7 +11779,7 @@
       <c r="Y349" s="1"/>
       <c r="Z349" s="1"/>
     </row>
-    <row r="350" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A350" s="5"/>
       <c r="B350" s="5"/>
       <c r="C350" s="5"/>
@@ -11807,7 +11807,7 @@
       <c r="Y350" s="1"/>
       <c r="Z350" s="1"/>
     </row>
-    <row r="351" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A351" s="5"/>
       <c r="B351" s="5"/>
       <c r="C351" s="5"/>
@@ -11835,7 +11835,7 @@
       <c r="Y351" s="1"/>
       <c r="Z351" s="1"/>
     </row>
-    <row r="352" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A352" s="5"/>
       <c r="B352" s="5"/>
       <c r="C352" s="5"/>
@@ -11863,7 +11863,7 @@
       <c r="Y352" s="1"/>
       <c r="Z352" s="1"/>
     </row>
-    <row r="353" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A353" s="5"/>
       <c r="B353" s="5"/>
       <c r="C353" s="5"/>
@@ -11891,7 +11891,7 @@
       <c r="Y353" s="1"/>
       <c r="Z353" s="1"/>
     </row>
-    <row r="354" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A354" s="5"/>
       <c r="B354" s="5"/>
       <c r="C354" s="5"/>
@@ -11919,7 +11919,7 @@
       <c r="Y354" s="1"/>
       <c r="Z354" s="1"/>
     </row>
-    <row r="355" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A355" s="5"/>
       <c r="B355" s="5"/>
       <c r="C355" s="5"/>
@@ -11947,7 +11947,7 @@
       <c r="Y355" s="1"/>
       <c r="Z355" s="1"/>
     </row>
-    <row r="356" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A356" s="5"/>
       <c r="B356" s="5"/>
       <c r="C356" s="5"/>
@@ -11975,7 +11975,7 @@
       <c r="Y356" s="1"/>
       <c r="Z356" s="1"/>
     </row>
-    <row r="357" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A357" s="5"/>
       <c r="B357" s="5"/>
       <c r="C357" s="5"/>
@@ -12003,7 +12003,7 @@
       <c r="Y357" s="1"/>
       <c r="Z357" s="1"/>
     </row>
-    <row r="358" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A358" s="5"/>
       <c r="B358" s="5"/>
       <c r="C358" s="5"/>
@@ -12031,7 +12031,7 @@
       <c r="Y358" s="1"/>
       <c r="Z358" s="1"/>
     </row>
-    <row r="359" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A359" s="5"/>
       <c r="B359" s="5"/>
       <c r="C359" s="5"/>
@@ -12059,7 +12059,7 @@
       <c r="Y359" s="1"/>
       <c r="Z359" s="1"/>
     </row>
-    <row r="360" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A360" s="5"/>
       <c r="B360" s="5"/>
       <c r="C360" s="5"/>
@@ -12087,7 +12087,7 @@
       <c r="Y360" s="1"/>
       <c r="Z360" s="1"/>
     </row>
-    <row r="361" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A361" s="5"/>
       <c r="B361" s="5"/>
       <c r="C361" s="5"/>
@@ -12115,7 +12115,7 @@
       <c r="Y361" s="1"/>
       <c r="Z361" s="1"/>
     </row>
-    <row r="362" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A362" s="5"/>
       <c r="B362" s="5"/>
       <c r="C362" s="5"/>
@@ -12143,7 +12143,7 @@
       <c r="Y362" s="1"/>
       <c r="Z362" s="1"/>
     </row>
-    <row r="363" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A363" s="5"/>
       <c r="B363" s="5"/>
       <c r="C363" s="5"/>
@@ -12171,7 +12171,7 @@
       <c r="Y363" s="1"/>
       <c r="Z363" s="1"/>
     </row>
-    <row r="364" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A364" s="5"/>
       <c r="B364" s="5"/>
       <c r="C364" s="5"/>
@@ -12199,7 +12199,7 @@
       <c r="Y364" s="1"/>
       <c r="Z364" s="1"/>
     </row>
-    <row r="365" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A365" s="5"/>
       <c r="B365" s="5"/>
       <c r="C365" s="5"/>
@@ -12227,7 +12227,7 @@
       <c r="Y365" s="1"/>
       <c r="Z365" s="1"/>
     </row>
-    <row r="366" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A366" s="5"/>
       <c r="B366" s="5"/>
       <c r="C366" s="5"/>
@@ -12255,7 +12255,7 @@
       <c r="Y366" s="1"/>
       <c r="Z366" s="1"/>
     </row>
-    <row r="367" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A367" s="5"/>
       <c r="B367" s="5"/>
       <c r="C367" s="5"/>
@@ -12283,7 +12283,7 @@
       <c r="Y367" s="1"/>
       <c r="Z367" s="1"/>
     </row>
-    <row r="368" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A368" s="5"/>
       <c r="B368" s="5"/>
       <c r="C368" s="5"/>
@@ -12311,7 +12311,7 @@
       <c r="Y368" s="1"/>
       <c r="Z368" s="1"/>
     </row>
-    <row r="369" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A369" s="5"/>
       <c r="B369" s="5"/>
       <c r="C369" s="5"/>
@@ -12339,7 +12339,7 @@
       <c r="Y369" s="1"/>
       <c r="Z369" s="1"/>
     </row>
-    <row r="370" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A370" s="5"/>
       <c r="B370" s="5"/>
       <c r="C370" s="5"/>
@@ -12367,7 +12367,7 @@
       <c r="Y370" s="1"/>
       <c r="Z370" s="1"/>
     </row>
-    <row r="371" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A371" s="5"/>
       <c r="B371" s="5"/>
       <c r="C371" s="5"/>
@@ -12395,7 +12395,7 @@
       <c r="Y371" s="1"/>
       <c r="Z371" s="1"/>
     </row>
-    <row r="372" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A372" s="5"/>
       <c r="B372" s="5"/>
       <c r="C372" s="5"/>
@@ -12423,7 +12423,7 @@
       <c r="Y372" s="1"/>
       <c r="Z372" s="1"/>
     </row>
-    <row r="373" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A373" s="5"/>
       <c r="B373" s="5"/>
       <c r="C373" s="5"/>
@@ -12451,7 +12451,7 @@
       <c r="Y373" s="1"/>
       <c r="Z373" s="1"/>
     </row>
-    <row r="374" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A374" s="5"/>
       <c r="B374" s="5"/>
       <c r="C374" s="5"/>
@@ -12479,7 +12479,7 @@
       <c r="Y374" s="1"/>
       <c r="Z374" s="1"/>
     </row>
-    <row r="375" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A375" s="5"/>
       <c r="B375" s="5"/>
       <c r="C375" s="5"/>
@@ -12507,7 +12507,7 @@
       <c r="Y375" s="1"/>
       <c r="Z375" s="1"/>
     </row>
-    <row r="376" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A376" s="5"/>
       <c r="B376" s="5"/>
       <c r="C376" s="5"/>
@@ -12535,7 +12535,7 @@
       <c r="Y376" s="1"/>
       <c r="Z376" s="1"/>
     </row>
-    <row r="377" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A377" s="5"/>
       <c r="B377" s="5"/>
       <c r="C377" s="5"/>
@@ -12563,7 +12563,7 @@
       <c r="Y377" s="1"/>
       <c r="Z377" s="1"/>
     </row>
-    <row r="378" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A378" s="5"/>
       <c r="B378" s="5"/>
       <c r="C378" s="5"/>
@@ -12591,7 +12591,7 @@
       <c r="Y378" s="1"/>
       <c r="Z378" s="1"/>
     </row>
-    <row r="379" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A379" s="5"/>
       <c r="B379" s="5"/>
       <c r="C379" s="5"/>
@@ -12619,7 +12619,7 @@
       <c r="Y379" s="1"/>
       <c r="Z379" s="1"/>
     </row>
-    <row r="380" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A380" s="5"/>
       <c r="B380" s="5"/>
       <c r="C380" s="5"/>
@@ -12647,7 +12647,7 @@
       <c r="Y380" s="1"/>
       <c r="Z380" s="1"/>
     </row>
-    <row r="381" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A381" s="5"/>
       <c r="B381" s="5"/>
       <c r="C381" s="5"/>
@@ -12675,7 +12675,7 @@
       <c r="Y381" s="1"/>
       <c r="Z381" s="1"/>
     </row>
-    <row r="382" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A382" s="5"/>
       <c r="B382" s="5"/>
       <c r="C382" s="5"/>
@@ -12703,7 +12703,7 @@
       <c r="Y382" s="1"/>
       <c r="Z382" s="1"/>
     </row>
-    <row r="383" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A383" s="5"/>
       <c r="B383" s="5"/>
       <c r="C383" s="5"/>
@@ -12731,7 +12731,7 @@
       <c r="Y383" s="1"/>
       <c r="Z383" s="1"/>
     </row>
-    <row r="384" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A384" s="5"/>
       <c r="B384" s="5"/>
       <c r="C384" s="5"/>
@@ -12759,7 +12759,7 @@
       <c r="Y384" s="1"/>
       <c r="Z384" s="1"/>
     </row>
-    <row r="385" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A385" s="5"/>
       <c r="B385" s="5"/>
       <c r="C385" s="5"/>
@@ -12787,7 +12787,7 @@
       <c r="Y385" s="1"/>
       <c r="Z385" s="1"/>
     </row>
-    <row r="386" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A386" s="5"/>
       <c r="B386" s="5"/>
       <c r="C386" s="5"/>
@@ -12815,7 +12815,7 @@
       <c r="Y386" s="1"/>
       <c r="Z386" s="1"/>
     </row>
-    <row r="387" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A387" s="5"/>
       <c r="B387" s="5"/>
       <c r="C387" s="5"/>
@@ -12843,7 +12843,7 @@
       <c r="Y387" s="1"/>
       <c r="Z387" s="1"/>
     </row>
-    <row r="388" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A388" s="5"/>
       <c r="B388" s="5"/>
       <c r="C388" s="5"/>
@@ -12871,7 +12871,7 @@
       <c r="Y388" s="1"/>
       <c r="Z388" s="1"/>
     </row>
-    <row r="389" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A389" s="5"/>
       <c r="B389" s="5"/>
       <c r="C389" s="5"/>
@@ -12899,7 +12899,7 @@
       <c r="Y389" s="1"/>
       <c r="Z389" s="1"/>
     </row>
-    <row r="390" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A390" s="5"/>
       <c r="B390" s="5"/>
       <c r="C390" s="5"/>
@@ -12927,7 +12927,7 @@
       <c r="Y390" s="1"/>
       <c r="Z390" s="1"/>
     </row>
-    <row r="391" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A391" s="5"/>
       <c r="B391" s="5"/>
       <c r="C391" s="5"/>
@@ -12955,7 +12955,7 @@
       <c r="Y391" s="1"/>
       <c r="Z391" s="1"/>
     </row>
-    <row r="392" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A392" s="5"/>
       <c r="B392" s="5"/>
       <c r="C392" s="5"/>
@@ -12983,7 +12983,7 @@
       <c r="Y392" s="1"/>
       <c r="Z392" s="1"/>
     </row>
-    <row r="393" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A393" s="5"/>
       <c r="B393" s="5"/>
       <c r="C393" s="5"/>
@@ -13011,7 +13011,7 @@
       <c r="Y393" s="1"/>
       <c r="Z393" s="1"/>
     </row>
-    <row r="394" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A394" s="5"/>
       <c r="B394" s="5"/>
       <c r="C394" s="5"/>
@@ -13039,7 +13039,7 @@
       <c r="Y394" s="1"/>
       <c r="Z394" s="1"/>
     </row>
-    <row r="395" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A395" s="5"/>
       <c r="B395" s="5"/>
       <c r="C395" s="5"/>
@@ -13067,7 +13067,7 @@
       <c r="Y395" s="1"/>
       <c r="Z395" s="1"/>
     </row>
-    <row r="396" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A396" s="5"/>
       <c r="B396" s="5"/>
       <c r="C396" s="5"/>
@@ -13095,7 +13095,7 @@
       <c r="Y396" s="1"/>
       <c r="Z396" s="1"/>
     </row>
-    <row r="397" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A397" s="5"/>
       <c r="B397" s="5"/>
       <c r="C397" s="5"/>
@@ -13123,7 +13123,7 @@
       <c r="Y397" s="1"/>
       <c r="Z397" s="1"/>
     </row>
-    <row r="398" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A398" s="5"/>
       <c r="B398" s="5"/>
       <c r="C398" s="5"/>
@@ -13151,7 +13151,7 @@
       <c r="Y398" s="1"/>
       <c r="Z398" s="1"/>
     </row>
-    <row r="399" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A399" s="5"/>
       <c r="B399" s="5"/>
       <c r="C399" s="5"/>
@@ -13179,7 +13179,7 @@
       <c r="Y399" s="1"/>
       <c r="Z399" s="1"/>
     </row>
-    <row r="400" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A400" s="5"/>
       <c r="B400" s="5"/>
       <c r="C400" s="5"/>
@@ -13207,7 +13207,7 @@
       <c r="Y400" s="1"/>
       <c r="Z400" s="1"/>
     </row>
-    <row r="401" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A401" s="5"/>
       <c r="B401" s="5"/>
       <c r="C401" s="5"/>
@@ -13235,7 +13235,7 @@
       <c r="Y401" s="1"/>
       <c r="Z401" s="1"/>
     </row>
-    <row r="402" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A402" s="5"/>
       <c r="B402" s="5"/>
       <c r="C402" s="5"/>
@@ -13263,7 +13263,7 @@
       <c r="Y402" s="1"/>
       <c r="Z402" s="1"/>
     </row>
-    <row r="403" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A403" s="5"/>
       <c r="B403" s="5"/>
       <c r="C403" s="5"/>
@@ -13291,7 +13291,7 @@
       <c r="Y403" s="1"/>
       <c r="Z403" s="1"/>
     </row>
-    <row r="404" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A404" s="5"/>
       <c r="B404" s="5"/>
       <c r="C404" s="5"/>
@@ -13319,7 +13319,7 @@
       <c r="Y404" s="1"/>
       <c r="Z404" s="1"/>
     </row>
-    <row r="405" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A405" s="5"/>
       <c r="B405" s="5"/>
       <c r="C405" s="5"/>
@@ -13347,7 +13347,7 @@
       <c r="Y405" s="1"/>
       <c r="Z405" s="1"/>
     </row>
-    <row r="406" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A406" s="5"/>
       <c r="B406" s="5"/>
       <c r="C406" s="5"/>
@@ -13375,7 +13375,7 @@
       <c r="Y406" s="1"/>
       <c r="Z406" s="1"/>
     </row>
-    <row r="407" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A407" s="5"/>
       <c r="B407" s="5"/>
       <c r="C407" s="5"/>
@@ -13403,7 +13403,7 @@
       <c r="Y407" s="1"/>
       <c r="Z407" s="1"/>
     </row>
-    <row r="408" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A408" s="5"/>
       <c r="B408" s="5"/>
       <c r="C408" s="5"/>
@@ -13431,7 +13431,7 @@
       <c r="Y408" s="1"/>
       <c r="Z408" s="1"/>
     </row>
-    <row r="409" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A409" s="5"/>
       <c r="B409" s="5"/>
       <c r="C409" s="5"/>
@@ -13459,7 +13459,7 @@
       <c r="Y409" s="1"/>
       <c r="Z409" s="1"/>
     </row>
-    <row r="410" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A410" s="5"/>
       <c r="B410" s="5"/>
       <c r="C410" s="5"/>
@@ -13487,7 +13487,7 @@
       <c r="Y410" s="1"/>
       <c r="Z410" s="1"/>
     </row>
-    <row r="411" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A411" s="5"/>
       <c r="B411" s="5"/>
       <c r="C411" s="5"/>
@@ -13515,7 +13515,7 @@
       <c r="Y411" s="1"/>
       <c r="Z411" s="1"/>
     </row>
-    <row r="412" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A412" s="5"/>
       <c r="B412" s="5"/>
       <c r="C412" s="5"/>
@@ -13543,7 +13543,7 @@
       <c r="Y412" s="1"/>
       <c r="Z412" s="1"/>
     </row>
-    <row r="413" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A413" s="5"/>
       <c r="B413" s="5"/>
       <c r="C413" s="5"/>
@@ -13571,7 +13571,7 @@
       <c r="Y413" s="1"/>
       <c r="Z413" s="1"/>
     </row>
-    <row r="414" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A414" s="5"/>
       <c r="B414" s="5"/>
       <c r="C414" s="5"/>
@@ -13599,7 +13599,7 @@
       <c r="Y414" s="1"/>
       <c r="Z414" s="1"/>
     </row>
-    <row r="415" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A415" s="5"/>
       <c r="B415" s="5"/>
       <c r="C415" s="5"/>
@@ -13627,7 +13627,7 @@
       <c r="Y415" s="1"/>
       <c r="Z415" s="1"/>
     </row>
-    <row r="416" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A416" s="5"/>
       <c r="B416" s="5"/>
       <c r="C416" s="5"/>
@@ -13655,7 +13655,7 @@
       <c r="Y416" s="1"/>
       <c r="Z416" s="1"/>
     </row>
-    <row r="417" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A417" s="5"/>
       <c r="B417" s="5"/>
       <c r="C417" s="5"/>
@@ -13683,7 +13683,7 @@
       <c r="Y417" s="1"/>
       <c r="Z417" s="1"/>
     </row>
-    <row r="418" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A418" s="5"/>
       <c r="B418" s="5"/>
       <c r="C418" s="5"/>
@@ -13711,7 +13711,7 @@
       <c r="Y418" s="1"/>
       <c r="Z418" s="1"/>
     </row>
-    <row r="419" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A419" s="5"/>
       <c r="B419" s="5"/>
       <c r="C419" s="5"/>
@@ -13739,7 +13739,7 @@
       <c r="Y419" s="1"/>
       <c r="Z419" s="1"/>
     </row>
-    <row r="420" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A420" s="5"/>
       <c r="B420" s="5"/>
       <c r="C420" s="5"/>
@@ -13767,7 +13767,7 @@
       <c r="Y420" s="1"/>
       <c r="Z420" s="1"/>
     </row>
-    <row r="421" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A421" s="5"/>
       <c r="B421" s="5"/>
       <c r="C421" s="5"/>
@@ -13795,7 +13795,7 @@
       <c r="Y421" s="1"/>
       <c r="Z421" s="1"/>
     </row>
-    <row r="422" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A422" s="5"/>
       <c r="B422" s="5"/>
       <c r="C422" s="5"/>
@@ -13823,7 +13823,7 @@
       <c r="Y422" s="1"/>
       <c r="Z422" s="1"/>
     </row>
-    <row r="423" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A423" s="5"/>
       <c r="B423" s="5"/>
       <c r="C423" s="5"/>
@@ -13851,7 +13851,7 @@
       <c r="Y423" s="1"/>
       <c r="Z423" s="1"/>
     </row>
-    <row r="424" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A424" s="5"/>
       <c r="B424" s="5"/>
       <c r="C424" s="5"/>
@@ -13879,7 +13879,7 @@
       <c r="Y424" s="1"/>
       <c r="Z424" s="1"/>
     </row>
-    <row r="425" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A425" s="5"/>
       <c r="B425" s="5"/>
       <c r="C425" s="5"/>
@@ -13907,7 +13907,7 @@
       <c r="Y425" s="1"/>
       <c r="Z425" s="1"/>
     </row>
-    <row r="426" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A426" s="5"/>
       <c r="B426" s="5"/>
       <c r="C426" s="5"/>
@@ -13935,7 +13935,7 @@
       <c r="Y426" s="1"/>
       <c r="Z426" s="1"/>
     </row>
-    <row r="427" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A427" s="5"/>
       <c r="B427" s="5"/>
       <c r="C427" s="5"/>
@@ -13963,7 +13963,7 @@
       <c r="Y427" s="1"/>
       <c r="Z427" s="1"/>
     </row>
-    <row r="428" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A428" s="5"/>
       <c r="B428" s="5"/>
       <c r="C428" s="5"/>
@@ -13991,7 +13991,7 @@
       <c r="Y428" s="1"/>
       <c r="Z428" s="1"/>
     </row>
-    <row r="429" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A429" s="5"/>
       <c r="B429" s="5"/>
       <c r="C429" s="5"/>
@@ -14019,7 +14019,7 @@
       <c r="Y429" s="1"/>
       <c r="Z429" s="1"/>
     </row>
-    <row r="430" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A430" s="5"/>
       <c r="B430" s="5"/>
       <c r="C430" s="5"/>
@@ -14047,7 +14047,7 @@
       <c r="Y430" s="1"/>
       <c r="Z430" s="1"/>
     </row>
-    <row r="431" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A431" s="5"/>
       <c r="B431" s="5"/>
       <c r="C431" s="5"/>
@@ -14075,7 +14075,7 @@
       <c r="Y431" s="1"/>
       <c r="Z431" s="1"/>
     </row>
-    <row r="432" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A432" s="5"/>
       <c r="B432" s="5"/>
       <c r="C432" s="5"/>
@@ -14103,7 +14103,7 @@
       <c r="Y432" s="1"/>
       <c r="Z432" s="1"/>
     </row>
-    <row r="433" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A433" s="5"/>
       <c r="B433" s="5"/>
       <c r="C433" s="5"/>
@@ -14131,7 +14131,7 @@
       <c r="Y433" s="1"/>
       <c r="Z433" s="1"/>
     </row>
-    <row r="434" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A434" s="5"/>
       <c r="B434" s="5"/>
       <c r="C434" s="5"/>
@@ -14159,7 +14159,7 @@
       <c r="Y434" s="1"/>
       <c r="Z434" s="1"/>
     </row>
-    <row r="435" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A435" s="5"/>
       <c r="B435" s="5"/>
       <c r="C435" s="5"/>
@@ -14187,7 +14187,7 @@
       <c r="Y435" s="1"/>
       <c r="Z435" s="1"/>
     </row>
-    <row r="436" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A436" s="5"/>
       <c r="B436" s="5"/>
       <c r="C436" s="5"/>
@@ -14215,7 +14215,7 @@
       <c r="Y436" s="1"/>
       <c r="Z436" s="1"/>
     </row>
-    <row r="437" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A437" s="5"/>
       <c r="B437" s="5"/>
       <c r="C437" s="5"/>
@@ -14243,7 +14243,7 @@
       <c r="Y437" s="1"/>
       <c r="Z437" s="1"/>
     </row>
-    <row r="438" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A438" s="5"/>
       <c r="B438" s="5"/>
       <c r="C438" s="5"/>
@@ -14271,7 +14271,7 @@
       <c r="Y438" s="1"/>
       <c r="Z438" s="1"/>
     </row>
-    <row r="439" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A439" s="5"/>
       <c r="B439" s="5"/>
       <c r="C439" s="5"/>
@@ -14299,7 +14299,7 @@
       <c r="Y439" s="1"/>
       <c r="Z439" s="1"/>
     </row>
-    <row r="440" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A440" s="5"/>
       <c r="B440" s="5"/>
       <c r="C440" s="5"/>
@@ -14327,7 +14327,7 @@
       <c r="Y440" s="1"/>
       <c r="Z440" s="1"/>
     </row>
-    <row r="441" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A441" s="5"/>
       <c r="B441" s="5"/>
       <c r="C441" s="5"/>
@@ -14355,7 +14355,7 @@
       <c r="Y441" s="1"/>
       <c r="Z441" s="1"/>
     </row>
-    <row r="442" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A442" s="5"/>
       <c r="B442" s="5"/>
       <c r="C442" s="5"/>
@@ -14383,7 +14383,7 @@
       <c r="Y442" s="1"/>
       <c r="Z442" s="1"/>
     </row>
-    <row r="443" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A443" s="5"/>
       <c r="B443" s="5"/>
       <c r="C443" s="5"/>
@@ -14411,7 +14411,7 @@
       <c r="Y443" s="1"/>
       <c r="Z443" s="1"/>
     </row>
-    <row r="444" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A444" s="5"/>
       <c r="B444" s="5"/>
       <c r="C444" s="5"/>
@@ -14439,7 +14439,7 @@
       <c r="Y444" s="1"/>
       <c r="Z444" s="1"/>
     </row>
-    <row r="445" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A445" s="5"/>
       <c r="B445" s="5"/>
       <c r="C445" s="5"/>
@@ -14467,7 +14467,7 @@
       <c r="Y445" s="1"/>
       <c r="Z445" s="1"/>
     </row>
-    <row r="446" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A446" s="5"/>
       <c r="B446" s="5"/>
       <c r="C446" s="5"/>
@@ -14495,7 +14495,7 @@
       <c r="Y446" s="1"/>
       <c r="Z446" s="1"/>
     </row>
-    <row r="447" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A447" s="5"/>
       <c r="B447" s="5"/>
       <c r="C447" s="5"/>
@@ -14523,7 +14523,7 @@
       <c r="Y447" s="1"/>
       <c r="Z447" s="1"/>
     </row>
-    <row r="448" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A448" s="5"/>
       <c r="B448" s="5"/>
       <c r="C448" s="5"/>
@@ -14551,7 +14551,7 @@
       <c r="Y448" s="1"/>
       <c r="Z448" s="1"/>
     </row>
-    <row r="449" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A449" s="5"/>
       <c r="B449" s="5"/>
       <c r="C449" s="5"/>
@@ -14579,7 +14579,7 @@
       <c r="Y449" s="1"/>
       <c r="Z449" s="1"/>
     </row>
-    <row r="450" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A450" s="5"/>
       <c r="B450" s="5"/>
       <c r="C450" s="5"/>
@@ -14607,7 +14607,7 @@
       <c r="Y450" s="1"/>
       <c r="Z450" s="1"/>
     </row>
-    <row r="451" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A451" s="5"/>
       <c r="B451" s="5"/>
       <c r="C451" s="5"/>
@@ -14635,7 +14635,7 @@
       <c r="Y451" s="1"/>
       <c r="Z451" s="1"/>
     </row>
-    <row r="452" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A452" s="5"/>
       <c r="B452" s="5"/>
       <c r="C452" s="5"/>
@@ -14663,7 +14663,7 @@
       <c r="Y452" s="1"/>
       <c r="Z452" s="1"/>
     </row>
-    <row r="453" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A453" s="5"/>
       <c r="B453" s="5"/>
       <c r="C453" s="5"/>
@@ -14691,7 +14691,7 @@
       <c r="Y453" s="1"/>
       <c r="Z453" s="1"/>
     </row>
-    <row r="454" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A454" s="5"/>
       <c r="B454" s="5"/>
       <c r="C454" s="5"/>
@@ -14719,7 +14719,7 @@
       <c r="Y454" s="1"/>
       <c r="Z454" s="1"/>
     </row>
-    <row r="455" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A455" s="5"/>
       <c r="B455" s="5"/>
       <c r="C455" s="5"/>
@@ -14747,7 +14747,7 @@
       <c r="Y455" s="1"/>
       <c r="Z455" s="1"/>
     </row>
-    <row r="456" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A456" s="5"/>
       <c r="B456" s="5"/>
       <c r="C456" s="5"/>
@@ -14775,7 +14775,7 @@
       <c r="Y456" s="1"/>
       <c r="Z456" s="1"/>
     </row>
-    <row r="457" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A457" s="5"/>
       <c r="B457" s="5"/>
       <c r="C457" s="5"/>
@@ -14803,7 +14803,7 @@
       <c r="Y457" s="1"/>
       <c r="Z457" s="1"/>
     </row>
-    <row r="458" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A458" s="5"/>
       <c r="B458" s="5"/>
       <c r="C458" s="5"/>
@@ -14831,7 +14831,7 @@
       <c r="Y458" s="1"/>
       <c r="Z458" s="1"/>
     </row>
-    <row r="459" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A459" s="5"/>
       <c r="B459" s="5"/>
       <c r="C459" s="5"/>
@@ -14859,7 +14859,7 @@
       <c r="Y459" s="1"/>
       <c r="Z459" s="1"/>
     </row>
-    <row r="460" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A460" s="5"/>
       <c r="B460" s="5"/>
       <c r="C460" s="5"/>
@@ -14887,7 +14887,7 @@
       <c r="Y460" s="1"/>
       <c r="Z460" s="1"/>
     </row>
-    <row r="461" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A461" s="5"/>
       <c r="B461" s="5"/>
       <c r="C461" s="5"/>
@@ -14915,7 +14915,7 @@
       <c r="Y461" s="1"/>
       <c r="Z461" s="1"/>
     </row>
-    <row r="462" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A462" s="5"/>
       <c r="B462" s="5"/>
       <c r="C462" s="5"/>
@@ -14943,7 +14943,7 @@
       <c r="Y462" s="1"/>
       <c r="Z462" s="1"/>
     </row>
-    <row r="463" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A463" s="5"/>
       <c r="B463" s="5"/>
       <c r="C463" s="5"/>
@@ -14971,7 +14971,7 @@
       <c r="Y463" s="1"/>
       <c r="Z463" s="1"/>
     </row>
-    <row r="464" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A464" s="5"/>
       <c r="B464" s="5"/>
       <c r="C464" s="5"/>
@@ -14999,7 +14999,7 @@
       <c r="Y464" s="1"/>
       <c r="Z464" s="1"/>
     </row>
-    <row r="465" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A465" s="5"/>
       <c r="B465" s="5"/>
       <c r="C465" s="5"/>
@@ -15027,7 +15027,7 @@
       <c r="Y465" s="1"/>
       <c r="Z465" s="1"/>
     </row>
-    <row r="466" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A466" s="5"/>
       <c r="B466" s="5"/>
       <c r="C466" s="5"/>
@@ -15055,7 +15055,7 @@
       <c r="Y466" s="1"/>
       <c r="Z466" s="1"/>
     </row>
-    <row r="467" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A467" s="5"/>
       <c r="B467" s="5"/>
       <c r="C467" s="5"/>
@@ -15083,7 +15083,7 @@
       <c r="Y467" s="1"/>
       <c r="Z467" s="1"/>
     </row>
-    <row r="468" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A468" s="5"/>
       <c r="B468" s="5"/>
       <c r="C468" s="5"/>
@@ -15111,7 +15111,7 @@
       <c r="Y468" s="1"/>
       <c r="Z468" s="1"/>
     </row>
-    <row r="469" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A469" s="5"/>
       <c r="B469" s="5"/>
       <c r="C469" s="5"/>
@@ -15139,7 +15139,7 @@
       <c r="Y469" s="1"/>
       <c r="Z469" s="1"/>
     </row>
-    <row r="470" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A470" s="5"/>
       <c r="B470" s="5"/>
       <c r="C470" s="5"/>
@@ -15167,7 +15167,7 @@
       <c r="Y470" s="1"/>
       <c r="Z470" s="1"/>
     </row>
-    <row r="471" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A471" s="5"/>
       <c r="B471" s="5"/>
       <c r="C471" s="5"/>
@@ -15195,7 +15195,7 @@
       <c r="Y471" s="1"/>
       <c r="Z471" s="1"/>
     </row>
-    <row r="472" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A472" s="5"/>
       <c r="B472" s="5"/>
       <c r="C472" s="5"/>
@@ -15223,7 +15223,7 @@
       <c r="Y472" s="1"/>
       <c r="Z472" s="1"/>
     </row>
-    <row r="473" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A473" s="5"/>
       <c r="B473" s="5"/>
       <c r="C473" s="5"/>
@@ -15251,7 +15251,7 @@
       <c r="Y473" s="1"/>
       <c r="Z473" s="1"/>
     </row>
-    <row r="474" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A474" s="5"/>
       <c r="B474" s="5"/>
       <c r="C474" s="5"/>
@@ -15279,7 +15279,7 @@
       <c r="Y474" s="1"/>
       <c r="Z474" s="1"/>
     </row>
-    <row r="475" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A475" s="5"/>
       <c r="B475" s="5"/>
       <c r="C475" s="5"/>
@@ -15307,7 +15307,7 @@
       <c r="Y475" s="1"/>
       <c r="Z475" s="1"/>
     </row>
-    <row r="476" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A476" s="5"/>
       <c r="B476" s="5"/>
       <c r="C476" s="5"/>
@@ -15335,7 +15335,7 @@
       <c r="Y476" s="1"/>
       <c r="Z476" s="1"/>
     </row>
-    <row r="477" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A477" s="5"/>
       <c r="B477" s="5"/>
       <c r="C477" s="5"/>
@@ -15363,7 +15363,7 @@
       <c r="Y477" s="1"/>
       <c r="Z477" s="1"/>
     </row>
-    <row r="478" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A478" s="5"/>
       <c r="B478" s="5"/>
       <c r="C478" s="5"/>
@@ -15391,7 +15391,7 @@
       <c r="Y478" s="1"/>
       <c r="Z478" s="1"/>
     </row>
-    <row r="479" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A479" s="5"/>
       <c r="B479" s="5"/>
       <c r="C479" s="5"/>
@@ -15419,7 +15419,7 @@
       <c r="Y479" s="1"/>
       <c r="Z479" s="1"/>
     </row>
-    <row r="480" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A480" s="5"/>
       <c r="B480" s="5"/>
       <c r="C480" s="5"/>
@@ -15447,7 +15447,7 @@
       <c r="Y480" s="1"/>
       <c r="Z480" s="1"/>
     </row>
-    <row r="481" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A481" s="5"/>
       <c r="B481" s="5"/>
       <c r="C481" s="5"/>
@@ -15475,7 +15475,7 @@
       <c r="Y481" s="1"/>
       <c r="Z481" s="1"/>
     </row>
-    <row r="482" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A482" s="5"/>
       <c r="B482" s="5"/>
       <c r="C482" s="5"/>
@@ -15503,7 +15503,7 @@
       <c r="Y482" s="1"/>
       <c r="Z482" s="1"/>
     </row>
-    <row r="483" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A483" s="5"/>
       <c r="B483" s="5"/>
       <c r="C483" s="5"/>
@@ -15531,7 +15531,7 @@
       <c r="Y483" s="1"/>
       <c r="Z483" s="1"/>
     </row>
-    <row r="484" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A484" s="5"/>
       <c r="B484" s="5"/>
       <c r="C484" s="5"/>
@@ -15559,7 +15559,7 @@
       <c r="Y484" s="1"/>
       <c r="Z484" s="1"/>
     </row>
-    <row r="485" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A485" s="5"/>
       <c r="B485" s="5"/>
       <c r="C485" s="5"/>
@@ -15587,7 +15587,7 @@
       <c r="Y485" s="1"/>
       <c r="Z485" s="1"/>
     </row>
-    <row r="486" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A486" s="5"/>
       <c r="B486" s="5"/>
       <c r="C486" s="5"/>
@@ -15615,7 +15615,7 @@
       <c r="Y486" s="1"/>
       <c r="Z486" s="1"/>
     </row>
-    <row r="487" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A487" s="5"/>
       <c r="B487" s="5"/>
       <c r="C487" s="5"/>
@@ -15643,7 +15643,7 @@
       <c r="Y487" s="1"/>
       <c r="Z487" s="1"/>
     </row>
-    <row r="488" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A488" s="5"/>
       <c r="B488" s="5"/>
       <c r="C488" s="5"/>
@@ -15671,7 +15671,7 @@
       <c r="Y488" s="1"/>
       <c r="Z488" s="1"/>
     </row>
-    <row r="489" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A489" s="5"/>
       <c r="B489" s="5"/>
       <c r="C489" s="5"/>
@@ -15699,7 +15699,7 @@
       <c r="Y489" s="1"/>
       <c r="Z489" s="1"/>
     </row>
-    <row r="490" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A490" s="5"/>
       <c r="B490" s="5"/>
       <c r="C490" s="5"/>
@@ -15727,7 +15727,7 @@
       <c r="Y490" s="1"/>
       <c r="Z490" s="1"/>
     </row>
-    <row r="491" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A491" s="5"/>
       <c r="B491" s="5"/>
       <c r="C491" s="5"/>
@@ -15755,7 +15755,7 @@
       <c r="Y491" s="1"/>
       <c r="Z491" s="1"/>
     </row>
-    <row r="492" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A492" s="5"/>
       <c r="B492" s="5"/>
       <c r="C492" s="5"/>
@@ -15783,7 +15783,7 @@
       <c r="Y492" s="1"/>
       <c r="Z492" s="1"/>
     </row>
-    <row r="493" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A493" s="5"/>
       <c r="B493" s="5"/>
       <c r="C493" s="5"/>
@@ -15811,7 +15811,7 @@
       <c r="Y493" s="1"/>
       <c r="Z493" s="1"/>
     </row>
-    <row r="494" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A494" s="5"/>
       <c r="B494" s="5"/>
       <c r="C494" s="5"/>
@@ -15839,7 +15839,7 @@
       <c r="Y494" s="1"/>
       <c r="Z494" s="1"/>
     </row>
-    <row r="495" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A495" s="5"/>
       <c r="B495" s="5"/>
       <c r="C495" s="5"/>
@@ -15867,7 +15867,7 @@
       <c r="Y495" s="1"/>
       <c r="Z495" s="1"/>
     </row>
-    <row r="496" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A496" s="5"/>
       <c r="B496" s="5"/>
       <c r="C496" s="5"/>
@@ -15895,7 +15895,7 @@
       <c r="Y496" s="1"/>
       <c r="Z496" s="1"/>
     </row>
-    <row r="497" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A497" s="5"/>
       <c r="B497" s="5"/>
       <c r="C497" s="5"/>
@@ -15923,7 +15923,7 @@
       <c r="Y497" s="1"/>
       <c r="Z497" s="1"/>
     </row>
-    <row r="498" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A498" s="5"/>
       <c r="B498" s="5"/>
       <c r="C498" s="5"/>
@@ -15951,7 +15951,7 @@
       <c r="Y498" s="1"/>
       <c r="Z498" s="1"/>
     </row>
-    <row r="499" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A499" s="5"/>
       <c r="B499" s="5"/>
       <c r="C499" s="5"/>
@@ -15979,7 +15979,7 @@
       <c r="Y499" s="1"/>
       <c r="Z499" s="1"/>
     </row>
-    <row r="500" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A500" s="5"/>
       <c r="B500" s="5"/>
       <c r="C500" s="5"/>
@@ -16007,7 +16007,7 @@
       <c r="Y500" s="1"/>
       <c r="Z500" s="1"/>
     </row>
-    <row r="501" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A501" s="5"/>
       <c r="B501" s="5"/>
       <c r="C501" s="5"/>
@@ -16035,7 +16035,7 @@
       <c r="Y501" s="1"/>
       <c r="Z501" s="1"/>
     </row>
-    <row r="502" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A502" s="5"/>
       <c r="B502" s="5"/>
       <c r="C502" s="5"/>
@@ -16063,7 +16063,7 @@
       <c r="Y502" s="1"/>
       <c r="Z502" s="1"/>
     </row>
-    <row r="503" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A503" s="5"/>
       <c r="B503" s="5"/>
       <c r="C503" s="5"/>
@@ -16091,7 +16091,7 @@
       <c r="Y503" s="1"/>
       <c r="Z503" s="1"/>
     </row>
-    <row r="504" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A504" s="5"/>
       <c r="B504" s="5"/>
       <c r="C504" s="5"/>
@@ -16119,7 +16119,7 @@
       <c r="Y504" s="1"/>
       <c r="Z504" s="1"/>
     </row>
-    <row r="505" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A505" s="5"/>
       <c r="B505" s="5"/>
       <c r="C505" s="5"/>
@@ -16147,7 +16147,7 @@
       <c r="Y505" s="1"/>
       <c r="Z505" s="1"/>
     </row>
-    <row r="506" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A506" s="5"/>
       <c r="B506" s="5"/>
       <c r="C506" s="5"/>
@@ -16175,7 +16175,7 @@
       <c r="Y506" s="1"/>
       <c r="Z506" s="1"/>
     </row>
-    <row r="507" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A507" s="5"/>
       <c r="B507" s="5"/>
       <c r="C507" s="5"/>
@@ -16203,7 +16203,7 @@
       <c r="Y507" s="1"/>
       <c r="Z507" s="1"/>
     </row>
-    <row r="508" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A508" s="5"/>
       <c r="B508" s="5"/>
       <c r="C508" s="5"/>
@@ -16231,7 +16231,7 @@
       <c r="Y508" s="1"/>
       <c r="Z508" s="1"/>
     </row>
-    <row r="509" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A509" s="5"/>
       <c r="B509" s="5"/>
       <c r="C509" s="5"/>
@@ -16259,7 +16259,7 @@
       <c r="Y509" s="1"/>
       <c r="Z509" s="1"/>
     </row>
-    <row r="510" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A510" s="5"/>
       <c r="B510" s="5"/>
       <c r="C510" s="5"/>
@@ -16287,7 +16287,7 @@
       <c r="Y510" s="1"/>
       <c r="Z510" s="1"/>
     </row>
-    <row r="511" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A511" s="5"/>
       <c r="B511" s="5"/>
       <c r="C511" s="5"/>
@@ -16315,7 +16315,7 @@
       <c r="Y511" s="1"/>
       <c r="Z511" s="1"/>
     </row>
-    <row r="512" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A512" s="5"/>
       <c r="B512" s="5"/>
       <c r="C512" s="5"/>
@@ -16343,7 +16343,7 @@
       <c r="Y512" s="1"/>
       <c r="Z512" s="1"/>
     </row>
-    <row r="513" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A513" s="5"/>
       <c r="B513" s="5"/>
       <c r="C513" s="5"/>
@@ -16371,7 +16371,7 @@
       <c r="Y513" s="1"/>
       <c r="Z513" s="1"/>
     </row>
-    <row r="514" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A514" s="5"/>
       <c r="B514" s="5"/>
       <c r="C514" s="5"/>
@@ -16399,7 +16399,7 @@
       <c r="Y514" s="1"/>
       <c r="Z514" s="1"/>
     </row>
-    <row r="515" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A515" s="5"/>
       <c r="B515" s="5"/>
       <c r="C515" s="5"/>
@@ -16427,7 +16427,7 @@
       <c r="Y515" s="1"/>
       <c r="Z515" s="1"/>
     </row>
-    <row r="516" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A516" s="5"/>
       <c r="B516" s="5"/>
       <c r="C516" s="5"/>
@@ -16455,7 +16455,7 @@
       <c r="Y516" s="1"/>
       <c r="Z516" s="1"/>
     </row>
-    <row r="517" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A517" s="5"/>
       <c r="B517" s="5"/>
       <c r="C517" s="5"/>
@@ -16483,7 +16483,7 @@
       <c r="Y517" s="1"/>
       <c r="Z517" s="1"/>
     </row>
-    <row r="518" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A518" s="5"/>
       <c r="B518" s="5"/>
       <c r="C518" s="5"/>
@@ -16511,7 +16511,7 @@
       <c r="Y518" s="1"/>
       <c r="Z518" s="1"/>
     </row>
-    <row r="519" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A519" s="5"/>
       <c r="B519" s="5"/>
       <c r="C519" s="5"/>
@@ -16539,7 +16539,7 @@
       <c r="Y519" s="1"/>
       <c r="Z519" s="1"/>
     </row>
-    <row r="520" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A520" s="5"/>
       <c r="B520" s="5"/>
       <c r="C520" s="5"/>
@@ -16567,7 +16567,7 @@
       <c r="Y520" s="1"/>
       <c r="Z520" s="1"/>
     </row>
-    <row r="521" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A521" s="5"/>
       <c r="B521" s="5"/>
       <c r="C521" s="5"/>
@@ -16595,7 +16595,7 @@
       <c r="Y521" s="1"/>
       <c r="Z521" s="1"/>
     </row>
-    <row r="522" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A522" s="5"/>
       <c r="B522" s="5"/>
       <c r="C522" s="5"/>
@@ -16623,7 +16623,7 @@
       <c r="Y522" s="1"/>
       <c r="Z522" s="1"/>
     </row>
-    <row r="523" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A523" s="5"/>
       <c r="B523" s="5"/>
       <c r="C523" s="5"/>
@@ -16651,7 +16651,7 @@
       <c r="Y523" s="1"/>
       <c r="Z523" s="1"/>
     </row>
-    <row r="524" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A524" s="5"/>
       <c r="B524" s="5"/>
       <c r="C524" s="5"/>
@@ -16679,7 +16679,7 @@
       <c r="Y524" s="1"/>
       <c r="Z524" s="1"/>
     </row>
-    <row r="525" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A525" s="5"/>
       <c r="B525" s="5"/>
       <c r="C525" s="5"/>
@@ -16707,7 +16707,7 @@
       <c r="Y525" s="1"/>
       <c r="Z525" s="1"/>
     </row>
-    <row r="526" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A526" s="5"/>
       <c r="B526" s="5"/>
       <c r="C526" s="5"/>
@@ -16735,7 +16735,7 @@
       <c r="Y526" s="1"/>
       <c r="Z526" s="1"/>
     </row>
-    <row r="527" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A527" s="5"/>
       <c r="B527" s="5"/>
       <c r="C527" s="5"/>
@@ -16763,7 +16763,7 @@
       <c r="Y527" s="1"/>
       <c r="Z527" s="1"/>
     </row>
-    <row r="528" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A528" s="5"/>
       <c r="B528" s="5"/>
       <c r="C528" s="5"/>
@@ -16791,7 +16791,7 @@
       <c r="Y528" s="1"/>
       <c r="Z528" s="1"/>
     </row>
-    <row r="529" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A529" s="5"/>
       <c r="B529" s="5"/>
       <c r="C529" s="5"/>
@@ -16819,7 +16819,7 @@
       <c r="Y529" s="1"/>
       <c r="Z529" s="1"/>
     </row>
-    <row r="530" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A530" s="5"/>
       <c r="B530" s="5"/>
       <c r="C530" s="5"/>
@@ -16847,7 +16847,7 @@
       <c r="Y530" s="1"/>
       <c r="Z530" s="1"/>
     </row>
-    <row r="531" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A531" s="5"/>
       <c r="B531" s="5"/>
       <c r="C531" s="5"/>
@@ -16875,7 +16875,7 @@
       <c r="Y531" s="1"/>
       <c r="Z531" s="1"/>
     </row>
-    <row r="532" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A532" s="5"/>
       <c r="B532" s="5"/>
       <c r="C532" s="5"/>
@@ -16903,7 +16903,7 @@
       <c r="Y532" s="1"/>
       <c r="Z532" s="1"/>
     </row>
-    <row r="533" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A533" s="5"/>
       <c r="B533" s="5"/>
       <c r="C533" s="5"/>
@@ -16931,7 +16931,7 @@
       <c r="Y533" s="1"/>
       <c r="Z533" s="1"/>
     </row>
-    <row r="534" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A534" s="5"/>
       <c r="B534" s="5"/>
       <c r="C534" s="5"/>
@@ -16959,7 +16959,7 @@
       <c r="Y534" s="1"/>
       <c r="Z534" s="1"/>
     </row>
-    <row r="535" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A535" s="5"/>
       <c r="B535" s="5"/>
       <c r="C535" s="5"/>
@@ -16987,7 +16987,7 @@
       <c r="Y535" s="1"/>
       <c r="Z535" s="1"/>
     </row>
-    <row r="536" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A536" s="5"/>
       <c r="B536" s="5"/>
       <c r="C536" s="5"/>
@@ -17015,7 +17015,7 @@
       <c r="Y536" s="1"/>
       <c r="Z536" s="1"/>
     </row>
-    <row r="537" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A537" s="5"/>
       <c r="B537" s="5"/>
       <c r="C537" s="5"/>
@@ -17043,7 +17043,7 @@
       <c r="Y537" s="1"/>
       <c r="Z537" s="1"/>
     </row>
-    <row r="538" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A538" s="5"/>
       <c r="B538" s="5"/>
       <c r="C538" s="5"/>
@@ -17071,7 +17071,7 @@
       <c r="Y538" s="1"/>
       <c r="Z538" s="1"/>
     </row>
-    <row r="539" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A539" s="5"/>
       <c r="B539" s="5"/>
       <c r="C539" s="5"/>
@@ -17099,7 +17099,7 @@
       <c r="Y539" s="1"/>
       <c r="Z539" s="1"/>
     </row>
-    <row r="540" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A540" s="5"/>
       <c r="B540" s="5"/>
       <c r="C540" s="5"/>
@@ -17127,7 +17127,7 @@
       <c r="Y540" s="1"/>
       <c r="Z540" s="1"/>
     </row>
-    <row r="541" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A541" s="5"/>
       <c r="B541" s="5"/>
       <c r="C541" s="5"/>
@@ -17155,7 +17155,7 @@
       <c r="Y541" s="1"/>
       <c r="Z541" s="1"/>
     </row>
-    <row r="542" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A542" s="5"/>
       <c r="B542" s="5"/>
       <c r="C542" s="5"/>
@@ -17183,7 +17183,7 @@
       <c r="Y542" s="1"/>
       <c r="Z542" s="1"/>
     </row>
-    <row r="543" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A543" s="5"/>
       <c r="B543" s="5"/>
       <c r="C543" s="5"/>
@@ -17211,7 +17211,7 @@
       <c r="Y543" s="1"/>
       <c r="Z543" s="1"/>
     </row>
-    <row r="544" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A544" s="5"/>
       <c r="B544" s="5"/>
       <c r="C544" s="5"/>
@@ -17239,7 +17239,7 @@
       <c r="Y544" s="1"/>
       <c r="Z544" s="1"/>
     </row>
-    <row r="545" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A545" s="5"/>
       <c r="B545" s="5"/>
       <c r="C545" s="5"/>
@@ -17267,7 +17267,7 @@
       <c r="Y545" s="1"/>
       <c r="Z545" s="1"/>
     </row>
-    <row r="546" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A546" s="5"/>
       <c r="B546" s="5"/>
       <c r="C546" s="5"/>
@@ -17295,7 +17295,7 @@
       <c r="Y546" s="1"/>
       <c r="Z546" s="1"/>
     </row>
-    <row r="547" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A547" s="5"/>
       <c r="B547" s="5"/>
       <c r="C547" s="5"/>
@@ -17323,7 +17323,7 @@
       <c r="Y547" s="1"/>
       <c r="Z547" s="1"/>
     </row>
-    <row r="548" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A548" s="5"/>
       <c r="B548" s="5"/>
       <c r="C548" s="5"/>
@@ -17351,7 +17351,7 @@
       <c r="Y548" s="1"/>
       <c r="Z548" s="1"/>
     </row>
-    <row r="549" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A549" s="5"/>
       <c r="B549" s="5"/>
       <c r="C549" s="5"/>
@@ -17379,7 +17379,7 @@
       <c r="Y549" s="1"/>
       <c r="Z549" s="1"/>
     </row>
-    <row r="550" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A550" s="5"/>
       <c r="B550" s="5"/>
       <c r="C550" s="5"/>
@@ -17407,7 +17407,7 @@
       <c r="Y550" s="1"/>
       <c r="Z550" s="1"/>
     </row>
-    <row r="551" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A551" s="5"/>
       <c r="B551" s="5"/>
       <c r="C551" s="5"/>
@@ -17435,7 +17435,7 @@
       <c r="Y551" s="1"/>
       <c r="Z551" s="1"/>
     </row>
-    <row r="552" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A552" s="5"/>
       <c r="B552" s="5"/>
       <c r="C552" s="5"/>
@@ -17463,7 +17463,7 @@
       <c r="Y552" s="1"/>
       <c r="Z552" s="1"/>
     </row>
-    <row r="553" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A553" s="5"/>
       <c r="B553" s="5"/>
       <c r="C553" s="5"/>
@@ -17491,7 +17491,7 @@
       <c r="Y553" s="1"/>
       <c r="Z553" s="1"/>
     </row>
-    <row r="554" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A554" s="5"/>
       <c r="B554" s="5"/>
       <c r="C554" s="5"/>
@@ -17519,7 +17519,7 @@
       <c r="Y554" s="1"/>
       <c r="Z554" s="1"/>
     </row>
-    <row r="555" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A555" s="5"/>
       <c r="B555" s="5"/>
       <c r="C555" s="5"/>
@@ -17547,7 +17547,7 @@
       <c r="Y555" s="1"/>
       <c r="Z555" s="1"/>
     </row>
-    <row r="556" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A556" s="5"/>
       <c r="B556" s="5"/>
       <c r="C556" s="5"/>
@@ -17575,7 +17575,7 @@
       <c r="Y556" s="1"/>
       <c r="Z556" s="1"/>
     </row>
-    <row r="557" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A557" s="5"/>
       <c r="B557" s="5"/>
       <c r="C557" s="5"/>
@@ -17603,7 +17603,7 @@
       <c r="Y557" s="1"/>
       <c r="Z557" s="1"/>
     </row>
-    <row r="558" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A558" s="5"/>
       <c r="B558" s="5"/>
       <c r="C558" s="5"/>
@@ -17631,7 +17631,7 @@
       <c r="Y558" s="1"/>
       <c r="Z558" s="1"/>
     </row>
-    <row r="559" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A559" s="5"/>
       <c r="B559" s="5"/>
       <c r="C559" s="5"/>
@@ -17659,7 +17659,7 @@
       <c r="Y559" s="1"/>
       <c r="Z559" s="1"/>
     </row>
-    <row r="560" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A560" s="5"/>
       <c r="B560" s="5"/>
       <c r="C560" s="5"/>
@@ -17687,7 +17687,7 @@
       <c r="Y560" s="1"/>
       <c r="Z560" s="1"/>
     </row>
-    <row r="561" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A561" s="5"/>
       <c r="B561" s="5"/>
       <c r="C561" s="5"/>
@@ -17715,7 +17715,7 @@
       <c r="Y561" s="1"/>
       <c r="Z561" s="1"/>
     </row>
-    <row r="562" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A562" s="5"/>
       <c r="B562" s="5"/>
       <c r="C562" s="5"/>
@@ -17743,7 +17743,7 @@
       <c r="Y562" s="1"/>
       <c r="Z562" s="1"/>
     </row>
-    <row r="563" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A563" s="5"/>
       <c r="B563" s="5"/>
       <c r="C563" s="5"/>
@@ -17771,7 +17771,7 @@
       <c r="Y563" s="1"/>
       <c r="Z563" s="1"/>
     </row>
-    <row r="564" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A564" s="5"/>
       <c r="B564" s="5"/>
       <c r="C564" s="5"/>
@@ -17799,7 +17799,7 @@
       <c r="Y564" s="1"/>
       <c r="Z564" s="1"/>
     </row>
-    <row r="565" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A565" s="5"/>
       <c r="B565" s="5"/>
       <c r="C565" s="5"/>
@@ -17827,7 +17827,7 @@
       <c r="Y565" s="1"/>
       <c r="Z565" s="1"/>
     </row>
-    <row r="566" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A566" s="5"/>
       <c r="B566" s="5"/>
       <c r="C566" s="5"/>
@@ -17855,7 +17855,7 @@
       <c r="Y566" s="1"/>
       <c r="Z566" s="1"/>
     </row>
-    <row r="567" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A567" s="5"/>
       <c r="B567" s="5"/>
       <c r="C567" s="5"/>
@@ -17883,7 +17883,7 @@
       <c r="Y567" s="1"/>
       <c r="Z567" s="1"/>
     </row>
-    <row r="568" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A568" s="5"/>
       <c r="B568" s="5"/>
       <c r="C568" s="5"/>
@@ -17911,7 +17911,7 @@
       <c r="Y568" s="1"/>
       <c r="Z568" s="1"/>
     </row>
-    <row r="569" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A569" s="5"/>
       <c r="B569" s="5"/>
       <c r="C569" s="5"/>
@@ -17939,7 +17939,7 @@
       <c r="Y569" s="1"/>
       <c r="Z569" s="1"/>
     </row>
-    <row r="570" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A570" s="5"/>
       <c r="B570" s="5"/>
       <c r="C570" s="5"/>
@@ -17967,7 +17967,7 @@
       <c r="Y570" s="1"/>
       <c r="Z570" s="1"/>
     </row>
-    <row r="571" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A571" s="5"/>
       <c r="B571" s="5"/>
       <c r="C571" s="5"/>
@@ -17995,7 +17995,7 @@
       <c r="Y571" s="1"/>
       <c r="Z571" s="1"/>
     </row>
-    <row r="572" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A572" s="5"/>
       <c r="B572" s="5"/>
       <c r="C572" s="5"/>
@@ -18023,7 +18023,7 @@
       <c r="Y572" s="1"/>
       <c r="Z572" s="1"/>
     </row>
-    <row r="573" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A573" s="5"/>
       <c r="B573" s="5"/>
       <c r="C573" s="5"/>
@@ -18051,7 +18051,7 @@
       <c r="Y573" s="1"/>
       <c r="Z573" s="1"/>
     </row>
-    <row r="574" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A574" s="5"/>
       <c r="B574" s="5"/>
       <c r="C574" s="5"/>
@@ -18079,7 +18079,7 @@
       <c r="Y574" s="1"/>
       <c r="Z574" s="1"/>
     </row>
-    <row r="575" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A575" s="5"/>
       <c r="B575" s="5"/>
       <c r="C575" s="5"/>
@@ -18107,7 +18107,7 @@
       <c r="Y575" s="1"/>
       <c r="Z575" s="1"/>
     </row>
-    <row r="576" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A576" s="5"/>
       <c r="B576" s="5"/>
       <c r="C576" s="5"/>
@@ -18135,7 +18135,7 @@
       <c r="Y576" s="1"/>
       <c r="Z576" s="1"/>
     </row>
-    <row r="577" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A577" s="5"/>
       <c r="B577" s="5"/>
       <c r="C577" s="5"/>
@@ -18163,7 +18163,7 @@
       <c r="Y577" s="1"/>
       <c r="Z577" s="1"/>
     </row>
-    <row r="578" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A578" s="5"/>
       <c r="B578" s="5"/>
       <c r="C578" s="5"/>
@@ -18191,7 +18191,7 @@
       <c r="Y578" s="1"/>
       <c r="Z578" s="1"/>
     </row>
-    <row r="579" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A579" s="5"/>
       <c r="B579" s="5"/>
       <c r="C579" s="5"/>
@@ -18219,7 +18219,7 @@
       <c r="Y579" s="1"/>
       <c r="Z579" s="1"/>
     </row>
-    <row r="580" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A580" s="5"/>
       <c r="B580" s="5"/>
       <c r="C580" s="5"/>
@@ -18247,7 +18247,7 @@
       <c r="Y580" s="1"/>
       <c r="Z580" s="1"/>
     </row>
-    <row r="581" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A581" s="5"/>
       <c r="B581" s="5"/>
       <c r="C581" s="5"/>
@@ -18275,7 +18275,7 @@
       <c r="Y581" s="1"/>
       <c r="Z581" s="1"/>
     </row>
-    <row r="582" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A582" s="5"/>
       <c r="B582" s="5"/>
       <c r="C582" s="5"/>
@@ -18303,7 +18303,7 @@
       <c r="Y582" s="1"/>
       <c r="Z582" s="1"/>
     </row>
-    <row r="583" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A583" s="5"/>
       <c r="B583" s="5"/>
       <c r="C583" s="5"/>
@@ -18331,7 +18331,7 @@
       <c r="Y583" s="1"/>
       <c r="Z583" s="1"/>
     </row>
-    <row r="584" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A584" s="5"/>
       <c r="B584" s="5"/>
       <c r="C584" s="5"/>
@@ -18359,7 +18359,7 @@
       <c r="Y584" s="1"/>
       <c r="Z584" s="1"/>
     </row>
-    <row r="585" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A585" s="5"/>
       <c r="B585" s="5"/>
       <c r="C585" s="5"/>
@@ -18387,7 +18387,7 @@
       <c r="Y585" s="1"/>
       <c r="Z585" s="1"/>
     </row>
-    <row r="586" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A586" s="5"/>
       <c r="B586" s="5"/>
       <c r="C586" s="5"/>
@@ -18415,7 +18415,7 @@
       <c r="Y586" s="1"/>
       <c r="Z586" s="1"/>
     </row>
-    <row r="587" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A587" s="5"/>
       <c r="B587" s="5"/>
       <c r="C587" s="5"/>
@@ -18443,7 +18443,7 @@
       <c r="Y587" s="1"/>
       <c r="Z587" s="1"/>
     </row>
-    <row r="588" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A588" s="5"/>
       <c r="B588" s="5"/>
       <c r="C588" s="5"/>
@@ -18471,7 +18471,7 @@
       <c r="Y588" s="1"/>
       <c r="Z588" s="1"/>
     </row>
-    <row r="589" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A589" s="5"/>
       <c r="B589" s="5"/>
       <c r="C589" s="5"/>
@@ -18499,7 +18499,7 @@
       <c r="Y589" s="1"/>
       <c r="Z589" s="1"/>
     </row>
-    <row r="590" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A590" s="5"/>
       <c r="B590" s="5"/>
       <c r="C590" s="5"/>
@@ -18527,7 +18527,7 @@
       <c r="Y590" s="1"/>
       <c r="Z590" s="1"/>
     </row>
-    <row r="591" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A591" s="5"/>
       <c r="B591" s="5"/>
       <c r="C591" s="5"/>
@@ -18555,7 +18555,7 @@
       <c r="Y591" s="1"/>
       <c r="Z591" s="1"/>
     </row>
-    <row r="592" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A592" s="5"/>
       <c r="B592" s="5"/>
       <c r="C592" s="5"/>
@@ -18583,7 +18583,7 @@
       <c r="Y592" s="1"/>
       <c r="Z592" s="1"/>
     </row>
-    <row r="593" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A593" s="5"/>
       <c r="B593" s="5"/>
       <c r="C593" s="5"/>
@@ -18611,7 +18611,7 @@
       <c r="Y593" s="1"/>
       <c r="Z593" s="1"/>
     </row>
-    <row r="594" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A594" s="5"/>
       <c r="B594" s="5"/>
       <c r="C594" s="5"/>
@@ -18639,7 +18639,7 @@
       <c r="Y594" s="1"/>
       <c r="Z594" s="1"/>
     </row>
-    <row r="595" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A595" s="5"/>
       <c r="B595" s="5"/>
       <c r="C595" s="5"/>
@@ -18667,7 +18667,7 @@
       <c r="Y595" s="1"/>
       <c r="Z595" s="1"/>
     </row>
-    <row r="596" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A596" s="5"/>
       <c r="B596" s="5"/>
       <c r="C596" s="5"/>
@@ -18695,7 +18695,7 @@
       <c r="Y596" s="1"/>
       <c r="Z596" s="1"/>
     </row>
-    <row r="597" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A597" s="5"/>
       <c r="B597" s="5"/>
       <c r="C597" s="5"/>
@@ -18723,7 +18723,7 @@
       <c r="Y597" s="1"/>
       <c r="Z597" s="1"/>
     </row>
-    <row r="598" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A598" s="5"/>
       <c r="B598" s="5"/>
       <c r="C598" s="5"/>
@@ -18751,7 +18751,7 @@
       <c r="Y598" s="1"/>
       <c r="Z598" s="1"/>
     </row>
-    <row r="599" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A599" s="5"/>
       <c r="B599" s="5"/>
       <c r="C599" s="5"/>
@@ -18779,7 +18779,7 @@
       <c r="Y599" s="1"/>
       <c r="Z599" s="1"/>
     </row>
-    <row r="600" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A600" s="5"/>
       <c r="B600" s="5"/>
       <c r="C600" s="5"/>
@@ -18807,7 +18807,7 @@
       <c r="Y600" s="1"/>
       <c r="Z600" s="1"/>
     </row>
-    <row r="601" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A601" s="5"/>
       <c r="B601" s="5"/>
       <c r="C601" s="5"/>
@@ -18835,7 +18835,7 @@
       <c r="Y601" s="1"/>
       <c r="Z601" s="1"/>
     </row>
-    <row r="602" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A602" s="5"/>
       <c r="B602" s="5"/>
       <c r="C602" s="5"/>
@@ -18863,7 +18863,7 @@
       <c r="Y602" s="1"/>
       <c r="Z602" s="1"/>
     </row>
-    <row r="603" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A603" s="5"/>
       <c r="B603" s="5"/>
       <c r="C603" s="5"/>
@@ -18891,7 +18891,7 @@
       <c r="Y603" s="1"/>
       <c r="Z603" s="1"/>
     </row>
-    <row r="604" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A604" s="5"/>
       <c r="B604" s="5"/>
       <c r="C604" s="5"/>
@@ -18919,7 +18919,7 @@
       <c r="Y604" s="1"/>
       <c r="Z604" s="1"/>
     </row>
-    <row r="605" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A605" s="5"/>
       <c r="B605" s="5"/>
       <c r="C605" s="5"/>
@@ -18947,7 +18947,7 @@
       <c r="Y605" s="1"/>
       <c r="Z605" s="1"/>
     </row>
-    <row r="606" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A606" s="5"/>
       <c r="B606" s="5"/>
       <c r="C606" s="5"/>
@@ -18975,7 +18975,7 @@
       <c r="Y606" s="1"/>
       <c r="Z606" s="1"/>
     </row>
-    <row r="607" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A607" s="5"/>
       <c r="B607" s="5"/>
       <c r="C607" s="5"/>
@@ -19003,7 +19003,7 @@
       <c r="Y607" s="1"/>
       <c r="Z607" s="1"/>
     </row>
-    <row r="608" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A608" s="5"/>
       <c r="B608" s="5"/>
       <c r="C608" s="5"/>
@@ -19031,7 +19031,7 @@
       <c r="Y608" s="1"/>
       <c r="Z608" s="1"/>
     </row>
-    <row r="609" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A609" s="5"/>
       <c r="B609" s="5"/>
       <c r="C609" s="5"/>
@@ -19059,7 +19059,7 @@
       <c r="Y609" s="1"/>
       <c r="Z609" s="1"/>
     </row>
-    <row r="610" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A610" s="5"/>
       <c r="B610" s="5"/>
       <c r="C610" s="5"/>
@@ -19087,7 +19087,7 @@
       <c r="Y610" s="1"/>
       <c r="Z610" s="1"/>
     </row>
-    <row r="611" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A611" s="5"/>
       <c r="B611" s="5"/>
       <c r="C611" s="5"/>
@@ -19115,7 +19115,7 @@
       <c r="Y611" s="1"/>
       <c r="Z611" s="1"/>
     </row>
-    <row r="612" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A612" s="5"/>
       <c r="B612" s="5"/>
       <c r="C612" s="5"/>
@@ -19143,7 +19143,7 @@
       <c r="Y612" s="1"/>
       <c r="Z612" s="1"/>
     </row>
-    <row r="613" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A613" s="5"/>
       <c r="B613" s="5"/>
       <c r="C613" s="5"/>
@@ -19171,7 +19171,7 @@
       <c r="Y613" s="1"/>
       <c r="Z613" s="1"/>
     </row>
-    <row r="614" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A614" s="5"/>
       <c r="B614" s="5"/>
       <c r="C614" s="5"/>
@@ -19199,7 +19199,7 @@
       <c r="Y614" s="1"/>
       <c r="Z614" s="1"/>
     </row>
-    <row r="615" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A615" s="5"/>
       <c r="B615" s="5"/>
       <c r="C615" s="5"/>
@@ -19227,7 +19227,7 @@
       <c r="Y615" s="1"/>
       <c r="Z615" s="1"/>
     </row>
-    <row r="616" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A616" s="5"/>
       <c r="B616" s="5"/>
       <c r="C616" s="5"/>
@@ -19255,7 +19255,7 @@
       <c r="Y616" s="1"/>
       <c r="Z616" s="1"/>
     </row>
-    <row r="617" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A617" s="5"/>
       <c r="B617" s="5"/>
       <c r="C617" s="5"/>
@@ -19283,7 +19283,7 @@
       <c r="Y617" s="1"/>
       <c r="Z617" s="1"/>
     </row>
-    <row r="618" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A618" s="5"/>
       <c r="B618" s="5"/>
       <c r="C618" s="5"/>
@@ -19311,7 +19311,7 @@
       <c r="Y618" s="1"/>
       <c r="Z618" s="1"/>
     </row>
-    <row r="619" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A619" s="5"/>
       <c r="B619" s="5"/>
       <c r="C619" s="5"/>
@@ -19339,7 +19339,7 @@
       <c r="Y619" s="1"/>
       <c r="Z619" s="1"/>
     </row>
-    <row r="620" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A620" s="5"/>
       <c r="B620" s="5"/>
       <c r="C620" s="5"/>
@@ -19367,7 +19367,7 @@
       <c r="Y620" s="1"/>
       <c r="Z620" s="1"/>
     </row>
-    <row r="621" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A621" s="5"/>
       <c r="B621" s="5"/>
       <c r="C621" s="5"/>
@@ -19395,7 +19395,7 @@
       <c r="Y621" s="1"/>
       <c r="Z621" s="1"/>
     </row>
-    <row r="622" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A622" s="5"/>
       <c r="B622" s="5"/>
       <c r="C622" s="5"/>
@@ -19423,7 +19423,7 @@
       <c r="Y622" s="1"/>
       <c r="Z622" s="1"/>
     </row>
-    <row r="623" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A623" s="5"/>
       <c r="B623" s="5"/>
       <c r="C623" s="5"/>
@@ -19451,7 +19451,7 @@
       <c r="Y623" s="1"/>
       <c r="Z623" s="1"/>
     </row>
-    <row r="624" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A624" s="5"/>
       <c r="B624" s="5"/>
       <c r="C624" s="5"/>
@@ -19479,7 +19479,7 @@
       <c r="Y624" s="1"/>
       <c r="Z624" s="1"/>
     </row>
-    <row r="625" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A625" s="5"/>
       <c r="B625" s="5"/>
       <c r="C625" s="5"/>
@@ -19507,7 +19507,7 @@
       <c r="Y625" s="1"/>
       <c r="Z625" s="1"/>
     </row>
-    <row r="626" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A626" s="5"/>
       <c r="B626" s="5"/>
       <c r="C626" s="5"/>
@@ -19535,7 +19535,7 @@
       <c r="Y626" s="1"/>
       <c r="Z626" s="1"/>
     </row>
-    <row r="627" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A627" s="5"/>
       <c r="B627" s="5"/>
       <c r="C627" s="5"/>
@@ -19563,7 +19563,7 @@
       <c r="Y627" s="1"/>
       <c r="Z627" s="1"/>
     </row>
-    <row r="628" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A628" s="5"/>
       <c r="B628" s="5"/>
       <c r="C628" s="5"/>
@@ -19591,7 +19591,7 @@
       <c r="Y628" s="1"/>
       <c r="Z628" s="1"/>
     </row>
-    <row r="629" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A629" s="5"/>
       <c r="B629" s="5"/>
       <c r="C629" s="5"/>
@@ -19619,7 +19619,7 @@
       <c r="Y629" s="1"/>
       <c r="Z629" s="1"/>
     </row>
-    <row r="630" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A630" s="5"/>
       <c r="B630" s="5"/>
       <c r="C630" s="5"/>
@@ -19647,7 +19647,7 @@
       <c r="Y630" s="1"/>
       <c r="Z630" s="1"/>
     </row>
-    <row r="631" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A631" s="5"/>
       <c r="B631" s="5"/>
       <c r="C631" s="5"/>
@@ -19675,7 +19675,7 @@
       <c r="Y631" s="1"/>
       <c r="Z631" s="1"/>
     </row>
-    <row r="632" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A632" s="5"/>
       <c r="B632" s="5"/>
       <c r="C632" s="5"/>
@@ -19703,7 +19703,7 @@
       <c r="Y632" s="1"/>
       <c r="Z632" s="1"/>
     </row>
-    <row r="633" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A633" s="5"/>
       <c r="B633" s="5"/>
       <c r="C633" s="5"/>
@@ -19731,7 +19731,7 @@
       <c r="Y633" s="1"/>
       <c r="Z633" s="1"/>
     </row>
-    <row r="634" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A634" s="5"/>
       <c r="B634" s="5"/>
       <c r="C634" s="5"/>
@@ -19759,7 +19759,7 @@
       <c r="Y634" s="1"/>
       <c r="Z634" s="1"/>
     </row>
-    <row r="635" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A635" s="5"/>
       <c r="B635" s="5"/>
       <c r="C635" s="5"/>
@@ -19787,7 +19787,7 @@
       <c r="Y635" s="1"/>
       <c r="Z635" s="1"/>
     </row>
-    <row r="636" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A636" s="5"/>
       <c r="B636" s="5"/>
       <c r="C636" s="5"/>
@@ -19815,7 +19815,7 @@
       <c r="Y636" s="1"/>
       <c r="Z636" s="1"/>
     </row>
-    <row r="637" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A637" s="5"/>
       <c r="B637" s="5"/>
       <c r="C637" s="5"/>
@@ -19843,7 +19843,7 @@
       <c r="Y637" s="1"/>
       <c r="Z637" s="1"/>
     </row>
-    <row r="638" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A638" s="5"/>
       <c r="B638" s="5"/>
       <c r="C638" s="5"/>
@@ -19871,7 +19871,7 @@
       <c r="Y638" s="1"/>
       <c r="Z638" s="1"/>
     </row>
-    <row r="639" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A639" s="5"/>
       <c r="B639" s="5"/>
       <c r="C639" s="5"/>
@@ -19899,7 +19899,7 @@
       <c r="Y639" s="1"/>
       <c r="Z639" s="1"/>
     </row>
-    <row r="640" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A640" s="5"/>
       <c r="B640" s="5"/>
       <c r="C640" s="5"/>
@@ -19927,7 +19927,7 @@
       <c r="Y640" s="1"/>
       <c r="Z640" s="1"/>
     </row>
-    <row r="641" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A641" s="5"/>
       <c r="B641" s="5"/>
       <c r="C641" s="5"/>
@@ -19955,7 +19955,7 @@
       <c r="Y641" s="1"/>
       <c r="Z641" s="1"/>
     </row>
-    <row r="642" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A642" s="5"/>
       <c r="B642" s="5"/>
       <c r="C642" s="5"/>
@@ -19983,7 +19983,7 @@
       <c r="Y642" s="1"/>
       <c r="Z642" s="1"/>
     </row>
-    <row r="643" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A643" s="5"/>
       <c r="B643" s="5"/>
       <c r="C643" s="5"/>
@@ -20011,7 +20011,7 @@
       <c r="Y643" s="1"/>
       <c r="Z643" s="1"/>
     </row>
-    <row r="644" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A644" s="5"/>
       <c r="B644" s="5"/>
       <c r="C644" s="5"/>
@@ -20039,7 +20039,7 @@
       <c r="Y644" s="1"/>
       <c r="Z644" s="1"/>
     </row>
-    <row r="645" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A645" s="5"/>
       <c r="B645" s="5"/>
       <c r="C645" s="5"/>
@@ -20067,7 +20067,7 @@
       <c r="Y645" s="1"/>
       <c r="Z645" s="1"/>
     </row>
-    <row r="646" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A646" s="5"/>
       <c r="B646" s="5"/>
       <c r="C646" s="5"/>
@@ -20095,7 +20095,7 @@
       <c r="Y646" s="1"/>
       <c r="Z646" s="1"/>
     </row>
-    <row r="647" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A647" s="5"/>
       <c r="B647" s="5"/>
       <c r="C647" s="5"/>
@@ -20123,7 +20123,7 @@
       <c r="Y647" s="1"/>
       <c r="Z647" s="1"/>
     </row>
-    <row r="648" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A648" s="5"/>
       <c r="B648" s="5"/>
       <c r="C648" s="5"/>
@@ -20151,7 +20151,7 @@
       <c r="Y648" s="1"/>
       <c r="Z648" s="1"/>
     </row>
-    <row r="649" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A649" s="5"/>
       <c r="B649" s="5"/>
       <c r="C649" s="5"/>
@@ -20179,7 +20179,7 @@
       <c r="Y649" s="1"/>
       <c r="Z649" s="1"/>
     </row>
-    <row r="650" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A650" s="5"/>
       <c r="B650" s="5"/>
       <c r="C650" s="5"/>
@@ -20207,7 +20207,7 @@
       <c r="Y650" s="1"/>
       <c r="Z650" s="1"/>
     </row>
-    <row r="651" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A651" s="5"/>
       <c r="B651" s="5"/>
       <c r="C651" s="5"/>
@@ -20235,7 +20235,7 @@
       <c r="Y651" s="1"/>
       <c r="Z651" s="1"/>
     </row>
-    <row r="652" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A652" s="5"/>
       <c r="B652" s="5"/>
       <c r="C652" s="5"/>
@@ -20263,7 +20263,7 @@
       <c r="Y652" s="1"/>
       <c r="Z652" s="1"/>
     </row>
-    <row r="653" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A653" s="5"/>
       <c r="B653" s="5"/>
       <c r="C653" s="5"/>
@@ -20291,7 +20291,7 @@
       <c r="Y653" s="1"/>
       <c r="Z653" s="1"/>
     </row>
-    <row r="654" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A654" s="5"/>
       <c r="B654" s="5"/>
       <c r="C654" s="5"/>
@@ -20319,7 +20319,7 @@
       <c r="Y654" s="1"/>
       <c r="Z654" s="1"/>
     </row>
-    <row r="655" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A655" s="5"/>
       <c r="B655" s="5"/>
       <c r="C655" s="5"/>
@@ -20347,7 +20347,7 @@
       <c r="Y655" s="1"/>
       <c r="Z655" s="1"/>
     </row>
-    <row r="656" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A656" s="5"/>
       <c r="B656" s="5"/>
       <c r="C656" s="5"/>
@@ -20375,7 +20375,7 @@
       <c r="Y656" s="1"/>
       <c r="Z656" s="1"/>
     </row>
-    <row r="657" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A657" s="5"/>
       <c r="B657" s="5"/>
       <c r="C657" s="5"/>
@@ -20403,7 +20403,7 @@
       <c r="Y657" s="1"/>
       <c r="Z657" s="1"/>
     </row>
-    <row r="658" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A658" s="5"/>
       <c r="B658" s="5"/>
       <c r="C658" s="5"/>
@@ -20431,7 +20431,7 @@
       <c r="Y658" s="1"/>
       <c r="Z658" s="1"/>
     </row>
-    <row r="659" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A659" s="5"/>
       <c r="B659" s="5"/>
       <c r="C659" s="5"/>
@@ -20459,7 +20459,7 @@
       <c r="Y659" s="1"/>
       <c r="Z659" s="1"/>
     </row>
-    <row r="660" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A660" s="5"/>
       <c r="B660" s="5"/>
       <c r="C660" s="5"/>
@@ -20487,7 +20487,7 @@
       <c r="Y660" s="1"/>
       <c r="Z660" s="1"/>
     </row>
-    <row r="661" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A661" s="5"/>
       <c r="B661" s="5"/>
       <c r="C661" s="5"/>
@@ -20515,7 +20515,7 @@
       <c r="Y661" s="1"/>
       <c r="Z661" s="1"/>
     </row>
-    <row r="662" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A662" s="5"/>
       <c r="B662" s="5"/>
       <c r="C662" s="5"/>
@@ -20543,7 +20543,7 @@
       <c r="Y662" s="1"/>
       <c r="Z662" s="1"/>
     </row>
-    <row r="663" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A663" s="5"/>
       <c r="B663" s="5"/>
       <c r="C663" s="5"/>
@@ -20571,7 +20571,7 @@
       <c r="Y663" s="1"/>
       <c r="Z663" s="1"/>
     </row>
-    <row r="664" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A664" s="5"/>
       <c r="B664" s="5"/>
       <c r="C664" s="5"/>
@@ -20599,7 +20599,7 @@
       <c r="Y664" s="1"/>
       <c r="Z664" s="1"/>
     </row>
-    <row r="665" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A665" s="5"/>
       <c r="B665" s="5"/>
       <c r="C665" s="5"/>
@@ -20627,7 +20627,7 @@
       <c r="Y665" s="1"/>
       <c r="Z665" s="1"/>
     </row>
-    <row r="666" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A666" s="5"/>
       <c r="B666" s="5"/>
       <c r="C666" s="5"/>
@@ -20655,7 +20655,7 @@
       <c r="Y666" s="1"/>
       <c r="Z666" s="1"/>
     </row>
-    <row r="667" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A667" s="5"/>
       <c r="B667" s="5"/>
       <c r="C667" s="5"/>
@@ -20683,7 +20683,7 @@
       <c r="Y667" s="1"/>
       <c r="Z667" s="1"/>
     </row>
-    <row r="668" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A668" s="5"/>
       <c r="B668" s="5"/>
       <c r="C668" s="5"/>
@@ -20711,7 +20711,7 @@
       <c r="Y668" s="1"/>
       <c r="Z668" s="1"/>
     </row>
-    <row r="669" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A669" s="5"/>
       <c r="B669" s="5"/>
       <c r="C669" s="5"/>
@@ -20739,7 +20739,7 @@
       <c r="Y669" s="1"/>
       <c r="Z669" s="1"/>
     </row>
-    <row r="670" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A670" s="5"/>
       <c r="B670" s="5"/>
       <c r="C670" s="5"/>
@@ -20767,7 +20767,7 @@
       <c r="Y670" s="1"/>
       <c r="Z670" s="1"/>
     </row>
-    <row r="671" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A671" s="5"/>
       <c r="B671" s="5"/>
       <c r="C671" s="5"/>
@@ -20795,7 +20795,7 @@
       <c r="Y671" s="1"/>
       <c r="Z671" s="1"/>
     </row>
-    <row r="672" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A672" s="5"/>
       <c r="B672" s="5"/>
       <c r="C672" s="5"/>
@@ -20823,7 +20823,7 @@
       <c r="Y672" s="1"/>
       <c r="Z672" s="1"/>
     </row>
-    <row r="673" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A673" s="5"/>
       <c r="B673" s="5"/>
       <c r="C673" s="5"/>
@@ -20851,7 +20851,7 @@
       <c r="Y673" s="1"/>
       <c r="Z673" s="1"/>
     </row>
-    <row r="674" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A674" s="5"/>
       <c r="B674" s="5"/>
       <c r="C674" s="5"/>
@@ -20879,7 +20879,7 @@
       <c r="Y674" s="1"/>
       <c r="Z674" s="1"/>
     </row>
-    <row r="675" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A675" s="5"/>
       <c r="B675" s="5"/>
       <c r="C675" s="5"/>
@@ -20907,7 +20907,7 @@
       <c r="Y675" s="1"/>
       <c r="Z675" s="1"/>
     </row>
-    <row r="676" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A676" s="5"/>
       <c r="B676" s="5"/>
       <c r="C676" s="5"/>
@@ -20935,7 +20935,7 @@
       <c r="Y676" s="1"/>
       <c r="Z676" s="1"/>
     </row>
-    <row r="677" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A677" s="5"/>
       <c r="B677" s="5"/>
       <c r="C677" s="5"/>
@@ -20963,7 +20963,7 @@
       <c r="Y677" s="1"/>
       <c r="Z677" s="1"/>
     </row>
-    <row r="678" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A678" s="5"/>
       <c r="B678" s="5"/>
       <c r="C678" s="5"/>
@@ -20991,7 +20991,7 @@
       <c r="Y678" s="1"/>
       <c r="Z678" s="1"/>
     </row>
-    <row r="679" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A679" s="5"/>
       <c r="B679" s="5"/>
       <c r="C679" s="5"/>
@@ -21019,7 +21019,7 @@
       <c r="Y679" s="1"/>
       <c r="Z679" s="1"/>
     </row>
-    <row r="680" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A680" s="5"/>
       <c r="B680" s="5"/>
       <c r="C680" s="5"/>
@@ -21047,7 +21047,7 @@
       <c r="Y680" s="1"/>
       <c r="Z680" s="1"/>
     </row>
-    <row r="681" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A681" s="5"/>
       <c r="B681" s="5"/>
       <c r="C681" s="5"/>
@@ -21075,7 +21075,7 @@
       <c r="Y681" s="1"/>
       <c r="Z681" s="1"/>
     </row>
-    <row r="682" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A682" s="5"/>
       <c r="B682" s="5"/>
       <c r="C682" s="5"/>
@@ -21103,7 +21103,7 @@
       <c r="Y682" s="1"/>
       <c r="Z682" s="1"/>
     </row>
-    <row r="683" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A683" s="5"/>
       <c r="B683" s="5"/>
       <c r="C683" s="5"/>
@@ -21131,7 +21131,7 @@
       <c r="Y683" s="1"/>
       <c r="Z683" s="1"/>
     </row>
-    <row r="684" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A684" s="5"/>
       <c r="B684" s="5"/>
       <c r="C684" s="5"/>
@@ -21159,7 +21159,7 @@
       <c r="Y684" s="1"/>
       <c r="Z684" s="1"/>
     </row>
-    <row r="685" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A685" s="5"/>
       <c r="B685" s="5"/>
       <c r="C685" s="5"/>
@@ -21187,7 +21187,7 @@
       <c r="Y685" s="1"/>
       <c r="Z685" s="1"/>
     </row>
-    <row r="686" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A686" s="5"/>
       <c r="B686" s="5"/>
       <c r="C686" s="5"/>
@@ -21215,7 +21215,7 @@
       <c r="Y686" s="1"/>
       <c r="Z686" s="1"/>
     </row>
-    <row r="687" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A687" s="5"/>
       <c r="B687" s="5"/>
       <c r="C687" s="5"/>
@@ -21243,7 +21243,7 @@
       <c r="Y687" s="1"/>
       <c r="Z687" s="1"/>
     </row>
-    <row r="688" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A688" s="5"/>
       <c r="B688" s="5"/>
       <c r="C688" s="5"/>
@@ -21271,7 +21271,7 @@
       <c r="Y688" s="1"/>
       <c r="Z688" s="1"/>
     </row>
-    <row r="689" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A689" s="5"/>
       <c r="B689" s="5"/>
       <c r="C689" s="5"/>
@@ -21299,7 +21299,7 @@
       <c r="Y689" s="1"/>
       <c r="Z689" s="1"/>
     </row>
-    <row r="690" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A690" s="5"/>
       <c r="B690" s="5"/>
       <c r="C690" s="5"/>
@@ -21327,7 +21327,7 @@
       <c r="Y690" s="1"/>
       <c r="Z690" s="1"/>
     </row>
-    <row r="691" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A691" s="5"/>
       <c r="B691" s="5"/>
       <c r="C691" s="5"/>
@@ -21355,7 +21355,7 @@
       <c r="Y691" s="1"/>
       <c r="Z691" s="1"/>
     </row>
-    <row r="692" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A692" s="5"/>
       <c r="B692" s="5"/>
       <c r="C692" s="5"/>
@@ -21383,7 +21383,7 @@
       <c r="Y692" s="1"/>
       <c r="Z692" s="1"/>
     </row>
-    <row r="693" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A693" s="5"/>
       <c r="B693" s="5"/>
       <c r="C693" s="5"/>
@@ -21411,7 +21411,7 @@
       <c r="Y693" s="1"/>
       <c r="Z693" s="1"/>
     </row>
-    <row r="694" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A694" s="5"/>
       <c r="B694" s="5"/>
       <c r="C694" s="5"/>
@@ -21439,7 +21439,7 @@
       <c r="Y694" s="1"/>
       <c r="Z694" s="1"/>
     </row>
-    <row r="695" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A695" s="5"/>
       <c r="B695" s="5"/>
       <c r="C695" s="5"/>
@@ -21467,7 +21467,7 @@
       <c r="Y695" s="1"/>
       <c r="Z695" s="1"/>
     </row>
-    <row r="696" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A696" s="5"/>
       <c r="B696" s="5"/>
       <c r="C696" s="5"/>
@@ -21495,7 +21495,7 @@
       <c r="Y696" s="1"/>
       <c r="Z696" s="1"/>
     </row>
-    <row r="697" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A697" s="5"/>
       <c r="B697" s="5"/>
       <c r="C697" s="5"/>
@@ -21523,7 +21523,7 @@
       <c r="Y697" s="1"/>
       <c r="Z697" s="1"/>
     </row>
-    <row r="698" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A698" s="5"/>
       <c r="B698" s="5"/>
       <c r="C698" s="5"/>
@@ -21551,7 +21551,7 @@
       <c r="Y698" s="1"/>
       <c r="Z698" s="1"/>
     </row>
-    <row r="699" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A699" s="5"/>
       <c r="B699" s="5"/>
       <c r="C699" s="5"/>
@@ -21579,7 +21579,7 @@
       <c r="Y699" s="1"/>
       <c r="Z699" s="1"/>
     </row>
-    <row r="700" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A700" s="5"/>
       <c r="B700" s="5"/>
       <c r="C700" s="5"/>
@@ -21607,7 +21607,7 @@
       <c r="Y700" s="1"/>
       <c r="Z700" s="1"/>
     </row>
-    <row r="701" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A701" s="5"/>
       <c r="B701" s="5"/>
       <c r="C701" s="5"/>
@@ -21635,7 +21635,7 @@
       <c r="Y701" s="1"/>
       <c r="Z701" s="1"/>
     </row>
-    <row r="702" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A702" s="5"/>
       <c r="B702" s="5"/>
       <c r="C702" s="5"/>
@@ -21663,7 +21663,7 @@
       <c r="Y702" s="1"/>
       <c r="Z702" s="1"/>
     </row>
-    <row r="703" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A703" s="5"/>
       <c r="B703" s="5"/>
       <c r="C703" s="5"/>
@@ -21691,7 +21691,7 @@
       <c r="Y703" s="1"/>
       <c r="Z703" s="1"/>
     </row>
-    <row r="704" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A704" s="5"/>
       <c r="B704" s="5"/>
       <c r="C704" s="5"/>
@@ -21719,7 +21719,7 @@
       <c r="Y704" s="1"/>
       <c r="Z704" s="1"/>
     </row>
-    <row r="705" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A705" s="5"/>
       <c r="B705" s="5"/>
       <c r="C705" s="5"/>
@@ -21747,7 +21747,7 @@
       <c r="Y705" s="1"/>
       <c r="Z705" s="1"/>
     </row>
-    <row r="706" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A706" s="5"/>
       <c r="B706" s="5"/>
       <c r="C706" s="5"/>
@@ -21775,7 +21775,7 @@
       <c r="Y706" s="1"/>
       <c r="Z706" s="1"/>
     </row>
-    <row r="707" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A707" s="5"/>
       <c r="B707" s="5"/>
       <c r="C707" s="5"/>
@@ -21803,7 +21803,7 @@
       <c r="Y707" s="1"/>
       <c r="Z707" s="1"/>
     </row>
-    <row r="708" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A708" s="5"/>
       <c r="B708" s="5"/>
       <c r="C708" s="5"/>
@@ -21831,7 +21831,7 @@
       <c r="Y708" s="1"/>
       <c r="Z708" s="1"/>
     </row>
-    <row r="709" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A709" s="5"/>
       <c r="B709" s="5"/>
       <c r="C709" s="5"/>
@@ -21859,7 +21859,7 @@
       <c r="Y709" s="1"/>
       <c r="Z709" s="1"/>
     </row>
-    <row r="710" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A710" s="5"/>
       <c r="B710" s="5"/>
       <c r="C710" s="5"/>
@@ -21887,7 +21887,7 @@
       <c r="Y710" s="1"/>
       <c r="Z710" s="1"/>
     </row>
-    <row r="711" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A711" s="5"/>
       <c r="B711" s="5"/>
       <c r="C711" s="5"/>
@@ -21915,7 +21915,7 @@
       <c r="Y711" s="1"/>
       <c r="Z711" s="1"/>
     </row>
-    <row r="712" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A712" s="5"/>
       <c r="B712" s="5"/>
       <c r="C712" s="5"/>
@@ -21943,7 +21943,7 @@
       <c r="Y712" s="1"/>
       <c r="Z712" s="1"/>
     </row>
-    <row r="713" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A713" s="5"/>
       <c r="B713" s="5"/>
       <c r="C713" s="5"/>
@@ -21971,7 +21971,7 @@
       <c r="Y713" s="1"/>
       <c r="Z713" s="1"/>
     </row>
-    <row r="714" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A714" s="5"/>
       <c r="B714" s="5"/>
       <c r="C714" s="5"/>
@@ -21999,7 +21999,7 @@
       <c r="Y714" s="1"/>
       <c r="Z714" s="1"/>
     </row>
-    <row r="715" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A715" s="5"/>
       <c r="B715" s="5"/>
       <c r="C715" s="5"/>
@@ -22027,7 +22027,7 @@
       <c r="Y715" s="1"/>
       <c r="Z715" s="1"/>
     </row>
-    <row r="716" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A716" s="5"/>
       <c r="B716" s="5"/>
       <c r="C716" s="5"/>
@@ -22055,7 +22055,7 @@
       <c r="Y716" s="1"/>
       <c r="Z716" s="1"/>
     </row>
-    <row r="717" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A717" s="5"/>
       <c r="B717" s="5"/>
       <c r="C717" s="5"/>
@@ -22083,7 +22083,7 @@
       <c r="Y717" s="1"/>
       <c r="Z717" s="1"/>
     </row>
-    <row r="718" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A718" s="5"/>
       <c r="B718" s="5"/>
       <c r="C718" s="5"/>
@@ -22111,7 +22111,7 @@
       <c r="Y718" s="1"/>
       <c r="Z718" s="1"/>
     </row>
-    <row r="719" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A719" s="5"/>
       <c r="B719" s="5"/>
       <c r="C719" s="5"/>
@@ -22139,7 +22139,7 @@
       <c r="Y719" s="1"/>
       <c r="Z719" s="1"/>
     </row>
-    <row r="720" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A720" s="5"/>
       <c r="B720" s="5"/>
       <c r="C720" s="5"/>
@@ -22167,7 +22167,7 @@
       <c r="Y720" s="1"/>
       <c r="Z720" s="1"/>
     </row>
-    <row r="721" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A721" s="5"/>
       <c r="B721" s="5"/>
       <c r="C721" s="5"/>
@@ -22195,7 +22195,7 @@
       <c r="Y721" s="1"/>
       <c r="Z721" s="1"/>
     </row>
-    <row r="722" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A722" s="5"/>
       <c r="B722" s="5"/>
       <c r="C722" s="5"/>
@@ -22223,7 +22223,7 @@
       <c r="Y722" s="1"/>
       <c r="Z722" s="1"/>
     </row>
-    <row r="723" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A723" s="5"/>
       <c r="B723" s="5"/>
       <c r="C723" s="5"/>
@@ -22251,7 +22251,7 @@
       <c r="Y723" s="1"/>
       <c r="Z723" s="1"/>
     </row>
-    <row r="724" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A724" s="5"/>
       <c r="B724" s="5"/>
       <c r="C724" s="5"/>
@@ -22279,7 +22279,7 @@
       <c r="Y724" s="1"/>
       <c r="Z724" s="1"/>
     </row>
-    <row r="725" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A725" s="5"/>
       <c r="B725" s="5"/>
       <c r="C725" s="5"/>
@@ -22307,7 +22307,7 @@
       <c r="Y725" s="1"/>
       <c r="Z725" s="1"/>
     </row>
-    <row r="726" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A726" s="5"/>
       <c r="B726" s="5"/>
       <c r="C726" s="5"/>
@@ -22335,7 +22335,7 @@
       <c r="Y726" s="1"/>
       <c r="Z726" s="1"/>
     </row>
-    <row r="727" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A727" s="5"/>
       <c r="B727" s="5"/>
       <c r="C727" s="5"/>
@@ -22363,7 +22363,7 @@
       <c r="Y727" s="1"/>
       <c r="Z727" s="1"/>
     </row>
-    <row r="728" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A728" s="5"/>
       <c r="B728" s="5"/>
       <c r="C728" s="5"/>
@@ -22391,7 +22391,7 @@
       <c r="Y728" s="1"/>
       <c r="Z728" s="1"/>
     </row>
-    <row r="729" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A729" s="5"/>
       <c r="B729" s="5"/>
       <c r="C729" s="5"/>
@@ -22419,7 +22419,7 @@
       <c r="Y729" s="1"/>
       <c r="Z729" s="1"/>
     </row>
-    <row r="730" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A730" s="5"/>
       <c r="B730" s="5"/>
       <c r="C730" s="5"/>
@@ -22447,7 +22447,7 @@
       <c r="Y730" s="1"/>
       <c r="Z730" s="1"/>
     </row>
-    <row r="731" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A731" s="5"/>
       <c r="B731" s="5"/>
       <c r="C731" s="5"/>
@@ -22475,7 +22475,7 @@
       <c r="Y731" s="1"/>
       <c r="Z731" s="1"/>
     </row>
-    <row r="732" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A732" s="5"/>
       <c r="B732" s="5"/>
       <c r="C732" s="5"/>
@@ -22503,7 +22503,7 @@
       <c r="Y732" s="1"/>
       <c r="Z732" s="1"/>
     </row>
-    <row r="733" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A733" s="5"/>
       <c r="B733" s="5"/>
       <c r="C733" s="5"/>
@@ -22531,7 +22531,7 @@
       <c r="Y733" s="1"/>
       <c r="Z733" s="1"/>
     </row>
-    <row r="734" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A734" s="5"/>
       <c r="B734" s="5"/>
       <c r="C734" s="5"/>
@@ -22559,7 +22559,7 @@
       <c r="Y734" s="1"/>
       <c r="Z734" s="1"/>
     </row>
-    <row r="735" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A735" s="5"/>
       <c r="B735" s="5"/>
       <c r="C735" s="5"/>
@@ -22587,7 +22587,7 @@
       <c r="Y735" s="1"/>
       <c r="Z735" s="1"/>
     </row>
-    <row r="736" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A736" s="5"/>
       <c r="B736" s="5"/>
       <c r="C736" s="5"/>
@@ -22615,7 +22615,7 @@
       <c r="Y736" s="1"/>
       <c r="Z736" s="1"/>
     </row>
-    <row r="737" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A737" s="5"/>
       <c r="B737" s="5"/>
       <c r="C737" s="5"/>
@@ -22643,7 +22643,7 @@
       <c r="Y737" s="1"/>
       <c r="Z737" s="1"/>
     </row>
-    <row r="738" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A738" s="5"/>
       <c r="B738" s="5"/>
       <c r="C738" s="5"/>
@@ -22671,7 +22671,7 @@
       <c r="Y738" s="1"/>
       <c r="Z738" s="1"/>
     </row>
-    <row r="739" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A739" s="5"/>
       <c r="B739" s="5"/>
       <c r="C739" s="5"/>
@@ -22699,7 +22699,7 @@
       <c r="Y739" s="1"/>
       <c r="Z739" s="1"/>
     </row>
-    <row r="740" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A740" s="5"/>
       <c r="B740" s="5"/>
       <c r="C740" s="5"/>
@@ -22727,7 +22727,7 @@
       <c r="Y740" s="1"/>
       <c r="Z740" s="1"/>
     </row>
-    <row r="741" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A741" s="5"/>
       <c r="B741" s="5"/>
       <c r="C741" s="5"/>
@@ -22755,7 +22755,7 @@
       <c r="Y741" s="1"/>
       <c r="Z741" s="1"/>
     </row>
-    <row r="742" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A742" s="5"/>
       <c r="B742" s="5"/>
       <c r="C742" s="5"/>
@@ -22783,7 +22783,7 @@
       <c r="Y742" s="1"/>
       <c r="Z742" s="1"/>
     </row>
-    <row r="743" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A743" s="5"/>
       <c r="B743" s="5"/>
       <c r="C743" s="5"/>
@@ -22811,7 +22811,7 @@
       <c r="Y743" s="1"/>
       <c r="Z743" s="1"/>
     </row>
-    <row r="744" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A744" s="5"/>
       <c r="B744" s="5"/>
       <c r="C744" s="5"/>
@@ -22839,7 +22839,7 @@
       <c r="Y744" s="1"/>
       <c r="Z744" s="1"/>
     </row>
-    <row r="745" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A745" s="5"/>
       <c r="B745" s="5"/>
       <c r="C745" s="5"/>
@@ -22867,7 +22867,7 @@
       <c r="Y745" s="1"/>
       <c r="Z745" s="1"/>
     </row>
-    <row r="746" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A746" s="5"/>
       <c r="B746" s="5"/>
       <c r="C746" s="5"/>
@@ -22895,7 +22895,7 @@
       <c r="Y746" s="1"/>
       <c r="Z746" s="1"/>
     </row>
-    <row r="747" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A747" s="5"/>
       <c r="B747" s="5"/>
       <c r="C747" s="5"/>
@@ -22923,7 +22923,7 @@
       <c r="Y747" s="1"/>
       <c r="Z747" s="1"/>
     </row>
-    <row r="748" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A748" s="5"/>
       <c r="B748" s="5"/>
       <c r="C748" s="5"/>
@@ -22951,7 +22951,7 @@
       <c r="Y748" s="1"/>
       <c r="Z748" s="1"/>
     </row>
-    <row r="749" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A749" s="5"/>
       <c r="B749" s="5"/>
       <c r="C749" s="5"/>
@@ -22979,7 +22979,7 @@
       <c r="Y749" s="1"/>
       <c r="Z749" s="1"/>
     </row>
-    <row r="750" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A750" s="5"/>
       <c r="B750" s="5"/>
       <c r="C750" s="5"/>
@@ -23007,7 +23007,7 @@
       <c r="Y750" s="1"/>
       <c r="Z750" s="1"/>
     </row>
-    <row r="751" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A751" s="5"/>
       <c r="B751" s="5"/>
       <c r="C751" s="5"/>
@@ -23035,7 +23035,7 @@
       <c r="Y751" s="1"/>
       <c r="Z751" s="1"/>
     </row>
-    <row r="752" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A752" s="5"/>
       <c r="B752" s="5"/>
       <c r="C752" s="5"/>
@@ -23063,7 +23063,7 @@
       <c r="Y752" s="1"/>
       <c r="Z752" s="1"/>
     </row>
-    <row r="753" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A753" s="5"/>
       <c r="B753" s="5"/>
       <c r="C753" s="5"/>
@@ -23091,7 +23091,7 @@
       <c r="Y753" s="1"/>
       <c r="Z753" s="1"/>
     </row>
-    <row r="754" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A754" s="5"/>
       <c r="B754" s="5"/>
       <c r="C754" s="5"/>
@@ -23119,7 +23119,7 @@
       <c r="Y754" s="1"/>
       <c r="Z754" s="1"/>
     </row>
-    <row r="755" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A755" s="5"/>
       <c r="B755" s="5"/>
       <c r="C755" s="5"/>
@@ -23147,7 +23147,7 @@
       <c r="Y755" s="1"/>
       <c r="Z755" s="1"/>
     </row>
-    <row r="756" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A756" s="5"/>
       <c r="B756" s="5"/>
       <c r="C756" s="5"/>
@@ -23175,7 +23175,7 @@
       <c r="Y756" s="1"/>
       <c r="Z756" s="1"/>
     </row>
-    <row r="757" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A757" s="5"/>
       <c r="B757" s="5"/>
       <c r="C757" s="5"/>
@@ -23203,7 +23203,7 @@
       <c r="Y757" s="1"/>
       <c r="Z757" s="1"/>
     </row>
-    <row r="758" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A758" s="5"/>
       <c r="B758" s="5"/>
       <c r="C758" s="5"/>
@@ -23231,7 +23231,7 @@
       <c r="Y758" s="1"/>
       <c r="Z758" s="1"/>
     </row>
-    <row r="759" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A759" s="5"/>
       <c r="B759" s="5"/>
       <c r="C759" s="5"/>
@@ -23259,7 +23259,7 @@
       <c r="Y759" s="1"/>
       <c r="Z759" s="1"/>
     </row>
-    <row r="760" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A760" s="5"/>
       <c r="B760" s="5"/>
       <c r="C760" s="5"/>
@@ -23287,7 +23287,7 @@
       <c r="Y760" s="1"/>
       <c r="Z760" s="1"/>
     </row>
-    <row r="761" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A761" s="5"/>
       <c r="B761" s="5"/>
       <c r="C761" s="5"/>
@@ -23315,7 +23315,7 @@
       <c r="Y761" s="1"/>
       <c r="Z761" s="1"/>
     </row>
-    <row r="762" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A762" s="5"/>
       <c r="B762" s="5"/>
       <c r="C762" s="5"/>
@@ -23343,7 +23343,7 @@
       <c r="Y762" s="1"/>
       <c r="Z762" s="1"/>
     </row>
-    <row r="763" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A763" s="5"/>
       <c r="B763" s="5"/>
       <c r="C763" s="5"/>
@@ -23371,7 +23371,7 @@
       <c r="Y763" s="1"/>
       <c r="Z763" s="1"/>
     </row>
-    <row r="764" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="764" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A764" s="5"/>
       <c r="B764" s="5"/>
       <c r="C764" s="5"/>
@@ -23399,7 +23399,7 @@
       <c r="Y764" s="1"/>
       <c r="Z764" s="1"/>
     </row>
-    <row r="765" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="765" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A765" s="5"/>
       <c r="B765" s="5"/>
       <c r="C765" s="5"/>
@@ -23427,7 +23427,7 @@
       <c r="Y765" s="1"/>
       <c r="Z765" s="1"/>
     </row>
-    <row r="766" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="766" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A766" s="5"/>
       <c r="B766" s="5"/>
       <c r="C766" s="5"/>
@@ -23455,7 +23455,7 @@
       <c r="Y766" s="1"/>
       <c r="Z766" s="1"/>
     </row>
-    <row r="767" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A767" s="5"/>
       <c r="B767" s="5"/>
       <c r="C767" s="5"/>
@@ -23483,7 +23483,7 @@
       <c r="Y767" s="1"/>
       <c r="Z767" s="1"/>
     </row>
-    <row r="768" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A768" s="5"/>
       <c r="B768" s="5"/>
       <c r="C768" s="5"/>
@@ -23511,7 +23511,7 @@
       <c r="Y768" s="1"/>
       <c r="Z768" s="1"/>
     </row>
-    <row r="769" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A769" s="5"/>
       <c r="B769" s="5"/>
       <c r="C769" s="5"/>
@@ -23539,7 +23539,7 @@
       <c r="Y769" s="1"/>
       <c r="Z769" s="1"/>
     </row>
-    <row r="770" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A770" s="5"/>
       <c r="B770" s="5"/>
       <c r="C770" s="5"/>
@@ -23567,7 +23567,7 @@
       <c r="Y770" s="1"/>
       <c r="Z770" s="1"/>
     </row>
-    <row r="771" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A771" s="5"/>
       <c r="B771" s="5"/>
       <c r="C771" s="5"/>
@@ -23595,7 +23595,7 @@
       <c r="Y771" s="1"/>
       <c r="Z771" s="1"/>
     </row>
-    <row r="772" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A772" s="5"/>
       <c r="B772" s="5"/>
       <c r="C772" s="5"/>
@@ -23623,7 +23623,7 @@
       <c r="Y772" s="1"/>
       <c r="Z772" s="1"/>
     </row>
-    <row r="773" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A773" s="5"/>
       <c r="B773" s="5"/>
       <c r="C773" s="5"/>
@@ -23651,7 +23651,7 @@
       <c r="Y773" s="1"/>
       <c r="Z773" s="1"/>
     </row>
-    <row r="774" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="774" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A774" s="5"/>
       <c r="B774" s="5"/>
       <c r="C774" s="5"/>
@@ -23679,7 +23679,7 @@
       <c r="Y774" s="1"/>
       <c r="Z774" s="1"/>
     </row>
-    <row r="775" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A775" s="5"/>
       <c r="B775" s="5"/>
       <c r="C775" s="5"/>
@@ -23707,7 +23707,7 @@
       <c r="Y775" s="1"/>
       <c r="Z775" s="1"/>
     </row>
-    <row r="776" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A776" s="5"/>
       <c r="B776" s="5"/>
       <c r="C776" s="5"/>
@@ -23735,7 +23735,7 @@
       <c r="Y776" s="1"/>
       <c r="Z776" s="1"/>
     </row>
-    <row r="777" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="777" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A777" s="5"/>
       <c r="B777" s="5"/>
       <c r="C777" s="5"/>
@@ -23763,7 +23763,7 @@
       <c r="Y777" s="1"/>
       <c r="Z777" s="1"/>
     </row>
-    <row r="778" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A778" s="5"/>
       <c r="B778" s="5"/>
       <c r="C778" s="5"/>
@@ -23791,7 +23791,7 @@
       <c r="Y778" s="1"/>
       <c r="Z778" s="1"/>
     </row>
-    <row r="779" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A779" s="5"/>
       <c r="B779" s="5"/>
       <c r="C779" s="5"/>
@@ -23819,7 +23819,7 @@
       <c r="Y779" s="1"/>
       <c r="Z779" s="1"/>
     </row>
-    <row r="780" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A780" s="5"/>
       <c r="B780" s="5"/>
       <c r="C780" s="5"/>
@@ -23847,7 +23847,7 @@
       <c r="Y780" s="1"/>
       <c r="Z780" s="1"/>
     </row>
-    <row r="781" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A781" s="5"/>
       <c r="B781" s="5"/>
       <c r="C781" s="5"/>
@@ -23875,7 +23875,7 @@
       <c r="Y781" s="1"/>
       <c r="Z781" s="1"/>
     </row>
-    <row r="782" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="782" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A782" s="5"/>
       <c r="B782" s="5"/>
       <c r="C782" s="5"/>
@@ -23903,7 +23903,7 @@
       <c r="Y782" s="1"/>
       <c r="Z782" s="1"/>
     </row>
-    <row r="783" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A783" s="5"/>
       <c r="B783" s="5"/>
       <c r="C783" s="5"/>
@@ -23931,7 +23931,7 @@
       <c r="Y783" s="1"/>
       <c r="Z783" s="1"/>
     </row>
-    <row r="784" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A784" s="5"/>
       <c r="B784" s="5"/>
       <c r="C784" s="5"/>
@@ -23959,7 +23959,7 @@
       <c r="Y784" s="1"/>
       <c r="Z784" s="1"/>
     </row>
-    <row r="785" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="785" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A785" s="5"/>
       <c r="B785" s="5"/>
       <c r="C785" s="5"/>
@@ -23987,7 +23987,7 @@
       <c r="Y785" s="1"/>
       <c r="Z785" s="1"/>
     </row>
-    <row r="786" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="786" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A786" s="5"/>
       <c r="B786" s="5"/>
       <c r="C786" s="5"/>
@@ -24015,7 +24015,7 @@
       <c r="Y786" s="1"/>
       <c r="Z786" s="1"/>
     </row>
-    <row r="787" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="787" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A787" s="5"/>
       <c r="B787" s="5"/>
       <c r="C787" s="5"/>
@@ -24043,7 +24043,7 @@
       <c r="Y787" s="1"/>
       <c r="Z787" s="1"/>
     </row>
-    <row r="788" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="788" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A788" s="5"/>
       <c r="B788" s="5"/>
       <c r="C788" s="5"/>
@@ -24071,7 +24071,7 @@
       <c r="Y788" s="1"/>
       <c r="Z788" s="1"/>
     </row>
-    <row r="789" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="789" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A789" s="5"/>
       <c r="B789" s="5"/>
       <c r="C789" s="5"/>
@@ -24099,7 +24099,7 @@
       <c r="Y789" s="1"/>
       <c r="Z789" s="1"/>
     </row>
-    <row r="790" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="790" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A790" s="5"/>
       <c r="B790" s="5"/>
       <c r="C790" s="5"/>
@@ -24127,7 +24127,7 @@
       <c r="Y790" s="1"/>
       <c r="Z790" s="1"/>
     </row>
-    <row r="791" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A791" s="5"/>
       <c r="B791" s="5"/>
       <c r="C791" s="5"/>
@@ -24155,7 +24155,7 @@
       <c r="Y791" s="1"/>
       <c r="Z791" s="1"/>
     </row>
-    <row r="792" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="792" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A792" s="5"/>
       <c r="B792" s="5"/>
       <c r="C792" s="5"/>
@@ -24183,7 +24183,7 @@
       <c r="Y792" s="1"/>
       <c r="Z792" s="1"/>
     </row>
-    <row r="793" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="793" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A793" s="5"/>
       <c r="B793" s="5"/>
       <c r="C793" s="5"/>
@@ -24211,7 +24211,7 @@
       <c r="Y793" s="1"/>
       <c r="Z793" s="1"/>
     </row>
-    <row r="794" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="794" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A794" s="5"/>
       <c r="B794" s="5"/>
       <c r="C794" s="5"/>
@@ -24239,7 +24239,7 @@
       <c r="Y794" s="1"/>
       <c r="Z794" s="1"/>
     </row>
-    <row r="795" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="795" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A795" s="5"/>
       <c r="B795" s="5"/>
       <c r="C795" s="5"/>
@@ -24267,7 +24267,7 @@
       <c r="Y795" s="1"/>
       <c r="Z795" s="1"/>
     </row>
-    <row r="796" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="796" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A796" s="5"/>
       <c r="B796" s="5"/>
       <c r="C796" s="5"/>
@@ -24295,7 +24295,7 @@
       <c r="Y796" s="1"/>
       <c r="Z796" s="1"/>
     </row>
-    <row r="797" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="797" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A797" s="5"/>
       <c r="B797" s="5"/>
       <c r="C797" s="5"/>
@@ -24323,7 +24323,7 @@
       <c r="Y797" s="1"/>
       <c r="Z797" s="1"/>
     </row>
-    <row r="798" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="798" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A798" s="5"/>
       <c r="B798" s="5"/>
       <c r="C798" s="5"/>
@@ -24351,7 +24351,7 @@
       <c r="Y798" s="1"/>
       <c r="Z798" s="1"/>
     </row>
-    <row r="799" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="799" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A799" s="5"/>
       <c r="B799" s="5"/>
       <c r="C799" s="5"/>
@@ -24379,7 +24379,7 @@
       <c r="Y799" s="1"/>
       <c r="Z799" s="1"/>
     </row>
-    <row r="800" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="800" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A800" s="5"/>
       <c r="B800" s="5"/>
       <c r="C800" s="5"/>
@@ -24407,7 +24407,7 @@
       <c r="Y800" s="1"/>
       <c r="Z800" s="1"/>
     </row>
-    <row r="801" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="801" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A801" s="5"/>
       <c r="B801" s="5"/>
       <c r="C801" s="5"/>
@@ -24435,7 +24435,7 @@
       <c r="Y801" s="1"/>
       <c r="Z801" s="1"/>
     </row>
-    <row r="802" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="802" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A802" s="5"/>
       <c r="B802" s="5"/>
       <c r="C802" s="5"/>
@@ -24463,7 +24463,7 @@
       <c r="Y802" s="1"/>
       <c r="Z802" s="1"/>
     </row>
-    <row r="803" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="803" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A803" s="5"/>
       <c r="B803" s="5"/>
       <c r="C803" s="5"/>
@@ -24491,7 +24491,7 @@
       <c r="Y803" s="1"/>
       <c r="Z803" s="1"/>
     </row>
-    <row r="804" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="804" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A804" s="5"/>
       <c r="B804" s="5"/>
       <c r="C804" s="5"/>
@@ -24519,7 +24519,7 @@
       <c r="Y804" s="1"/>
       <c r="Z804" s="1"/>
     </row>
-    <row r="805" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="805" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A805" s="5"/>
       <c r="B805" s="5"/>
       <c r="C805" s="5"/>
@@ -24547,7 +24547,7 @@
       <c r="Y805" s="1"/>
       <c r="Z805" s="1"/>
     </row>
-    <row r="806" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="806" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A806" s="5"/>
       <c r="B806" s="5"/>
       <c r="C806" s="5"/>
@@ -24575,7 +24575,7 @@
       <c r="Y806" s="1"/>
       <c r="Z806" s="1"/>
     </row>
-    <row r="807" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="807" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A807" s="5"/>
       <c r="B807" s="5"/>
       <c r="C807" s="5"/>
@@ -24603,7 +24603,7 @@
       <c r="Y807" s="1"/>
       <c r="Z807" s="1"/>
     </row>
-    <row r="808" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="808" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A808" s="5"/>
       <c r="B808" s="5"/>
       <c r="C808" s="5"/>
@@ -24631,7 +24631,7 @@
       <c r="Y808" s="1"/>
       <c r="Z808" s="1"/>
     </row>
-    <row r="809" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="809" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A809" s="5"/>
       <c r="B809" s="5"/>
       <c r="C809" s="5"/>
@@ -24659,7 +24659,7 @@
       <c r="Y809" s="1"/>
       <c r="Z809" s="1"/>
     </row>
-    <row r="810" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="810" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A810" s="5"/>
       <c r="B810" s="5"/>
       <c r="C810" s="5"/>
@@ -24687,7 +24687,7 @@
       <c r="Y810" s="1"/>
       <c r="Z810" s="1"/>
     </row>
-    <row r="811" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="811" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A811" s="5"/>
       <c r="B811" s="5"/>
       <c r="C811" s="5"/>
@@ -24715,7 +24715,7 @@
       <c r="Y811" s="1"/>
       <c r="Z811" s="1"/>
     </row>
-    <row r="812" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="812" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A812" s="5"/>
       <c r="B812" s="5"/>
       <c r="C812" s="5"/>
@@ -24743,7 +24743,7 @@
       <c r="Y812" s="1"/>
       <c r="Z812" s="1"/>
     </row>
-    <row r="813" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="813" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A813" s="5"/>
       <c r="B813" s="5"/>
       <c r="C813" s="5"/>
@@ -24771,7 +24771,7 @@
       <c r="Y813" s="1"/>
       <c r="Z813" s="1"/>
     </row>
-    <row r="814" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="814" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A814" s="5"/>
       <c r="B814" s="5"/>
       <c r="C814" s="5"/>
@@ -24799,7 +24799,7 @@
       <c r="Y814" s="1"/>
       <c r="Z814" s="1"/>
     </row>
-    <row r="815" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="815" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A815" s="5"/>
       <c r="B815" s="5"/>
       <c r="C815" s="5"/>
@@ -24827,7 +24827,7 @@
       <c r="Y815" s="1"/>
       <c r="Z815" s="1"/>
     </row>
-    <row r="816" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="816" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A816" s="5"/>
       <c r="B816" s="5"/>
       <c r="C816" s="5"/>
@@ -24855,7 +24855,7 @@
       <c r="Y816" s="1"/>
       <c r="Z816" s="1"/>
     </row>
-    <row r="817" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="817" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A817" s="5"/>
       <c r="B817" s="5"/>
       <c r="C817" s="5"/>
@@ -24883,7 +24883,7 @@
       <c r="Y817" s="1"/>
       <c r="Z817" s="1"/>
     </row>
-    <row r="818" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="818" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A818" s="5"/>
       <c r="B818" s="5"/>
       <c r="C818" s="5"/>
@@ -24911,7 +24911,7 @@
       <c r="Y818" s="1"/>
       <c r="Z818" s="1"/>
     </row>
-    <row r="819" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="819" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A819" s="5"/>
       <c r="B819" s="5"/>
       <c r="C819" s="5"/>
@@ -24939,7 +24939,7 @@
       <c r="Y819" s="1"/>
       <c r="Z819" s="1"/>
     </row>
-    <row r="820" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="820" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A820" s="5"/>
       <c r="B820" s="5"/>
       <c r="C820" s="5"/>
@@ -24967,7 +24967,7 @@
       <c r="Y820" s="1"/>
       <c r="Z820" s="1"/>
     </row>
-    <row r="821" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="821" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A821" s="5"/>
       <c r="B821" s="5"/>
       <c r="C821" s="5"/>
@@ -24995,7 +24995,7 @@
       <c r="Y821" s="1"/>
       <c r="Z821" s="1"/>
     </row>
-    <row r="822" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="822" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A822" s="5"/>
       <c r="B822" s="5"/>
       <c r="C822" s="5"/>
@@ -25023,7 +25023,7 @@
       <c r="Y822" s="1"/>
       <c r="Z822" s="1"/>
     </row>
-    <row r="823" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="823" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A823" s="5"/>
       <c r="B823" s="5"/>
       <c r="C823" s="5"/>
@@ -25051,7 +25051,7 @@
       <c r="Y823" s="1"/>
       <c r="Z823" s="1"/>
     </row>
-    <row r="824" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="824" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A824" s="5"/>
       <c r="B824" s="5"/>
       <c r="C824" s="5"/>
@@ -25079,7 +25079,7 @@
       <c r="Y824" s="1"/>
       <c r="Z824" s="1"/>
     </row>
-    <row r="825" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="825" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A825" s="5"/>
       <c r="B825" s="5"/>
       <c r="C825" s="5"/>
@@ -25107,7 +25107,7 @@
       <c r="Y825" s="1"/>
       <c r="Z825" s="1"/>
     </row>
-    <row r="826" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="826" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A826" s="5"/>
       <c r="B826" s="5"/>
       <c r="C826" s="5"/>
@@ -25135,7 +25135,7 @@
       <c r="Y826" s="1"/>
       <c r="Z826" s="1"/>
     </row>
-    <row r="827" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="827" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A827" s="5"/>
       <c r="B827" s="5"/>
       <c r="C827" s="5"/>
@@ -25163,7 +25163,7 @@
       <c r="Y827" s="1"/>
       <c r="Z827" s="1"/>
     </row>
-    <row r="828" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="828" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A828" s="5"/>
       <c r="B828" s="5"/>
       <c r="C828" s="5"/>
@@ -25191,7 +25191,7 @@
       <c r="Y828" s="1"/>
       <c r="Z828" s="1"/>
     </row>
-    <row r="829" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="829" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A829" s="5"/>
       <c r="B829" s="5"/>
       <c r="C829" s="5"/>
@@ -25219,7 +25219,7 @@
       <c r="Y829" s="1"/>
       <c r="Z829" s="1"/>
     </row>
-    <row r="830" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="830" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A830" s="5"/>
       <c r="B830" s="5"/>
       <c r="C830" s="5"/>
@@ -25247,7 +25247,7 @@
       <c r="Y830" s="1"/>
       <c r="Z830" s="1"/>
     </row>
-    <row r="831" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="831" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A831" s="5"/>
       <c r="B831" s="5"/>
       <c r="C831" s="5"/>
@@ -25275,7 +25275,7 @@
       <c r="Y831" s="1"/>
       <c r="Z831" s="1"/>
     </row>
-    <row r="832" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="832" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A832" s="5"/>
       <c r="B832" s="5"/>
       <c r="C832" s="5"/>
@@ -25303,7 +25303,7 @@
       <c r="Y832" s="1"/>
       <c r="Z832" s="1"/>
     </row>
-    <row r="833" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="833" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A833" s="5"/>
       <c r="B833" s="5"/>
       <c r="C833" s="5"/>
@@ -25331,7 +25331,7 @@
       <c r="Y833" s="1"/>
       <c r="Z833" s="1"/>
     </row>
-    <row r="834" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="834" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A834" s="5"/>
       <c r="B834" s="5"/>
       <c r="C834" s="5"/>
@@ -25359,7 +25359,7 @@
       <c r="Y834" s="1"/>
       <c r="Z834" s="1"/>
     </row>
-    <row r="835" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="835" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A835" s="5"/>
       <c r="B835" s="5"/>
       <c r="C835" s="5"/>
@@ -25387,7 +25387,7 @@
       <c r="Y835" s="1"/>
       <c r="Z835" s="1"/>
     </row>
-    <row r="836" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="836" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A836" s="5"/>
       <c r="B836" s="5"/>
       <c r="C836" s="5"/>
@@ -25415,7 +25415,7 @@
       <c r="Y836" s="1"/>
       <c r="Z836" s="1"/>
     </row>
-    <row r="837" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="837" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A837" s="5"/>
       <c r="B837" s="5"/>
       <c r="C837" s="5"/>
@@ -25443,7 +25443,7 @@
       <c r="Y837" s="1"/>
       <c r="Z837" s="1"/>
     </row>
-    <row r="838" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="838" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A838" s="5"/>
       <c r="B838" s="5"/>
       <c r="C838" s="5"/>
@@ -25471,7 +25471,7 @@
       <c r="Y838" s="1"/>
       <c r="Z838" s="1"/>
     </row>
-    <row r="839" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="839" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A839" s="5"/>
       <c r="B839" s="5"/>
       <c r="C839" s="5"/>
@@ -25499,7 +25499,7 @@
       <c r="Y839" s="1"/>
       <c r="Z839" s="1"/>
     </row>
-    <row r="840" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="840" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A840" s="5"/>
       <c r="B840" s="5"/>
       <c r="C840" s="5"/>
@@ -25527,7 +25527,7 @@
       <c r="Y840" s="1"/>
       <c r="Z840" s="1"/>
     </row>
-    <row r="841" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="841" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A841" s="5"/>
       <c r="B841" s="5"/>
       <c r="C841" s="5"/>
@@ -25555,7 +25555,7 @@
       <c r="Y841" s="1"/>
       <c r="Z841" s="1"/>
     </row>
-    <row r="842" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="842" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A842" s="5"/>
       <c r="B842" s="5"/>
       <c r="C842" s="5"/>
@@ -25583,7 +25583,7 @@
       <c r="Y842" s="1"/>
       <c r="Z842" s="1"/>
     </row>
-    <row r="843" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="843" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A843" s="5"/>
       <c r="B843" s="5"/>
       <c r="C843" s="5"/>
@@ -25611,7 +25611,7 @@
       <c r="Y843" s="1"/>
       <c r="Z843" s="1"/>
     </row>
-    <row r="844" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="844" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A844" s="5"/>
       <c r="B844" s="5"/>
       <c r="C844" s="5"/>
@@ -25639,7 +25639,7 @@
       <c r="Y844" s="1"/>
       <c r="Z844" s="1"/>
     </row>
-    <row r="845" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="845" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A845" s="5"/>
       <c r="B845" s="5"/>
       <c r="C845" s="5"/>
@@ -25667,7 +25667,7 @@
       <c r="Y845" s="1"/>
       <c r="Z845" s="1"/>
     </row>
-    <row r="846" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="846" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A846" s="5"/>
       <c r="B846" s="5"/>
       <c r="C846" s="5"/>
@@ -25695,7 +25695,7 @@
       <c r="Y846" s="1"/>
       <c r="Z846" s="1"/>
     </row>
-    <row r="847" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="847" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A847" s="5"/>
       <c r="B847" s="5"/>
       <c r="C847" s="5"/>
@@ -25723,7 +25723,7 @@
       <c r="Y847" s="1"/>
       <c r="Z847" s="1"/>
     </row>
-    <row r="848" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="848" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A848" s="5"/>
       <c r="B848" s="5"/>
       <c r="C848" s="5"/>
@@ -25751,7 +25751,7 @@
       <c r="Y848" s="1"/>
       <c r="Z848" s="1"/>
     </row>
-    <row r="849" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="849" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A849" s="5"/>
       <c r="B849" s="5"/>
       <c r="C849" s="5"/>
@@ -25779,7 +25779,7 @@
       <c r="Y849" s="1"/>
       <c r="Z849" s="1"/>
     </row>
-    <row r="850" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="850" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A850" s="5"/>
       <c r="B850" s="5"/>
       <c r="C850" s="5"/>
@@ -25807,7 +25807,7 @@
       <c r="Y850" s="1"/>
       <c r="Z850" s="1"/>
     </row>
-    <row r="851" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="851" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A851" s="5"/>
       <c r="B851" s="5"/>
       <c r="C851" s="5"/>
@@ -25835,7 +25835,7 @@
       <c r="Y851" s="1"/>
       <c r="Z851" s="1"/>
     </row>
-    <row r="852" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="852" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A852" s="5"/>
       <c r="B852" s="5"/>
       <c r="C852" s="5"/>
@@ -25863,7 +25863,7 @@
       <c r="Y852" s="1"/>
       <c r="Z852" s="1"/>
     </row>
-    <row r="853" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="853" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A853" s="5"/>
       <c r="B853" s="5"/>
       <c r="C853" s="5"/>
@@ -25891,7 +25891,7 @@
       <c r="Y853" s="1"/>
       <c r="Z853" s="1"/>
     </row>
-    <row r="854" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="854" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A854" s="5"/>
       <c r="B854" s="5"/>
       <c r="C854" s="5"/>
@@ -25919,7 +25919,7 @@
       <c r="Y854" s="1"/>
       <c r="Z854" s="1"/>
     </row>
-    <row r="855" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="855" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A855" s="5"/>
       <c r="B855" s="5"/>
       <c r="C855" s="5"/>
@@ -25947,7 +25947,7 @@
       <c r="Y855" s="1"/>
       <c r="Z855" s="1"/>
     </row>
-    <row r="856" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="856" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A856" s="5"/>
       <c r="B856" s="5"/>
       <c r="C856" s="5"/>
@@ -25975,7 +25975,7 @@
       <c r="Y856" s="1"/>
       <c r="Z856" s="1"/>
     </row>
-    <row r="857" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="857" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A857" s="5"/>
       <c r="B857" s="5"/>
       <c r="C857" s="5"/>
@@ -26003,7 +26003,7 @@
       <c r="Y857" s="1"/>
       <c r="Z857" s="1"/>
     </row>
-    <row r="858" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="858" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A858" s="5"/>
       <c r="B858" s="5"/>
       <c r="C858" s="5"/>
@@ -26031,7 +26031,7 @@
       <c r="Y858" s="1"/>
       <c r="Z858" s="1"/>
     </row>
-    <row r="859" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="859" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A859" s="5"/>
       <c r="B859" s="5"/>
       <c r="C859" s="5"/>
@@ -26059,7 +26059,7 @@
       <c r="Y859" s="1"/>
       <c r="Z859" s="1"/>
     </row>
-    <row r="860" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="860" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A860" s="5"/>
       <c r="B860" s="5"/>
       <c r="C860" s="5"/>
@@ -26087,7 +26087,7 @@
       <c r="Y860" s="1"/>
       <c r="Z860" s="1"/>
     </row>
-    <row r="861" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="861" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A861" s="5"/>
       <c r="B861" s="5"/>
       <c r="C861" s="5"/>
@@ -26115,7 +26115,7 @@
       <c r="Y861" s="1"/>
       <c r="Z861" s="1"/>
     </row>
-    <row r="862" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="862" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A862" s="5"/>
       <c r="B862" s="5"/>
       <c r="C862" s="5"/>
@@ -26143,7 +26143,7 @@
       <c r="Y862" s="1"/>
       <c r="Z862" s="1"/>
     </row>
-    <row r="863" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="863" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A863" s="5"/>
       <c r="B863" s="5"/>
       <c r="C863" s="5"/>
@@ -26171,7 +26171,7 @@
       <c r="Y863" s="1"/>
       <c r="Z863" s="1"/>
     </row>
-    <row r="864" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="864" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A864" s="5"/>
       <c r="B864" s="5"/>
       <c r="C864" s="5"/>
@@ -26199,7 +26199,7 @@
       <c r="Y864" s="1"/>
       <c r="Z864" s="1"/>
     </row>
-    <row r="865" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="865" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A865" s="5"/>
       <c r="B865" s="5"/>
       <c r="C865" s="5"/>
@@ -26227,7 +26227,7 @@
       <c r="Y865" s="1"/>
       <c r="Z865" s="1"/>
     </row>
-    <row r="866" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="866" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A866" s="5"/>
       <c r="B866" s="5"/>
       <c r="C866" s="5"/>
@@ -26255,7 +26255,7 @@
       <c r="Y866" s="1"/>
       <c r="Z866" s="1"/>
     </row>
-    <row r="867" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="867" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A867" s="5"/>
       <c r="B867" s="5"/>
       <c r="C867" s="5"/>
@@ -26283,7 +26283,7 @@
       <c r="Y867" s="1"/>
       <c r="Z867" s="1"/>
     </row>
-    <row r="868" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="868" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A868" s="5"/>
       <c r="B868" s="5"/>
       <c r="C868" s="5"/>
@@ -26311,7 +26311,7 @@
       <c r="Y868" s="1"/>
       <c r="Z868" s="1"/>
     </row>
-    <row r="869" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="869" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A869" s="5"/>
       <c r="B869" s="5"/>
       <c r="C869" s="5"/>
@@ -26339,7 +26339,7 @@
       <c r="Y869" s="1"/>
       <c r="Z869" s="1"/>
     </row>
-    <row r="870" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="870" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A870" s="5"/>
       <c r="B870" s="5"/>
       <c r="C870" s="5"/>
@@ -26367,7 +26367,7 @@
       <c r="Y870" s="1"/>
       <c r="Z870" s="1"/>
     </row>
-    <row r="871" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="871" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A871" s="5"/>
       <c r="B871" s="5"/>
       <c r="C871" s="5"/>
@@ -26395,7 +26395,7 @@
       <c r="Y871" s="1"/>
       <c r="Z871" s="1"/>
     </row>
-    <row r="872" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="872" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A872" s="5"/>
       <c r="B872" s="5"/>
       <c r="C872" s="5"/>
@@ -26423,7 +26423,7 @@
       <c r="Y872" s="1"/>
       <c r="Z872" s="1"/>
     </row>
-    <row r="873" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="873" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A873" s="5"/>
       <c r="B873" s="5"/>
       <c r="C873" s="5"/>
@@ -26451,7 +26451,7 @@
       <c r="Y873" s="1"/>
       <c r="Z873" s="1"/>
     </row>
-    <row r="874" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="874" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A874" s="5"/>
       <c r="B874" s="5"/>
       <c r="C874" s="5"/>
@@ -26479,7 +26479,7 @@
       <c r="Y874" s="1"/>
       <c r="Z874" s="1"/>
     </row>
-    <row r="875" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="875" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A875" s="5"/>
       <c r="B875" s="5"/>
       <c r="C875" s="5"/>
@@ -26507,7 +26507,7 @@
       <c r="Y875" s="1"/>
       <c r="Z875" s="1"/>
     </row>
-    <row r="876" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="876" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A876" s="5"/>
       <c r="B876" s="5"/>
       <c r="C876" s="5"/>
@@ -26535,7 +26535,7 @@
       <c r="Y876" s="1"/>
       <c r="Z876" s="1"/>
     </row>
-    <row r="877" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="877" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A877" s="5"/>
       <c r="B877" s="5"/>
       <c r="C877" s="5"/>
@@ -26563,7 +26563,7 @@
       <c r="Y877" s="1"/>
       <c r="Z877" s="1"/>
     </row>
-    <row r="878" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="878" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A878" s="5"/>
       <c r="B878" s="5"/>
       <c r="C878" s="5"/>
@@ -26591,7 +26591,7 @@
       <c r="Y878" s="1"/>
       <c r="Z878" s="1"/>
     </row>
-    <row r="879" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="879" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A879" s="5"/>
       <c r="B879" s="5"/>
       <c r="C879" s="5"/>
@@ -26619,7 +26619,7 @@
       <c r="Y879" s="1"/>
       <c r="Z879" s="1"/>
     </row>
-    <row r="880" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="880" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A880" s="5"/>
       <c r="B880" s="5"/>
       <c r="C880" s="5"/>
@@ -26647,7 +26647,7 @@
       <c r="Y880" s="1"/>
       <c r="Z880" s="1"/>
     </row>
-    <row r="881" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="881" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A881" s="5"/>
       <c r="B881" s="5"/>
       <c r="C881" s="5"/>
@@ -26675,7 +26675,7 @@
       <c r="Y881" s="1"/>
       <c r="Z881" s="1"/>
     </row>
-    <row r="882" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="882" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A882" s="5"/>
       <c r="B882" s="5"/>
       <c r="C882" s="5"/>
@@ -26703,7 +26703,7 @@
       <c r="Y882" s="1"/>
       <c r="Z882" s="1"/>
     </row>
-    <row r="883" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="883" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A883" s="5"/>
       <c r="B883" s="5"/>
       <c r="C883" s="5"/>
@@ -26731,7 +26731,7 @@
       <c r="Y883" s="1"/>
       <c r="Z883" s="1"/>
     </row>
-    <row r="884" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="884" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A884" s="5"/>
       <c r="B884" s="5"/>
       <c r="C884" s="5"/>
@@ -26759,7 +26759,7 @@
       <c r="Y884" s="1"/>
       <c r="Z884" s="1"/>
     </row>
-    <row r="885" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="885" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A885" s="5"/>
       <c r="B885" s="5"/>
       <c r="C885" s="5"/>
@@ -26787,7 +26787,7 @@
       <c r="Y885" s="1"/>
       <c r="Z885" s="1"/>
     </row>
-    <row r="886" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="886" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A886" s="5"/>
       <c r="B886" s="5"/>
       <c r="C886" s="5"/>
@@ -26815,7 +26815,7 @@
       <c r="Y886" s="1"/>
       <c r="Z886" s="1"/>
     </row>
-    <row r="887" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="887" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A887" s="5"/>
       <c r="B887" s="5"/>
       <c r="C887" s="5"/>
@@ -26843,7 +26843,7 @@
       <c r="Y887" s="1"/>
       <c r="Z887" s="1"/>
     </row>
-    <row r="888" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="888" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A888" s="5"/>
       <c r="B888" s="5"/>
       <c r="C888" s="5"/>
@@ -26871,7 +26871,7 @@
       <c r="Y888" s="1"/>
       <c r="Z888" s="1"/>
     </row>
-    <row r="889" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="889" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A889" s="5"/>
       <c r="B889" s="5"/>
       <c r="C889" s="5"/>
@@ -26899,7 +26899,7 @@
       <c r="Y889" s="1"/>
       <c r="Z889" s="1"/>
     </row>
-    <row r="890" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="890" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A890" s="5"/>
       <c r="B890" s="5"/>
       <c r="C890" s="5"/>
@@ -26927,7 +26927,7 @@
       <c r="Y890" s="1"/>
       <c r="Z890" s="1"/>
     </row>
-    <row r="891" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="891" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A891" s="5"/>
       <c r="B891" s="5"/>
       <c r="C891" s="5"/>
@@ -26955,7 +26955,7 @@
       <c r="Y891" s="1"/>
       <c r="Z891" s="1"/>
     </row>
-    <row r="892" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="892" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A892" s="5"/>
       <c r="B892" s="5"/>
       <c r="C892" s="5"/>
@@ -26983,7 +26983,7 @@
       <c r="Y892" s="1"/>
       <c r="Z892" s="1"/>
     </row>
-    <row r="893" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="893" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A893" s="5"/>
       <c r="B893" s="5"/>
       <c r="C893" s="5"/>
@@ -27011,7 +27011,7 @@
       <c r="Y893" s="1"/>
       <c r="Z893" s="1"/>
     </row>
-    <row r="894" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="894" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A894" s="5"/>
       <c r="B894" s="5"/>
       <c r="C894" s="5"/>
@@ -27039,7 +27039,7 @@
       <c r="Y894" s="1"/>
       <c r="Z894" s="1"/>
     </row>
-    <row r="895" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="895" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A895" s="5"/>
       <c r="B895" s="5"/>
       <c r="C895" s="5"/>
@@ -27067,7 +27067,7 @@
       <c r="Y895" s="1"/>
       <c r="Z895" s="1"/>
     </row>
-    <row r="896" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="896" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A896" s="5"/>
       <c r="B896" s="5"/>
       <c r="C896" s="5"/>
@@ -27095,7 +27095,7 @@
       <c r="Y896" s="1"/>
       <c r="Z896" s="1"/>
     </row>
-    <row r="897" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="897" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A897" s="5"/>
       <c r="B897" s="5"/>
       <c r="C897" s="5"/>
@@ -27123,7 +27123,7 @@
       <c r="Y897" s="1"/>
       <c r="Z897" s="1"/>
     </row>
-    <row r="898" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="898" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A898" s="5"/>
       <c r="B898" s="5"/>
       <c r="C898" s="5"/>
@@ -27151,7 +27151,7 @@
       <c r="Y898" s="1"/>
       <c r="Z898" s="1"/>
     </row>
-    <row r="899" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="899" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A899" s="5"/>
       <c r="B899" s="5"/>
       <c r="C899" s="5"/>
@@ -27179,7 +27179,7 @@
       <c r="Y899" s="1"/>
       <c r="Z899" s="1"/>
     </row>
-    <row r="900" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="900" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A900" s="5"/>
       <c r="B900" s="5"/>
       <c r="C900" s="5"/>
@@ -27207,7 +27207,7 @@
       <c r="Y900" s="1"/>
       <c r="Z900" s="1"/>
     </row>
-    <row r="901" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="901" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A901" s="5"/>
       <c r="B901" s="5"/>
       <c r="C901" s="5"/>
@@ -27235,7 +27235,7 @@
       <c r="Y901" s="1"/>
       <c r="Z901" s="1"/>
     </row>
-    <row r="902" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="902" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A902" s="5"/>
       <c r="B902" s="5"/>
       <c r="C902" s="5"/>
@@ -27263,7 +27263,7 @@
       <c r="Y902" s="1"/>
       <c r="Z902" s="1"/>
     </row>
-    <row r="903" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="903" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A903" s="5"/>
       <c r="B903" s="5"/>
       <c r="C903" s="5"/>
@@ -27291,7 +27291,7 @@
       <c r="Y903" s="1"/>
       <c r="Z903" s="1"/>
     </row>
-    <row r="904" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="904" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A904" s="5"/>
       <c r="B904" s="5"/>
       <c r="C904" s="5"/>
@@ -27319,7 +27319,7 @@
       <c r="Y904" s="1"/>
       <c r="Z904" s="1"/>
     </row>
-    <row r="905" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="905" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A905" s="5"/>
       <c r="B905" s="5"/>
       <c r="C905" s="5"/>
@@ -27347,7 +27347,7 @@
       <c r="Y905" s="1"/>
       <c r="Z905" s="1"/>
     </row>
-    <row r="906" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="906" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A906" s="5"/>
       <c r="B906" s="5"/>
       <c r="C906" s="5"/>
@@ -27375,7 +27375,7 @@
       <c r="Y906" s="1"/>
       <c r="Z906" s="1"/>
     </row>
-    <row r="907" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="907" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A907" s="5"/>
       <c r="B907" s="5"/>
       <c r="C907" s="5"/>
@@ -27403,7 +27403,7 @@
       <c r="Y907" s="1"/>
       <c r="Z907" s="1"/>
     </row>
-    <row r="908" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="908" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A908" s="5"/>
       <c r="B908" s="5"/>
       <c r="C908" s="5"/>
@@ -27431,7 +27431,7 @@
       <c r="Y908" s="1"/>
       <c r="Z908" s="1"/>
     </row>
-    <row r="909" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="909" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A909" s="5"/>
       <c r="B909" s="5"/>
       <c r="C909" s="5"/>
@@ -27459,7 +27459,7 @@
       <c r="Y909" s="1"/>
       <c r="Z909" s="1"/>
     </row>
-    <row r="910" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="910" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A910" s="5"/>
       <c r="B910" s="5"/>
       <c r="C910" s="5"/>
@@ -27487,7 +27487,7 @@
       <c r="Y910" s="1"/>
       <c r="Z910" s="1"/>
     </row>
-    <row r="911" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="911" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A911" s="5"/>
       <c r="B911" s="5"/>
       <c r="C911" s="5"/>
@@ -27515,7 +27515,7 @@
       <c r="Y911" s="1"/>
       <c r="Z911" s="1"/>
     </row>
-    <row r="912" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="912" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A912" s="5"/>
       <c r="B912" s="5"/>
       <c r="C912" s="5"/>
@@ -27543,7 +27543,7 @@
       <c r="Y912" s="1"/>
       <c r="Z912" s="1"/>
     </row>
-    <row r="913" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="913" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A913" s="5"/>
       <c r="B913" s="5"/>
       <c r="C913" s="5"/>
@@ -27571,7 +27571,7 @@
       <c r="Y913" s="1"/>
       <c r="Z913" s="1"/>
     </row>
-    <row r="914" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="914" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A914" s="5"/>
       <c r="B914" s="5"/>
       <c r="C914" s="5"/>
@@ -27599,7 +27599,7 @@
       <c r="Y914" s="1"/>
       <c r="Z914" s="1"/>
     </row>
-    <row r="915" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="915" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A915" s="5"/>
       <c r="B915" s="5"/>
       <c r="C915" s="5"/>
@@ -27627,7 +27627,7 @@
       <c r="Y915" s="1"/>
       <c r="Z915" s="1"/>
     </row>
-    <row r="916" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="916" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A916" s="5"/>
       <c r="B916" s="5"/>
       <c r="C916" s="5"/>
@@ -27655,7 +27655,7 @@
       <c r="Y916" s="1"/>
       <c r="Z916" s="1"/>
     </row>
-    <row r="917" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="917" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A917" s="5"/>
       <c r="B917" s="5"/>
       <c r="C917" s="5"/>
@@ -27683,7 +27683,7 @@
       <c r="Y917" s="1"/>
       <c r="Z917" s="1"/>
     </row>
-    <row r="918" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="918" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A918" s="5"/>
       <c r="B918" s="5"/>
       <c r="C918" s="5"/>
@@ -27711,7 +27711,7 @@
       <c r="Y918" s="1"/>
       <c r="Z918" s="1"/>
     </row>
-    <row r="919" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="919" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A919" s="5"/>
       <c r="B919" s="5"/>
       <c r="C919" s="5"/>
@@ -27739,7 +27739,7 @@
       <c r="Y919" s="1"/>
       <c r="Z919" s="1"/>
     </row>
-    <row r="920" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="920" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A920" s="5"/>
       <c r="B920" s="5"/>
       <c r="C920" s="5"/>
@@ -27767,7 +27767,7 @@
       <c r="Y920" s="1"/>
       <c r="Z920" s="1"/>
     </row>
-    <row r="921" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="921" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A921" s="5"/>
       <c r="B921" s="5"/>
       <c r="C921" s="5"/>
@@ -27795,7 +27795,7 @@
       <c r="Y921" s="1"/>
       <c r="Z921" s="1"/>
     </row>
-    <row r="922" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="922" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A922" s="5"/>
       <c r="B922" s="5"/>
       <c r="C922" s="5"/>
@@ -27823,7 +27823,7 @@
       <c r="Y922" s="1"/>
       <c r="Z922" s="1"/>
     </row>
-    <row r="923" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="923" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A923" s="5"/>
       <c r="B923" s="5"/>
       <c r="C923" s="5"/>
@@ -27851,7 +27851,7 @@
       <c r="Y923" s="1"/>
       <c r="Z923" s="1"/>
     </row>
-    <row r="924" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="924" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A924" s="5"/>
       <c r="B924" s="5"/>
       <c r="C924" s="5"/>
@@ -27879,7 +27879,7 @@
       <c r="Y924" s="1"/>
       <c r="Z924" s="1"/>
     </row>
-    <row r="925" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="925" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A925" s="5"/>
       <c r="B925" s="5"/>
       <c r="C925" s="5"/>
@@ -27907,7 +27907,7 @@
       <c r="Y925" s="1"/>
       <c r="Z925" s="1"/>
     </row>
-    <row r="926" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="926" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A926" s="5"/>
       <c r="B926" s="5"/>
       <c r="C926" s="5"/>
@@ -27935,7 +27935,7 @@
       <c r="Y926" s="1"/>
       <c r="Z926" s="1"/>
     </row>
-    <row r="927" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="927" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A927" s="5"/>
       <c r="B927" s="5"/>
       <c r="C927" s="5"/>
@@ -27963,7 +27963,7 @@
       <c r="Y927" s="1"/>
       <c r="Z927" s="1"/>
     </row>
-    <row r="928" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="928" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A928" s="5"/>
       <c r="B928" s="5"/>
       <c r="C928" s="5"/>
@@ -27991,7 +27991,7 @@
       <c r="Y928" s="1"/>
       <c r="Z928" s="1"/>
     </row>
-    <row r="929" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="929" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A929" s="5"/>
       <c r="B929" s="5"/>
       <c r="C929" s="5"/>
@@ -28019,7 +28019,7 @@
       <c r="Y929" s="1"/>
       <c r="Z929" s="1"/>
     </row>
-    <row r="930" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="930" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A930" s="5"/>
       <c r="B930" s="5"/>
       <c r="C930" s="5"/>
@@ -28047,7 +28047,7 @@
       <c r="Y930" s="1"/>
       <c r="Z930" s="1"/>
     </row>
-    <row r="931" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="931" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A931" s="5"/>
       <c r="B931" s="5"/>
       <c r="C931" s="5"/>
@@ -28075,7 +28075,7 @@
       <c r="Y931" s="1"/>
       <c r="Z931" s="1"/>
     </row>
-    <row r="932" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="932" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A932" s="5"/>
       <c r="B932" s="5"/>
       <c r="C932" s="5"/>
@@ -28103,7 +28103,7 @@
       <c r="Y932" s="1"/>
       <c r="Z932" s="1"/>
     </row>
-    <row r="933" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="933" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A933" s="5"/>
       <c r="B933" s="5"/>
       <c r="C933" s="5"/>
@@ -28131,7 +28131,7 @@
       <c r="Y933" s="1"/>
       <c r="Z933" s="1"/>
     </row>
-    <row r="934" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="934" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A934" s="5"/>
       <c r="B934" s="5"/>
       <c r="C934" s="5"/>
@@ -28159,7 +28159,7 @@
       <c r="Y934" s="1"/>
       <c r="Z934" s="1"/>
     </row>
-    <row r="935" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="935" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A935" s="5"/>
       <c r="B935" s="5"/>
       <c r="C935" s="5"/>
@@ -28187,7 +28187,7 @@
       <c r="Y935" s="1"/>
       <c r="Z935" s="1"/>
     </row>
-    <row r="936" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="936" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A936" s="5"/>
       <c r="B936" s="5"/>
       <c r="C936" s="5"/>
@@ -28215,7 +28215,7 @@
       <c r="Y936" s="1"/>
       <c r="Z936" s="1"/>
     </row>
-    <row r="937" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="937" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A937" s="5"/>
       <c r="B937" s="5"/>
       <c r="C937" s="5"/>
@@ -28243,7 +28243,7 @@
       <c r="Y937" s="1"/>
       <c r="Z937" s="1"/>
     </row>
-    <row r="938" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="938" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A938" s="5"/>
       <c r="B938" s="5"/>
       <c r="C938" s="5"/>
@@ -28271,7 +28271,7 @@
       <c r="Y938" s="1"/>
       <c r="Z938" s="1"/>
     </row>
-    <row r="939" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="939" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A939" s="5"/>
       <c r="B939" s="5"/>
       <c r="C939" s="5"/>
@@ -28299,7 +28299,7 @@
       <c r="Y939" s="1"/>
       <c r="Z939" s="1"/>
     </row>
-    <row r="940" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="940" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A940" s="5"/>
       <c r="B940" s="5"/>
       <c r="C940" s="5"/>
@@ -28327,7 +28327,7 @@
       <c r="Y940" s="1"/>
       <c r="Z940" s="1"/>
     </row>
-    <row r="941" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="941" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A941" s="5"/>
       <c r="B941" s="5"/>
       <c r="C941" s="5"/>
@@ -28355,7 +28355,7 @@
       <c r="Y941" s="1"/>
       <c r="Z941" s="1"/>
     </row>
-    <row r="942" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="942" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A942" s="5"/>
       <c r="B942" s="5"/>
       <c r="C942" s="5"/>
@@ -28383,7 +28383,7 @@
       <c r="Y942" s="1"/>
       <c r="Z942" s="1"/>
     </row>
-    <row r="943" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="943" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A943" s="5"/>
       <c r="B943" s="5"/>
       <c r="C943" s="5"/>
@@ -28411,7 +28411,7 @@
       <c r="Y943" s="1"/>
       <c r="Z943" s="1"/>
     </row>
-    <row r="944" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="944" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A944" s="5"/>
       <c r="B944" s="5"/>
       <c r="C944" s="5"/>
@@ -28439,7 +28439,7 @@
       <c r="Y944" s="1"/>
       <c r="Z944" s="1"/>
     </row>
-    <row r="945" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="945" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A945" s="5"/>
       <c r="B945" s="5"/>
       <c r="C945" s="5"/>
@@ -28467,7 +28467,7 @@
       <c r="Y945" s="1"/>
       <c r="Z945" s="1"/>
     </row>
-    <row r="946" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="946" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A946" s="5"/>
       <c r="B946" s="5"/>
       <c r="C946" s="5"/>
@@ -28495,7 +28495,7 @@
       <c r="Y946" s="1"/>
       <c r="Z946" s="1"/>
     </row>
-    <row r="947" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="947" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A947" s="5"/>
       <c r="B947" s="5"/>
       <c r="C947" s="5"/>
@@ -28523,7 +28523,7 @@
       <c r="Y947" s="1"/>
       <c r="Z947" s="1"/>
     </row>
-    <row r="948" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="948" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A948" s="5"/>
       <c r="B948" s="5"/>
       <c r="C948" s="5"/>
@@ -28551,7 +28551,7 @@
       <c r="Y948" s="1"/>
       <c r="Z948" s="1"/>
     </row>
-    <row r="949" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="949" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A949" s="5"/>
       <c r="B949" s="5"/>
       <c r="C949" s="5"/>
@@ -28579,7 +28579,7 @@
       <c r="Y949" s="1"/>
       <c r="Z949" s="1"/>
     </row>
-    <row r="950" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="950" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A950" s="5"/>
       <c r="B950" s="5"/>
       <c r="C950" s="5"/>
@@ -28607,7 +28607,7 @@
       <c r="Y950" s="1"/>
       <c r="Z950" s="1"/>
     </row>
-    <row r="951" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="951" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A951" s="5"/>
       <c r="B951" s="5"/>
       <c r="C951" s="5"/>
@@ -28635,7 +28635,7 @@
       <c r="Y951" s="1"/>
       <c r="Z951" s="1"/>
     </row>
-    <row r="952" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="952" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A952" s="5"/>
       <c r="B952" s="5"/>
       <c r="C952" s="5"/>
@@ -28663,7 +28663,7 @@
       <c r="Y952" s="1"/>
       <c r="Z952" s="1"/>
     </row>
-    <row r="953" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="953" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A953" s="5"/>
       <c r="B953" s="5"/>
       <c r="C953" s="5"/>
@@ -28691,7 +28691,7 @@
       <c r="Y953" s="1"/>
       <c r="Z953" s="1"/>
     </row>
-    <row r="954" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="954" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A954" s="5"/>
       <c r="B954" s="5"/>
       <c r="C954" s="5"/>
@@ -28719,7 +28719,7 @@
       <c r="Y954" s="1"/>
       <c r="Z954" s="1"/>
     </row>
-    <row r="955" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="955" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A955" s="5"/>
       <c r="B955" s="5"/>
       <c r="C955" s="5"/>
@@ -28747,7 +28747,7 @@
       <c r="Y955" s="1"/>
       <c r="Z955" s="1"/>
     </row>
-    <row r="956" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="956" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A956" s="5"/>
       <c r="B956" s="5"/>
       <c r="C956" s="5"/>
@@ -28775,7 +28775,7 @@
       <c r="Y956" s="1"/>
       <c r="Z956" s="1"/>
     </row>
-    <row r="957" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="957" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A957" s="5"/>
       <c r="B957" s="5"/>
       <c r="C957" s="5"/>
@@ -28803,7 +28803,7 @@
       <c r="Y957" s="1"/>
       <c r="Z957" s="1"/>
     </row>
-    <row r="958" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="958" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A958" s="5"/>
       <c r="B958" s="5"/>
       <c r="C958" s="5"/>
@@ -28831,7 +28831,7 @@
       <c r="Y958" s="1"/>
       <c r="Z958" s="1"/>
     </row>
-    <row r="959" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="959" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A959" s="5"/>
       <c r="B959" s="5"/>
       <c r="C959" s="5"/>
@@ -28859,7 +28859,7 @@
       <c r="Y959" s="1"/>
       <c r="Z959" s="1"/>
     </row>
-    <row r="960" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="960" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A960" s="5"/>
       <c r="B960" s="5"/>
       <c r="C960" s="5"/>
@@ -28887,7 +28887,7 @@
       <c r="Y960" s="1"/>
       <c r="Z960" s="1"/>
     </row>
-    <row r="961" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="961" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A961" s="5"/>
       <c r="B961" s="5"/>
       <c r="C961" s="5"/>
@@ -28915,7 +28915,7 @@
       <c r="Y961" s="1"/>
       <c r="Z961" s="1"/>
     </row>
-    <row r="962" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="962" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A962" s="5"/>
       <c r="B962" s="5"/>
       <c r="C962" s="5"/>
@@ -28943,7 +28943,7 @@
       <c r="Y962" s="1"/>
       <c r="Z962" s="1"/>
     </row>
-    <row r="963" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="963" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A963" s="5"/>
       <c r="B963" s="5"/>
       <c r="C963" s="5"/>
@@ -28971,7 +28971,7 @@
       <c r="Y963" s="1"/>
       <c r="Z963" s="1"/>
     </row>
-    <row r="964" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="964" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A964" s="5"/>
       <c r="B964" s="5"/>
       <c r="C964" s="5"/>
@@ -28999,7 +28999,7 @@
       <c r="Y964" s="1"/>
       <c r="Z964" s="1"/>
     </row>
-    <row r="965" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="965" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A965" s="5"/>
       <c r="B965" s="5"/>
       <c r="C965" s="5"/>
@@ -29027,7 +29027,7 @@
       <c r="Y965" s="1"/>
       <c r="Z965" s="1"/>
     </row>
-    <row r="966" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="966" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A966" s="5"/>
       <c r="B966" s="5"/>
       <c r="C966" s="5"/>
@@ -29055,7 +29055,7 @@
       <c r="Y966" s="1"/>
       <c r="Z966" s="1"/>
     </row>
-    <row r="967" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="967" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A967" s="5"/>
       <c r="B967" s="5"/>
       <c r="C967" s="5"/>
@@ -29083,7 +29083,7 @@
       <c r="Y967" s="1"/>
       <c r="Z967" s="1"/>
     </row>
-    <row r="968" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="968" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A968" s="5"/>
       <c r="B968" s="5"/>
       <c r="C968" s="5"/>
@@ -29111,7 +29111,7 @@
       <c r="Y968" s="1"/>
       <c r="Z968" s="1"/>
     </row>
-    <row r="969" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="969" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A969" s="5"/>
       <c r="B969" s="5"/>
       <c r="C969" s="5"/>
@@ -29139,7 +29139,7 @@
       <c r="Y969" s="1"/>
       <c r="Z969" s="1"/>
     </row>
-    <row r="970" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="970" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A970" s="5"/>
       <c r="B970" s="5"/>
       <c r="C970" s="5"/>
@@ -29167,7 +29167,7 @@
       <c r="Y970" s="1"/>
       <c r="Z970" s="1"/>
     </row>
-    <row r="971" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="971" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A971" s="5"/>
       <c r="B971" s="5"/>
       <c r="C971" s="5"/>
@@ -29195,7 +29195,7 @@
       <c r="Y971" s="1"/>
       <c r="Z971" s="1"/>
     </row>
-    <row r="972" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="972" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A972" s="5"/>
       <c r="B972" s="5"/>
       <c r="C972" s="5"/>
@@ -29223,7 +29223,7 @@
       <c r="Y972" s="1"/>
       <c r="Z972" s="1"/>
     </row>
-    <row r="973" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="973" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A973" s="5"/>
       <c r="B973" s="5"/>
       <c r="C973" s="5"/>
@@ -29251,7 +29251,7 @@
       <c r="Y973" s="1"/>
       <c r="Z973" s="1"/>
     </row>
-    <row r="974" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="974" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A974" s="5"/>
       <c r="B974" s="5"/>
       <c r="C974" s="5"/>
@@ -29279,7 +29279,7 @@
       <c r="Y974" s="1"/>
       <c r="Z974" s="1"/>
     </row>
-    <row r="975" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="975" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A975" s="5"/>
       <c r="B975" s="5"/>
       <c r="C975" s="5"/>
@@ -29307,7 +29307,7 @@
       <c r="Y975" s="1"/>
       <c r="Z975" s="1"/>
     </row>
-    <row r="976" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="976" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A976" s="5"/>
       <c r="B976" s="5"/>
       <c r="C976" s="5"/>
@@ -29335,7 +29335,7 @@
       <c r="Y976" s="1"/>
       <c r="Z976" s="1"/>
     </row>
-    <row r="977" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="977" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A977" s="5"/>
       <c r="B977" s="5"/>
       <c r="C977" s="5"/>
@@ -29363,7 +29363,7 @@
       <c r="Y977" s="1"/>
       <c r="Z977" s="1"/>
     </row>
-    <row r="978" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="978" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A978" s="5"/>
       <c r="B978" s="5"/>
       <c r="C978" s="5"/>
@@ -29391,7 +29391,7 @@
       <c r="Y978" s="1"/>
       <c r="Z978" s="1"/>
     </row>
-    <row r="979" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="979" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A979" s="5"/>
       <c r="B979" s="5"/>
       <c r="C979" s="5"/>
@@ -29419,7 +29419,7 @@
       <c r="Y979" s="1"/>
       <c r="Z979" s="1"/>
     </row>
-    <row r="980" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="980" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A980" s="5"/>
       <c r="B980" s="5"/>
       <c r="C980" s="5"/>
@@ -29447,7 +29447,7 @@
       <c r="Y980" s="1"/>
       <c r="Z980" s="1"/>
     </row>
-    <row r="981" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="981" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A981" s="5"/>
       <c r="B981" s="5"/>
       <c r="C981" s="5"/>
@@ -29475,7 +29475,7 @@
       <c r="Y981" s="1"/>
       <c r="Z981" s="1"/>
     </row>
-    <row r="982" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="982" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A982" s="5"/>
       <c r="B982" s="5"/>
       <c r="C982" s="5"/>
@@ -29503,7 +29503,7 @@
       <c r="Y982" s="1"/>
       <c r="Z982" s="1"/>
     </row>
-    <row r="983" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="983" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A983" s="5"/>
       <c r="B983" s="5"/>
       <c r="C983" s="5"/>
@@ -29531,7 +29531,7 @@
       <c r="Y983" s="1"/>
       <c r="Z983" s="1"/>
     </row>
-    <row r="984" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="984" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H984" s="1"/>
       <c r="I984" s="1"/>
       <c r="J984" s="1"/>
@@ -29552,7 +29552,7 @@
       <c r="Y984" s="1"/>
       <c r="Z984" s="1"/>
     </row>
-    <row r="985" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="985" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H985" s="1"/>
       <c r="I985" s="1"/>
       <c r="J985" s="1"/>
@@ -29573,7 +29573,7 @@
       <c r="Y985" s="1"/>
       <c r="Z985" s="1"/>
     </row>
-    <row r="986" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="986" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H986" s="1"/>
       <c r="I986" s="1"/>
       <c r="J986" s="1"/>
@@ -29594,7 +29594,7 @@
       <c r="Y986" s="1"/>
       <c r="Z986" s="1"/>
     </row>
-    <row r="987" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="987" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H987" s="1"/>
       <c r="I987" s="1"/>
       <c r="J987" s="1"/>
@@ -29615,7 +29615,7 @@
       <c r="Y987" s="1"/>
       <c r="Z987" s="1"/>
     </row>
-    <row r="988" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="988" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H988" s="1"/>
       <c r="I988" s="1"/>
       <c r="J988" s="1"/>
@@ -29636,7 +29636,7 @@
       <c r="Y988" s="1"/>
       <c r="Z988" s="1"/>
     </row>
-    <row r="989" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="989" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H989" s="1"/>
       <c r="I989" s="1"/>
       <c r="J989" s="1"/>
@@ -29657,7 +29657,7 @@
       <c r="Y989" s="1"/>
       <c r="Z989" s="1"/>
     </row>
-    <row r="990" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="990" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H990" s="1"/>
       <c r="I990" s="1"/>
       <c r="J990" s="1"/>

--- a/Road_to_Glory/connection_page.xlsx
+++ b/Road_to_Glory/connection_page.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\office\SymlexVPNTestCases\Road_to_Glory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63AF4F8F-BD40-456B-9225-20D817EBC5E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40D38817-D19B-422F-832B-98E99BE61394}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
